--- a/StructureDefinition-be-lab-prescription.xlsx
+++ b/StructureDefinition-be-lab-prescription.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$55</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1975" uniqueCount="465">
   <si>
     <t>Path</t>
   </si>
@@ -369,7 +369,91 @@
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN].reasonCOde</t>
   </si>
   <si>
-    <t>ServiceRequest.extension.id</t>
+    <t>informParty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-inform-party}
+</t>
+  </si>
+  <si>
+    <t>Parties to inform of fulfillment of the prescription, besides the prescriber.</t>
+  </si>
+  <si>
+    <t>urgentCommunication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-urgent-communication}
+</t>
+  </si>
+  <si>
+    <t>when needed to communicate urgently any results</t>
+  </si>
+  <si>
+    <t>ServiceRequest.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Identifiers assigned to this order</t>
+  </si>
+  <si>
+    <t>Identifiers assigned to this order instance by the orderer and/or the receiver and/or order fulfiller.</t>
+  </si>
+  <si>
+    <t>The identifier.type element is used to distinguish between the identifiers assigned by the orderer (known as the 'Placer' in HL7 v2) and the producer of the observations in response to the order (known as the 'Filler' in HL7 v2).  For further discussion and examples see the resource notes section below.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>Request.identifier</t>
+  </si>
+  <si>
+    <t>ORC.2, ORC.3, RF1-6 / RF1-11,</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>ClinicalStatement.identifier</t>
+  </si>
+  <si>
+    <t>UHMEP</t>
+  </si>
+  <si>
+    <t>Reference ID of the UHMEP once available there</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -384,7 +468,13 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>ServiceRequest.extension.extension</t>
+    <t>ServiceRequest.identifier.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
@@ -393,183 +483,41 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>ServiceRequest.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/request-statusReason</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>ServiceRequest.extension.value[x]</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes identifying the reason for the current state of an event.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
+    <t>ServiceRequest.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.type</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
-  </si>
-  <si>
-    <t>informParty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-inform-party}
-</t>
-  </si>
-  <si>
-    <t>Parties to inform of fulfillment of the prescription, besides the prescriber.</t>
-  </si>
-  <si>
-    <t>urgentCommunication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-urgent-communication}
-</t>
-  </si>
-  <si>
-    <t>when needed to communicate urgently any results</t>
-  </si>
-  <si>
-    <t>ServiceRequest.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Identifiers assigned to this order</t>
-  </si>
-  <si>
-    <t>Identifiers assigned to this order instance by the orderer and/or the receiver and/or order fulfiller.</t>
-  </si>
-  <si>
-    <t>The identifier.type element is used to distinguish between the identifiers assigned by the orderer (known as the 'Placer' in HL7 v2) and the producer of the observations in response to the order (known as the 'Filler' in HL7 v2).  For further discussion and examples see the resource notes section below.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:system}
-</t>
-  </si>
-  <si>
-    <t>Request.identifier</t>
-  </si>
-  <si>
-    <t>ORC.2, ORC.3, RF1-6 / RF1-11,</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>ClinicalStatement.identifier</t>
-  </si>
-  <si>
-    <t>UHMEP</t>
-  </si>
-  <si>
-    <t>Reference ID of the UHMEP once available there</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.id</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.type</t>
   </si>
   <si>
     <t>Description of identifier</t>
@@ -980,6 +928,9 @@
 If that is not possible , ALBERT codes are used (subset as defined by FPS Health.) 
 If that is not possible,laboratory may send its own code plus obligatory a text element to further explain. For a laboratory order, this SHALL be used with caution as the laboratory fulfilling the order needs to understand what is ordered - as such it SHALL only be used when the order is sent adressed.
 If that is not possible the kind of observation is expressed only in text (allowed but NOT RECOMMENDED - although if considered sufficient the .code element could be just a .text element e.g. "Diabetes?")</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>Codes for tests or services that can be carried out by a designated individual, organization or healthcare service.</t>
@@ -1684,7 +1635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN60"/>
+  <dimension ref="A1:AN55"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1694,7 +1645,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="35.71484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.25" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="21.58203125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -2877,11 +2828,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>44</v>
       </c>
@@ -2890,10 +2843,10 @@
         <v>42</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>44</v>
@@ -2902,13 +2855,13 @@
         <v>44</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2959,19 +2912,19 @@
         <v>44</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>44</v>
@@ -2980,7 +2933,7 @@
         <v>44</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>44</v>
@@ -2991,9 +2944,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="C12" t="s" s="2">
         <v>44</v>
       </c>
@@ -3002,7 +2957,7 @@
         <v>42</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>44</v>
@@ -3014,10 +2969,10 @@
         <v>44</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>99</v>
@@ -3059,19 +3014,19 @@
         <v>44</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>42</v>
@@ -3103,101 +3058,103 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>44</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R13" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE13" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="R13" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AF13" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>44</v>
@@ -3217,7 +3174,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3225,22 +3182,22 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>127</v>
@@ -3248,7 +3205,9 @@
       <c r="L14" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="M14" s="2"/>
+      <c r="M14" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>44</v>
@@ -3273,35 +3232,35 @@
         <v>44</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA14" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>44</v>
@@ -3310,34 +3269,34 @@
         <v>64</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>44</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>52</v>
@@ -3349,18 +3308,20 @@
         <v>44</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="M15" s="2"/>
+      <c r="M15" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>44</v>
@@ -3385,10 +3346,10 @@
         <v>44</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="Y15" t="s" s="2">
         <v>44</v>
@@ -3409,13 +3370,13 @@
         <v>44</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>44</v>
@@ -3424,28 +3385,26 @@
         <v>64</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>44</v>
+        <v>135</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
         <v>44</v>
       </c>
@@ -3454,10 +3413,10 @@
         <v>42</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>44</v>
@@ -3466,13 +3425,13 @@
         <v>44</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3523,19 +3482,19 @@
         <v>44</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>44</v>
@@ -3544,7 +3503,7 @@
         <v>44</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>44</v>
@@ -3555,20 +3514,18 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>44</v>
@@ -3580,15 +3537,17 @@
         <v>44</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>44</v>
@@ -3625,19 +3584,19 @@
         <v>44</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
@@ -3658,7 +3617,7 @@
         <v>44</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>44</v>
@@ -3669,18 +3628,18 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>44</v>
@@ -3689,22 +3648,22 @@
         <v>53</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>44</v>
@@ -3729,13 +3688,13 @@
         <v>44</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>44</v>
+        <v>153</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>44</v>
+        <v>154</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>44</v>
@@ -3753,28 +3712,28 @@
         <v>44</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>95</v>
+        <v>157</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>44</v>
@@ -3785,7 +3744,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3796,10 +3755,10 @@
         <v>42</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>44</v>
@@ -3808,18 +3767,20 @@
         <v>53</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>44</v>
       </c>
@@ -3843,35 +3804,37 @@
         <v>44</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>44</v>
+        <v>164</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>44</v>
+        <v>166</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AB19" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC19" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>44</v>
@@ -3880,34 +3843,32 @@
         <v>64</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>157</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>158</v>
+        <v>44</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>159</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>52</v>
@@ -3922,30 +3883,32 @@
         <v>53</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>150</v>
+        <v>66</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="R20" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>44</v>
+        <v>175</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>44</v>
@@ -3981,13 +3944,13 @@
         <v>44</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>44</v>
@@ -3996,24 +3959,24 @@
         <v>64</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>158</v>
+        <v>44</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>159</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4021,7 +3984,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>52</v>
@@ -4033,18 +3996,20 @@
         <v>44</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>54</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>44</v>
@@ -4057,7 +4022,7 @@
         <v>44</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>44</v>
+        <v>183</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>44</v>
@@ -4093,7 +4058,7 @@
         <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>115</v>
+        <v>184</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -4105,16 +4070,16 @@
         <v>44</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>44</v>
+        <v>185</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>116</v>
+        <v>186</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>44</v>
@@ -4125,18 +4090,18 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>44</v>
@@ -4145,20 +4110,18 @@
         <v>44</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>97</v>
+        <v>188</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>44</v>
@@ -4195,40 +4158,40 @@
         <v>44</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>119</v>
+        <v>191</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>44</v>
+        <v>192</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>116</v>
+        <v>193</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>44</v>
@@ -4239,7 +4202,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4256,26 +4219,24 @@
         <v>44</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>72</v>
+        <v>195</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>44</v>
       </c>
@@ -4299,13 +4260,13 @@
         <v>44</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>171</v>
+        <v>44</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>172</v>
+        <v>44</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>173</v>
+        <v>44</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>44</v>
@@ -4323,7 +4284,7 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -4341,10 +4302,10 @@
         <v>44</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>44</v>
@@ -4355,7 +4316,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4366,7 +4327,7 @@
         <v>42</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>44</v>
@@ -4378,20 +4339,18 @@
         <v>53</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>135</v>
+        <v>203</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>44</v>
       </c>
@@ -4415,13 +4374,13 @@
         <v>44</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>181</v>
+        <v>44</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>182</v>
+        <v>44</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>183</v>
+        <v>44</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>44</v>
@@ -4439,13 +4398,13 @@
         <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>44</v>
@@ -4454,13 +4413,13 @@
         <v>64</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>44</v>
+        <v>207</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>44</v>
@@ -4471,7 +4430,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4479,10 +4438,10 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>44</v>
@@ -4497,29 +4456,27 @@
         <v>66</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>191</v>
+        <v>44</v>
       </c>
       <c r="R25" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>192</v>
+        <v>44</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>44</v>
@@ -4555,13 +4512,13 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>44</v>
@@ -4570,13 +4527,13 @@
         <v>64</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>44</v>
+        <v>213</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>194</v>
+        <v>110</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>44</v>
@@ -4585,23 +4542,23 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>44</v>
+        <v>215</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>44</v>
@@ -4610,17 +4567,15 @@
         <v>53</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>54</v>
+        <v>216</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>44</v>
@@ -4633,7 +4588,7 @@
         <v>44</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>200</v>
+        <v>44</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>44</v>
@@ -4669,13 +4624,13 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>44</v>
@@ -4684,13 +4639,13 @@
         <v>64</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>44</v>
+        <v>219</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>44</v>
@@ -4699,23 +4654,23 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>44</v>
+        <v>223</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>44</v>
@@ -4724,13 +4679,13 @@
         <v>53</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4781,13 +4736,13 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>44</v>
@@ -4796,13 +4751,13 @@
         <v>64</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>44</v>
+        <v>227</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>44</v>
@@ -4811,13 +4766,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>44</v>
+        <v>231</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4827,7 +4782,7 @@
         <v>52</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>44</v>
@@ -4836,18 +4791,20 @@
         <v>53</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>212</v>
+        <v>126</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>44</v>
       </c>
@@ -4895,7 +4852,7 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4910,13 +4867,13 @@
         <v>64</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>44</v>
+        <v>236</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>44</v>
@@ -4925,9 +4882,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4935,31 +4892,31 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>220</v>
+        <v>72</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4985,13 +4942,13 @@
         <v>44</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>44</v>
+        <v>153</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>44</v>
+        <v>243</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>44</v>
+        <v>244</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>44</v>
@@ -5009,13 +4966,13 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>44</v>
@@ -5024,24 +4981,24 @@
         <v>64</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>110</v>
+        <v>246</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>44</v>
+        <v>248</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>44</v>
+        <v>249</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5049,31 +5006,31 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5099,13 +5056,13 @@
         <v>44</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>44</v>
+        <v>153</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>44</v>
+        <v>254</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>44</v>
+        <v>255</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>44</v>
@@ -5123,13 +5080,13 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>44</v>
@@ -5138,16 +5095,16 @@
         <v>64</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>44</v>
+        <v>258</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>44</v>
@@ -5155,18 +5112,18 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>232</v>
+        <v>44</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>53</v>
@@ -5178,16 +5135,20 @@
         <v>53</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>233</v>
+        <v>159</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>44</v>
       </c>
@@ -5211,13 +5172,11 @@
         <v>44</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="X31" s="2"/>
       <c r="Y31" t="s" s="2">
-        <v>44</v>
+        <v>264</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>44</v>
@@ -5235,7 +5194,7 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -5250,16 +5209,16 @@
         <v>64</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>236</v>
+        <v>44</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>44</v>
+        <v>258</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>44</v>
@@ -5267,18 +5226,18 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>240</v>
+        <v>44</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>53</v>
@@ -5290,20 +5249,22 @@
         <v>53</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>241</v>
+        <v>72</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P32" s="2"/>
+      <c r="P32" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="Q32" t="s" s="2">
         <v>44</v>
       </c>
@@ -5323,13 +5284,13 @@
         <v>44</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>44</v>
+        <v>153</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>44</v>
+        <v>271</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>44</v>
+        <v>272</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>44</v>
@@ -5347,13 +5308,13 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>44</v>
@@ -5362,28 +5323,28 @@
         <v>64</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>44</v>
+        <v>276</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>248</v>
+        <v>44</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5393,33 +5354,35 @@
         <v>52</v>
       </c>
       <c r="G33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H33" t="s" s="2">
         <v>53</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>150</v>
+        <v>278</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P33" s="2"/>
+      <c r="P33" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="Q33" t="s" s="2">
         <v>44</v>
       </c>
@@ -5463,7 +5426,7 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -5478,13 +5441,13 @@
         <v>64</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>254</v>
+        <v>44</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>44</v>
@@ -5495,7 +5458,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5503,7 +5466,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>52</v>
@@ -5512,22 +5475,22 @@
         <v>53</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>72</v>
+        <v>287</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5553,13 +5516,13 @@
         <v>44</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>171</v>
+        <v>291</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>44</v>
@@ -5577,39 +5540,39 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>262</v>
+        <v>44</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>265</v>
+        <v>44</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>266</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5617,31 +5580,31 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>53</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>72</v>
+        <v>287</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5667,13 +5630,13 @@
         <v>44</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>171</v>
+        <v>291</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>44</v>
@@ -5691,39 +5654,39 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>273</v>
+        <v>44</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>95</v>
+        <v>294</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>275</v>
+        <v>44</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5731,13 +5694,13 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>44</v>
@@ -5746,19 +5709,17 @@
         <v>53</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>135</v>
+        <v>303</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>44</v>
@@ -5783,11 +5744,13 @@
         <v>44</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="X36" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y36" t="s" s="2">
-        <v>281</v>
+        <v>44</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>44</v>
@@ -5805,13 +5768,13 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>44</v>
@@ -5823,13 +5786,13 @@
         <v>44</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>275</v>
+        <v>44</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>44</v>
@@ -5837,7 +5800,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5845,7 +5808,7 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>52</v>
@@ -5860,22 +5823,20 @@
         <v>53</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>72</v>
+        <v>310</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P37" t="s" s="2">
-        <v>287</v>
-      </c>
+      <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
         <v>44</v>
       </c>
@@ -5895,13 +5856,13 @@
         <v>44</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>171</v>
+        <v>44</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>288</v>
+        <v>44</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>289</v>
+        <v>44</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>44</v>
@@ -5919,10 +5880,10 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>52</v>
@@ -5934,28 +5895,28 @@
         <v>64</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>290</v>
+        <v>313</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>291</v>
+        <v>314</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>292</v>
+        <v>315</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>293</v>
+        <v>316</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>44</v>
+        <v>317</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>44</v>
+        <v>319</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5968,32 +5929,26 @@
         <v>44</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>295</v>
+        <v>320</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P38" t="s" s="2">
-        <v>300</v>
-      </c>
+      <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
         <v>44</v>
       </c>
@@ -6037,7 +5992,7 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -6052,35 +6007,35 @@
         <v>64</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>44</v>
+        <v>324</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>44</v>
+        <v>326</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>44</v>
+        <v>327</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>44</v>
+        <v>329</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>53</v>
@@ -6089,20 +6044,18 @@
         <v>44</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>304</v>
+        <v>330</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>44</v>
@@ -6127,13 +6080,13 @@
         <v>44</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>308</v>
+        <v>44</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>309</v>
+        <v>44</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>44</v>
@@ -6151,7 +6104,7 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -6160,30 +6113,30 @@
         <v>52</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>44</v>
+        <v>333</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>44</v>
+        <v>336</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>44</v>
+        <v>337</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6194,29 +6147,27 @@
         <v>42</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="H40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="J40" t="s" s="2">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>313</v>
+        <v>340</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>44</v>
@@ -6241,13 +6192,13 @@
         <v>44</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>129</v>
+        <v>291</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>44</v>
@@ -6265,16 +6216,16 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>64</v>
@@ -6283,25 +6234,25 @@
         <v>44</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>310</v>
+        <v>44</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>44</v>
+        <v>345</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>318</v>
+        <v>346</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>44</v>
+        <v>347</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6311,7 +6262,7 @@
         <v>52</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>44</v>
@@ -6320,18 +6271,16 @@
         <v>53</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>319</v>
+        <v>348</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>320</v>
+        <v>349</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>321</v>
+        <v>350</v>
       </c>
       <c r="M41" s="2"/>
-      <c r="N41" t="s" s="2">
-        <v>322</v>
-      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>44</v>
       </c>
@@ -6379,7 +6328,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>318</v>
+        <v>346</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6394,28 +6343,28 @@
         <v>64</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>44</v>
+        <v>351</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>323</v>
+        <v>352</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>324</v>
+        <v>353</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>44</v>
+        <v>354</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>44</v>
+        <v>355</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>44</v>
+        <v>357</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6434,15 +6383,17 @@
         <v>53</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>326</v>
+        <v>358</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>327</v>
+        <v>359</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>44</v>
@@ -6491,10 +6442,10 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>52</v>
@@ -6506,28 +6457,28 @@
         <v>64</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>329</v>
+        <v>362</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>330</v>
+        <v>363</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>333</v>
+        <v>366</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>334</v>
+        <v>367</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>335</v>
+        <v>368</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6537,7 +6488,7 @@
         <v>52</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>44</v>
@@ -6546,15 +6497,17 @@
         <v>53</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>336</v>
+        <v>159</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>337</v>
+        <v>369</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>44</v>
@@ -6579,13 +6532,13 @@
         <v>44</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>44</v>
+        <v>291</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>44</v>
+        <v>372</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>44</v>
+        <v>373</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>44</v>
@@ -6603,7 +6556,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>334</v>
+        <v>367</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6618,35 +6571,35 @@
         <v>64</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>343</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>344</v>
+        <v>378</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>53</v>
@@ -6658,15 +6611,17 @@
         <v>53</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>44</v>
@@ -6715,13 +6670,13 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>344</v>
+        <v>378</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>44</v>
@@ -6730,24 +6685,24 @@
         <v>64</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>351</v>
+        <v>386</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>352</v>
+        <v>377</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>353</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6758,7 +6713,7 @@
         <v>42</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>44</v>
@@ -6770,13 +6725,13 @@
         <v>53</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>355</v>
+        <v>159</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>356</v>
+        <v>388</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>357</v>
+        <v>389</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6803,13 +6758,13 @@
         <v>44</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>129</v>
+        <v>291</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>358</v>
+        <v>390</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>359</v>
+        <v>391</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>44</v>
@@ -6827,13 +6782,13 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>44</v>
@@ -6848,32 +6803,32 @@
         <v>44</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>360</v>
+        <v>392</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>44</v>
+        <v>377</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>361</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>362</v>
+        <v>393</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>363</v>
+        <v>44</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>44</v>
@@ -6882,13 +6837,13 @@
         <v>53</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>364</v>
+        <v>394</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>365</v>
+        <v>388</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>366</v>
+        <v>395</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6939,13 +6894,13 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>362</v>
+        <v>393</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>44</v>
@@ -6954,35 +6909,35 @@
         <v>64</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>367</v>
+        <v>44</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>368</v>
+        <v>44</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>371</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>372</v>
+        <v>397</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>373</v>
+        <v>44</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>53</v>
@@ -6994,16 +6949,16 @@
         <v>53</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>374</v>
+        <v>159</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>376</v>
+        <v>399</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7029,13 +6984,13 @@
         <v>44</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>44</v>
+        <v>291</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>44</v>
+        <v>401</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>44</v>
+        <v>402</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>44</v>
@@ -7053,13 +7008,13 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>372</v>
+        <v>397</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>44</v>
@@ -7068,38 +7023,38 @@
         <v>64</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>378</v>
+        <v>403</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>381</v>
+        <v>406</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>382</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>384</v>
+        <v>44</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>44</v>
@@ -7108,16 +7063,16 @@
         <v>53</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>135</v>
+        <v>408</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>386</v>
+        <v>410</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7143,13 +7098,13 @@
         <v>44</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>388</v>
+        <v>44</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>389</v>
+        <v>44</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>44</v>
@@ -7167,13 +7122,13 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>44</v>
@@ -7182,28 +7137,28 @@
         <v>64</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>390</v>
+        <v>412</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>391</v>
+        <v>413</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>392</v>
+        <v>414</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>394</v>
+        <v>415</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>395</v>
+        <v>44</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7213,26 +7168,24 @@
         <v>43</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>397</v>
+        <v>417</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>399</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>44</v>
@@ -7281,7 +7234,7 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>394</v>
+        <v>415</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7296,28 +7249,28 @@
         <v>64</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>393</v>
+        <v>44</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>44</v>
+        <v>423</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7327,24 +7280,26 @@
         <v>43</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>135</v>
+        <v>424</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>404</v>
+        <v>425</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>44</v>
@@ -7369,13 +7324,13 @@
         <v>44</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>406</v>
+        <v>44</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>407</v>
+        <v>44</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>44</v>
@@ -7393,7 +7348,7 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7408,24 +7363,24 @@
         <v>64</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>44</v>
+        <v>428</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>44</v>
+        <v>429</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>408</v>
+        <v>430</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>393</v>
+        <v>44</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>409</v>
+        <v>431</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7439,7 +7394,7 @@
         <v>43</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>44</v>
@@ -7448,15 +7403,17 @@
         <v>53</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>410</v>
+        <v>432</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>404</v>
+        <v>433</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>44</v>
@@ -7505,7 +7462,7 @@
         <v>44</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>409</v>
+        <v>431</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7523,35 +7480,35 @@
         <v>44</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>44</v>
+        <v>436</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>412</v>
+        <v>437</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>393</v>
+        <v>44</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>413</v>
+        <v>438</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>44</v>
+        <v>439</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>44</v>
@@ -7560,18 +7517,20 @@
         <v>53</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>414</v>
+        <v>440</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>415</v>
+        <v>441</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>44</v>
       </c>
@@ -7595,13 +7554,13 @@
         <v>44</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>129</v>
+        <v>291</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>417</v>
+        <v>444</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>418</v>
+        <v>445</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>44</v>
@@ -7619,7 +7578,7 @@
         <v>44</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>413</v>
+        <v>438</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7634,24 +7593,24 @@
         <v>64</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>419</v>
+        <v>44</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>422</v>
+        <v>44</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>44</v>
+        <v>447</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>423</v>
+        <v>448</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7665,26 +7624,24 @@
         <v>43</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>424</v>
+        <v>449</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>425</v>
+        <v>12</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>427</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>44</v>
@@ -7733,7 +7690,7 @@
         <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>423</v>
+        <v>448</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -7748,24 +7705,24 @@
         <v>64</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>428</v>
+        <v>451</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>429</v>
+        <v>307</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>430</v>
+        <v>452</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>422</v>
+        <v>44</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>44</v>
+        <v>453</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>431</v>
+        <v>454</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7776,25 +7733,25 @@
         <v>42</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>432</v>
+        <v>54</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>433</v>
+        <v>455</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>434</v>
+        <v>456</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7845,13 +7802,13 @@
         <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>431</v>
+        <v>454</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>44</v>
@@ -7860,13 +7817,13 @@
         <v>64</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>435</v>
+        <v>44</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>436</v>
+        <v>307</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>44</v>
@@ -7875,13 +7832,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>438</v>
+        <v>458</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>439</v>
+        <v>44</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7891,7 +7848,7 @@
         <v>43</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>44</v>
@@ -7900,16 +7857,16 @@
         <v>44</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>442</v>
+        <v>461</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7959,7 +7916,7 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>438</v>
+        <v>458</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -7974,591 +7931,23 @@
         <v>64</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>444</v>
+        <v>463</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>445</v>
+        <v>95</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>446</v>
+        <v>464</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F56" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P56" s="2"/>
-      <c r="Q56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="57" hidden="true">
-      <c r="A57" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F57" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P57" s="2"/>
-      <c r="Q57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F58" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P58" s="2"/>
-      <c r="Q58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F59" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
-      <c r="O59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P59" s="2"/>
-      <c r="Q59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="60" hidden="true">
-      <c r="A60" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="C60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F60" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P60" s="2"/>
-      <c r="Q60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN60" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN60">
+  <autoFilter ref="A1:AN55">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8568,7 +7957,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI59">
+  <conditionalFormatting sqref="A2:AI54">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-lab-prescription.xlsx
+++ b/StructureDefinition-be-lab-prescription.xlsx
@@ -6,16 +6,129 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Elements" r:id="rId3" sheetId="1"/>
+    <sheet name="Metadata" r:id="rId3" sheetId="1"/>
+    <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$55</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1975" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="507">
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-lab-prescription</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>0.2.0</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>BeLabPrescription</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>draft</t>
+  </si>
+  <si>
+    <t>Experimental</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2021-07-15T08:52:50+00:00</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>HL7 Belgium</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>This is the Belgian profile for a laboratory order.</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Initially, this profile is created for the unadressed flow for laboratory orders. 
+These existing channels: via a specialized laboratory application, running on the environment of the ordering party, via the own application of the ordering party in which that own application places the order directly at the laboratory using a custom protocol, via the website of a laboratory or via a paper channel are initially out of scope for use of this profile. They might however benefit from using this format in the future.</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>FHIR Version</t>
+  </si>
+  <si>
+    <t>4.0.1</t>
+  </si>
+  <si>
+    <t>Kind</t>
+  </si>
+  <si>
+    <t>resource</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>ServiceRequest</t>
+  </si>
+  <si>
+    <t>Base Definition</t>
+  </si>
+  <si>
+    <t>https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-referralprescription</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Derivation</t>
+  </si>
+  <si>
+    <t>constraint</t>
+  </si>
   <si>
     <t>Path</t>
   </si>
@@ -135,9 +248,6 @@
   </si>
   <si>
     <t>Mapping: Quality Improvement and Clinical Knowledge (QUICK)</t>
-  </si>
-  <si>
-    <t>ServiceRequest</t>
   </si>
   <si>
     <t>diagnostic request
@@ -908,6 +1018,10 @@
   </si>
   <si>
     <t>ServiceRequest.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">service requested
+</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-observationcodeableconcept}
@@ -939,19 +1053,32 @@
     <t>http://hl7.org/fhir/ValueSet/procedure-code</t>
   </si>
   <si>
-    <t>CE/CNE/CWE</t>
-  </si>
-  <si>
-    <t>CD</t>
+    <t>Request.code</t>
+  </si>
+  <si>
+    <t>PR1-3 / OBR-4  (varies by domain)</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>Procedure.procedureCode</t>
   </si>
   <si>
     <t>ServiceRequest.orderDetail</t>
   </si>
   <si>
+    <t xml:space="preserve">detailed instructions
+</t>
+  </si>
+  <si>
     <t>Additional order information - consult comment for more information</t>
   </si>
   <si>
-    <t>A concept that may be defined by a formal reference to a terminology or ontology or may be provided by text.</t>
+    <t>Additional details and instructions about the how the services are to be delivered.   For example, and order for a urinary catheter may have an order detail for an external or indwelling catheter, or an order for a bandage may require additional instructions specifying how the bandage should be applied.</t>
   </si>
   <si>
     <t>For information from the medical record intended to support the delivery of the requested services, use the `supportingInformation` element.
@@ -970,6 +1097,13 @@
     <t>http://hl7.org/fhir/ValueSet/servicerequest-orderdetail</t>
   </si>
   <si>
+    <t xml:space="preserve">prr-1
+</t>
+  </si>
+  <si>
+    <t>NTE</t>
+  </si>
+  <si>
     <t>ServiceRequest.quantity[x]</t>
   </si>
   <si>
@@ -984,9 +1118,6 @@
   </si>
   <si>
     <t>When ordering a service the number of service items may need to be specified separately from the the service item.</t>
-  </si>
-  <si>
-    <t>NTE</t>
   </si>
   <si>
     <t>.quantity</t>
@@ -1635,9 +1766,180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" tabSelected="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="15.703125" customWidth="true"/>
+    <col min="2" max="2" width="80.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AN55"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true">
+    <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -1688,6262 +1990,6262 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>39</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>135</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>135</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>141</v>
+        <v>177</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>155</v>
+        <v>191</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>168</v>
+        <v>204</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>195</v>
+        <v>231</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>196</v>
+        <v>232</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>198</v>
+        <v>234</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>199</v>
+        <v>235</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>201</v>
+        <v>237</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>208</v>
+        <v>244</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>209</v>
+        <v>245</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>210</v>
+        <v>246</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>209</v>
+        <v>245</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>208</v>
+        <v>244</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>216</v>
+        <v>252</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>218</v>
+        <v>254</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>220</v>
+        <v>256</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>221</v>
+        <v>257</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>223</v>
+        <v>259</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>224</v>
+        <v>260</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>226</v>
+        <v>262</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>247</v>
+        <v>283</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>249</v>
+        <v>285</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>251</v>
+        <v>287</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>252</v>
+        <v>288</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>255</v>
+        <v>291</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>256</v>
+        <v>292</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>257</v>
+        <v>293</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="X31" s="2"/>
       <c r="Y31" t="s" s="2">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>266</v>
+        <v>302</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>267</v>
+        <v>303</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>269</v>
+        <v>305</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="P32" t="s" s="2">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="Q32" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>271</v>
+        <v>307</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>272</v>
+        <v>308</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>267</v>
+        <v>303</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>273</v>
+        <v>309</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="P33" t="s" s="2">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="Q33" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>44</v>
+        <v>323</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>44</v>
+        <v>331</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>295</v>
+        <v>333</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>44</v>
+        <v>334</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>44</v>
+        <v>335</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>296</v>
+        <v>336</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>44</v>
+        <v>337</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>297</v>
+        <v>338</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>298</v>
+        <v>339</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>299</v>
+        <v>340</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>300</v>
+        <v>341</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>301</v>
+        <v>342</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>296</v>
+        <v>336</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>109</v>
+        <v>343</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>294</v>
+        <v>344</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>295</v>
+        <v>333</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>44</v>
+        <v>335</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>302</v>
+        <v>345</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>303</v>
+        <v>346</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>304</v>
+        <v>347</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>305</v>
+        <v>348</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>306</v>
+        <v>349</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>302</v>
+        <v>345</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>308</v>
+        <v>350</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>309</v>
+        <v>351</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>310</v>
+        <v>352</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>311</v>
+        <v>353</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>312</v>
+        <v>354</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>309</v>
+        <v>351</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>313</v>
+        <v>355</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>314</v>
+        <v>356</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>315</v>
+        <v>357</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>317</v>
+        <v>359</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>318</v>
+        <v>360</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>319</v>
+        <v>361</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>320</v>
+        <v>362</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>321</v>
+        <v>363</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>322</v>
+        <v>364</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>318</v>
+        <v>360</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>323</v>
+        <v>365</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>324</v>
+        <v>366</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>325</v>
+        <v>367</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>326</v>
+        <v>368</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>327</v>
+        <v>369</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>328</v>
+        <v>370</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>329</v>
+        <v>371</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>330</v>
+        <v>372</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>331</v>
+        <v>373</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>332</v>
+        <v>374</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>328</v>
+        <v>370</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>333</v>
+        <v>375</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>334</v>
+        <v>376</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>335</v>
+        <v>377</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>336</v>
+        <v>378</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>337</v>
+        <v>379</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>339</v>
+        <v>381</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>340</v>
+        <v>382</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>341</v>
+        <v>383</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>342</v>
+        <v>384</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>343</v>
+        <v>385</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>344</v>
+        <v>386</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>345</v>
+        <v>387</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>346</v>
+        <v>388</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>347</v>
+        <v>389</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>348</v>
+        <v>390</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>349</v>
+        <v>391</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>350</v>
+        <v>392</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>346</v>
+        <v>388</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>351</v>
+        <v>393</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>352</v>
+        <v>394</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>353</v>
+        <v>395</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>354</v>
+        <v>396</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>355</v>
+        <v>397</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>357</v>
+        <v>399</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>358</v>
+        <v>400</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>359</v>
+        <v>401</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>360</v>
+        <v>402</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>361</v>
+        <v>403</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>362</v>
+        <v>404</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>363</v>
+        <v>405</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>364</v>
+        <v>406</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>365</v>
+        <v>407</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>366</v>
+        <v>408</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>367</v>
+        <v>409</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>369</v>
+        <v>411</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>370</v>
+        <v>412</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>371</v>
+        <v>413</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>372</v>
+        <v>414</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>367</v>
+        <v>409</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>374</v>
+        <v>416</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>377</v>
+        <v>419</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>379</v>
+        <v>421</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>377</v>
+        <v>419</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>388</v>
+        <v>430</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>377</v>
+        <v>419</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>394</v>
+        <v>436</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>388</v>
+        <v>430</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>395</v>
+        <v>437</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>396</v>
+        <v>438</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>377</v>
+        <v>419</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>397</v>
+        <v>439</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>398</v>
+        <v>440</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>399</v>
+        <v>441</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>401</v>
+        <v>443</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>402</v>
+        <v>444</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>397</v>
+        <v>439</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>403</v>
+        <v>445</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>404</v>
+        <v>446</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>405</v>
+        <v>447</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>406</v>
+        <v>448</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>407</v>
+        <v>449</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>408</v>
+        <v>450</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>409</v>
+        <v>451</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>410</v>
+        <v>452</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>411</v>
+        <v>453</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>407</v>
+        <v>449</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>412</v>
+        <v>454</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>413</v>
+        <v>455</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>414</v>
+        <v>456</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>406</v>
+        <v>448</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>415</v>
+        <v>457</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>416</v>
+        <v>458</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>417</v>
+        <v>459</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>418</v>
+        <v>460</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="R49" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>415</v>
+        <v>457</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>419</v>
+        <v>461</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>420</v>
+        <v>462</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>421</v>
+        <v>463</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>422</v>
+        <v>464</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>423</v>
+        <v>465</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>424</v>
+        <v>466</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>425</v>
+        <v>467</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>426</v>
+        <v>468</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>427</v>
+        <v>469</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>422</v>
+        <v>464</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>428</v>
+        <v>470</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>429</v>
+        <v>471</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>430</v>
+        <v>472</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>431</v>
+        <v>473</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>432</v>
+        <v>474</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>433</v>
+        <v>475</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>434</v>
+        <v>476</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>435</v>
+        <v>477</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>431</v>
+        <v>473</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>436</v>
+        <v>478</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>437</v>
+        <v>479</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>438</v>
+        <v>480</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>439</v>
+        <v>481</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>440</v>
+        <v>482</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>441</v>
+        <v>483</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>442</v>
+        <v>484</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>443</v>
+        <v>485</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="R52" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>444</v>
+        <v>486</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>445</v>
+        <v>487</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>438</v>
+        <v>480</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>436</v>
+        <v>478</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>446</v>
+        <v>488</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>447</v>
+        <v>489</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>448</v>
+        <v>490</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>449</v>
+        <v>491</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>450</v>
+        <v>492</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="R53" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>448</v>
+        <v>490</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>451</v>
+        <v>493</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>452</v>
+        <v>494</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>453</v>
+        <v>495</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>454</v>
+        <v>496</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>455</v>
+        <v>497</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>456</v>
+        <v>498</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="R54" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>454</v>
+        <v>496</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>457</v>
+        <v>499</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>458</v>
+        <v>500</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>459</v>
+        <v>501</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>460</v>
+        <v>502</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>461</v>
+        <v>503</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>462</v>
+        <v>504</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="R55" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>458</v>
+        <v>500</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>463</v>
+        <v>505</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>464</v>
+        <v>506</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-be-lab-prescription.xlsx
+++ b/StructureDefinition-be-lab-prescription.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2014" uniqueCount="507">
   <si>
     <t>Property</t>
   </si>
@@ -1766,7 +1766,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1854,79 +1854,87 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>26</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B21" t="s" s="2">
         <v>36</v>
       </c>
     </row>

--- a/StructureDefinition-be-lab-prescription.xlsx
+++ b/StructureDefinition-be-lab-prescription.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2014" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2014" uniqueCount="501">
   <si>
     <t>Property</t>
   </si>
@@ -1018,10 +1018,6 @@
   </si>
   <si>
     <t>ServiceRequest.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service requested
-</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-observationcodeableconcept}
@@ -1053,32 +1049,19 @@
     <t>http://hl7.org/fhir/ValueSet/procedure-code</t>
   </si>
   <si>
-    <t>Request.code</t>
-  </si>
-  <si>
-    <t>PR1-3 / OBR-4  (varies by domain)</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>Procedure.procedureCode</t>
+    <t>CE/CNE/CWE</t>
+  </si>
+  <si>
+    <t>CD</t>
   </si>
   <si>
     <t>ServiceRequest.orderDetail</t>
   </si>
   <si>
-    <t xml:space="preserve">detailed instructions
-</t>
-  </si>
-  <si>
     <t>Additional order information - consult comment for more information</t>
   </si>
   <si>
-    <t>Additional details and instructions about the how the services are to be delivered.   For example, and order for a urinary catheter may have an order detail for an external or indwelling catheter, or an order for a bandage may require additional instructions specifying how the bandage should be applied.</t>
+    <t>A concept that may be defined by a formal reference to a terminology or ontology or may be provided by text.</t>
   </si>
   <si>
     <t>For information from the medical record intended to support the delivery of the requested services, use the `supportingInformation` element.
@@ -1097,13 +1080,6 @@
     <t>http://hl7.org/fhir/ValueSet/servicerequest-orderdetail</t>
   </si>
   <si>
-    <t xml:space="preserve">prr-1
-</t>
-  </si>
-  <si>
-    <t>NTE</t>
-  </si>
-  <si>
     <t>ServiceRequest.quantity[x]</t>
   </si>
   <si>
@@ -1118,6 +1094,9 @@
   </si>
   <si>
     <t>When ordering a service the number of service items may need to be specified separately from the the service item.</t>
+  </si>
+  <si>
+    <t>NTE</t>
   </si>
   <si>
     <t>.quantity</t>
@@ -5772,7 +5751,7 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>323</v>
+        <v>80</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5788,19 +5767,19 @@
         <v>80</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5826,13 +5805,13 @@
         <v>80</v>
       </c>
       <c r="W34" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="X34" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="X34" t="s" s="2">
+      <c r="Y34" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>80</v>
@@ -5859,34 +5838,34 @@
         <v>88</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AK34" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>333</v>
-      </c>
       <c r="AM34" t="s" s="2">
-        <v>334</v>
+        <v>80</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>335</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>337</v>
+        <v>80</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5902,19 +5881,19 @@
         <v>80</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5940,13 +5919,13 @@
         <v>80</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>80</v>
@@ -5964,7 +5943,7 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5973,7 +5952,7 @@
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>343</v>
+        <v>145</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>100</v>
@@ -5982,21 +5961,21 @@
         <v>80</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>335</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6019,17 +5998,17 @@
         <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>80</v>
@@ -6078,7 +6057,7 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6096,10 +6075,10 @@
         <v>80</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
@@ -6110,7 +6089,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6133,13 +6112,13 @@
         <v>89</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6190,7 +6169,7 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>88</v>
@@ -6205,28 +6184,28 @@
         <v>100</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6245,13 +6224,13 @@
         <v>89</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6302,7 +6281,7 @@
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6317,28 +6296,28 @@
         <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6357,13 +6336,13 @@
         <v>89</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6414,7 +6393,7 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6429,24 +6408,24 @@
         <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6469,13 +6448,13 @@
         <v>89</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6502,13 +6481,13 @@
         <v>80</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>80</v>
@@ -6526,7 +6505,7 @@
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6547,22 +6526,22 @@
         <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6581,13 +6560,13 @@
         <v>89</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6638,7 +6617,7 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6653,28 +6632,28 @@
         <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6693,16 +6672,16 @@
         <v>89</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6752,7 +6731,7 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6767,28 +6746,28 @@
         <v>100</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6810,13 +6789,13 @@
         <v>195</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6842,13 +6821,13 @@
         <v>80</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>80</v>
@@ -6866,7 +6845,7 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6881,16 +6860,16 @@
         <v>100</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
@@ -6898,11 +6877,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6921,16 +6900,16 @@
         <v>89</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6980,7 +6959,7 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -6995,16 +6974,16 @@
         <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
@@ -7012,7 +6991,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7038,10 +7017,10 @@
         <v>195</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7068,13 +7047,13 @@
         <v>80</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>80</v>
@@ -7092,7 +7071,7 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7113,10 +7092,10 @@
         <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>80</v>
@@ -7124,7 +7103,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7147,13 +7126,13 @@
         <v>89</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7204,7 +7183,7 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7225,10 +7204,10 @@
         <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>80</v>
@@ -7236,7 +7215,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7262,13 +7241,13 @@
         <v>195</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7294,13 +7273,13 @@
         <v>80</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>80</v>
@@ -7318,7 +7297,7 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7333,16 +7312,16 @@
         <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>80</v>
@@ -7350,7 +7329,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7373,16 +7352,16 @@
         <v>89</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7432,7 +7411,7 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7447,16 +7426,16 @@
         <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>80</v>
@@ -7464,7 +7443,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7487,13 +7466,13 @@
         <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7544,7 +7523,7 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7559,13 +7538,13 @@
         <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>80</v>
@@ -7576,11 +7555,11 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7599,16 +7578,16 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7658,7 +7637,7 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7673,13 +7652,13 @@
         <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>80</v>
@@ -7690,7 +7669,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7713,16 +7692,16 @@
         <v>89</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7772,7 +7751,7 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7790,10 +7769,10 @@
         <v>80</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>80</v>
@@ -7804,11 +7783,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7830,16 +7809,16 @@
         <v>195</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>80</v>
@@ -7864,13 +7843,13 @@
         <v>80</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>80</v>
@@ -7888,7 +7867,7 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7906,21 +7885,21 @@
         <v>80</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7943,13 +7922,13 @@
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>49</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8000,7 +7979,7 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8015,24 +7994,24 @@
         <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8058,10 +8037,10 @@
         <v>90</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8112,7 +8091,7 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8130,10 +8109,10 @@
         <v>80</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
@@ -8144,7 +8123,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8167,16 +8146,16 @@
         <v>80</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8226,7 +8205,7 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8241,13 +8220,13 @@
         <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>131</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>

--- a/StructureDefinition-be-lab-prescription.xlsx
+++ b/StructureDefinition-be-lab-prescription.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$62</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2014" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="527">
   <si>
     <t>Property</t>
   </si>
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>Belgium</t>
   </si>
   <si>
     <t>Description</t>
@@ -479,6 +479,86 @@
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN].reasonCOde</t>
   </si>
   <si>
+    <t>ServiceRequest.extension.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/request-statusReason</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes identifying the reason for the current state of an event.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-reason-referral-status</t>
+  </si>
+  <si>
     <t>informParty</t>
   </si>
   <si>
@@ -489,6 +569,35 @@
     <t>Parties to inform of fulfillment of the prescription, besides the prescriber.</t>
   </si>
   <si>
+    <t>coprescriber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-co-prescriber}
+</t>
+  </si>
+  <si>
+    <t>Other parties that have to take part in the prescription.</t>
+  </si>
+  <si>
+    <t>Other practitioners that must take part in this prescripiton</t>
+  </si>
+  <si>
+    <t>validity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {resource-effectivePeriod}
+</t>
+  </si>
+  <si>
+    <t>Validity period of the prescription</t>
+  </si>
+  <si>
+    <t>The period during which the resource content was or is planned to be effective.</t>
+  </si>
+  <si>
+    <t>The effective period for a resource  determines when the content is applicable for usage and is independent of publication and review dates. For example, a measure intended to be used for the year 2016 would be published in 2015.</t>
+  </si>
+  <si>
     <t>urgentCommunication</t>
   </si>
   <si>
@@ -566,18 +675,6 @@
     <t>ServiceRequest.identifier.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>ServiceRequest.identifier.extension</t>
   </si>
   <si>
@@ -587,12 +684,6 @@
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
     <t>ServiceRequest.identifier.use</t>
   </si>
   <si>
@@ -626,10 +717,6 @@
     <t>ServiceRequest.identifier.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>Description of identifier</t>
   </si>
   <si>
@@ -640,9 +727,6 @@
   </si>
   <si>
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
@@ -884,7 +968,7 @@
     <t>The status of the order.</t>
   </si>
   <si>
-    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](http://hl7.org/fhir/R4/event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
+    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
   </si>
   <si>
     <t>The status of a service order.</t>
@@ -1040,9 +1124,6 @@
 If that is not possible the kind of observation is expressed only in text (allowed but NOT RECOMMENDED - although if considered sufficient the .code element could be just a .text element e.g. "Diabetes?")</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
     <t>Codes for tests or services that can be carried out by a designated individual, organization or healthcare service.</t>
   </si>
   <si>
@@ -1389,7 +1470,7 @@
     <t>An explanation or justification for why this service is being requested in coded or textual form.   This is often for billing purposes.  May relate to the resources referred to in `supportingInfo`.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>Diagnosis or problem codes justifying the reason for requesting the service investigation.</t>
@@ -1423,7 +1504,7 @@
     <t>Indicates another resource that provides a justification for why this service is being requested.   May relate to the resources referred to in `supportingInfo`.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>Request.reasonReference</t>
@@ -1924,7 +2005,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN55"/>
+  <dimension ref="A1:AN62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1934,7 +2015,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="35.71484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="21.58203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.25" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1957,7 +2038,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="126.34765625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="68.4609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="72.89453125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
@@ -2901,7 +2982,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>79</v>
@@ -3117,13 +3198,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="B11" t="s" s="2">
         <v>148</v>
       </c>
+      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>80</v>
       </c>
@@ -3132,10 +3211,10 @@
         <v>78</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>80</v>
@@ -3144,13 +3223,13 @@
         <v>80</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3201,19 +3280,19 @@
         <v>80</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>80</v>
@@ -3222,7 +3301,7 @@
         <v>80</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>80</v>
@@ -3233,11 +3312,9 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
         <v>80</v>
       </c>
@@ -3246,7 +3323,7 @@
         <v>78</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>80</v>
@@ -3258,10 +3335,10 @@
         <v>80</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>135</v>
@@ -3303,19 +3380,19 @@
         <v>80</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>78</v>
@@ -3347,49 +3424,47 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N13" t="s" s="2">
         <v>159</v>
       </c>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>80</v>
@@ -3431,19 +3506,19 @@
         <v>80</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>80</v>
@@ -3463,7 +3538,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3471,32 +3546,30 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M14" t="s" s="2">
         <v>165</v>
       </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>80</v>
@@ -3521,10 +3594,10 @@
         <v>80</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="Y14" t="s" s="2">
         <v>80</v>
@@ -3533,23 +3606,23 @@
         <v>80</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>80</v>
@@ -3558,34 +3631,34 @@
         <v>100</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>171</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>88</v>
@@ -3597,20 +3670,18 @@
         <v>80</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M15" t="s" s="2">
         <v>165</v>
       </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>80</v>
@@ -3635,13 +3706,11 @@
         <v>80</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>80</v>
@@ -3659,13 +3728,13 @@
         <v>80</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>80</v>
@@ -3674,26 +3743,28 @@
         <v>100</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>171</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
         <v>80</v>
       </c>
@@ -3702,10 +3773,10 @@
         <v>78</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>80</v>
@@ -3714,13 +3785,13 @@
         <v>80</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3771,43 +3842,45 @@
         <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN16" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="AF16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" hidden="true">
-      <c r="A17" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3817,7 +3890,7 @@
         <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>80</v>
@@ -3826,17 +3899,15 @@
         <v>80</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L17" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>158</v>
-      </c>
+      <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>80</v>
@@ -3873,19 +3944,19 @@
         <v>80</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>78</v>
@@ -3894,7 +3965,7 @@
         <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>139</v>
@@ -3906,7 +3977,7 @@
         <v>80</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>178</v>
+        <v>80</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>80</v>
@@ -3915,11 +3986,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="C18" t="s" s="2">
         <v>80</v>
       </c>
@@ -3931,29 +4004,27 @@
         <v>88</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>108</v>
+        <v>182</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="L18" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>188</v>
-      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>80</v>
       </c>
@@ -3977,13 +4048,13 @@
         <v>80</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>189</v>
+        <v>80</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>191</v>
+        <v>80</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>80</v>
@@ -4001,28 +4072,28 @@
         <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>192</v>
+        <v>138</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>193</v>
+        <v>80</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>80</v>
@@ -4033,9 +4104,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="C19" t="s" s="2">
         <v>80</v>
       </c>
@@ -4053,23 +4126,19 @@
         <v>80</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>80</v>
       </c>
@@ -4093,13 +4162,13 @@
         <v>80</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>201</v>
+        <v>80</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>202</v>
+        <v>80</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>80</v>
@@ -4117,28 +4186,28 @@
         <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>203</v>
+        <v>138</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>204</v>
+        <v>80</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>193</v>
+        <v>80</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>80</v>
@@ -4149,55 +4218,55 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="R20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>211</v>
+        <v>80</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>80</v>
@@ -4233,28 +4302,28 @@
         <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>213</v>
+        <v>80</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>214</v>
+        <v>131</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>80</v>
@@ -4265,7 +4334,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4273,13 +4342,13 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>80</v>
@@ -4288,16 +4357,16 @@
         <v>89</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>90</v>
+        <v>197</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4311,7 +4380,7 @@
         <v>80</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>219</v>
+        <v>80</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>80</v>
@@ -4335,25 +4404,23 @@
         <v>80</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="AB21" s="2"/>
       <c r="AC21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>80</v>
@@ -4362,26 +4429,28 @@
         <v>100</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>80</v>
+        <v>202</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>80</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="C22" t="s" s="2">
         <v>80</v>
       </c>
@@ -4402,15 +4471,17 @@
         <v>89</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>80</v>
@@ -4459,13 +4530,13 @@
         <v>80</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>80</v>
@@ -4474,24 +4545,24 @@
         <v>100</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>80</v>
+        <v>202</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>80</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4511,20 +4582,18 @@
         <v>80</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>231</v>
+        <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>232</v>
+        <v>149</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>80</v>
@@ -4573,7 +4642,7 @@
         <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>235</v>
+        <v>151</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4585,16 +4654,16 @@
         <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>236</v>
+        <v>80</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>80</v>
@@ -4605,11 +4674,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4625,19 +4694,19 @@
         <v>80</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>239</v>
+        <v>133</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>242</v>
+        <v>193</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4675,19 +4744,19 @@
         <v>80</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>238</v>
+        <v>155</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4699,16 +4768,16 @@
         <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>243</v>
+        <v>80</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>244</v>
+        <v>152</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>80</v>
@@ -4719,7 +4788,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4730,30 +4799,32 @@
         <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>80</v>
       </c>
@@ -4777,13 +4848,13 @@
         <v>80</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>80</v>
@@ -4801,13 +4872,13 @@
         <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>80</v>
@@ -4816,13 +4887,13 @@
         <v>100</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>249</v>
+        <v>80</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>80</v>
@@ -4831,23 +4902,23 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>251</v>
+        <v>80</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>80</v>
@@ -4856,16 +4927,20 @@
         <v>89</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>252</v>
+        <v>163</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>80</v>
       </c>
@@ -4889,13 +4964,13 @@
         <v>80</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>80</v>
+        <v>228</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>80</v>
+        <v>229</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>80</v>
@@ -4913,13 +4988,13 @@
         <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>80</v>
@@ -4928,13 +5003,13 @@
         <v>100</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>80</v>
@@ -4943,23 +5018,23 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>259</v>
+        <v>80</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>80</v>
@@ -4968,28 +5043,32 @@
         <v>89</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>260</v>
+        <v>102</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>261</v>
+        <v>233</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>80</v>
+        <v>237</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>80</v>
+        <v>238</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>80</v>
@@ -5025,13 +5104,13 @@
         <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>80</v>
@@ -5040,13 +5119,13 @@
         <v>100</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>263</v>
+        <v>80</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>80</v>
@@ -5055,23 +5134,23 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>267</v>
+        <v>80</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>80</v>
@@ -5080,20 +5159,18 @@
         <v>89</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>162</v>
+        <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>80</v>
       </c>
@@ -5105,7 +5182,7 @@
         <v>80</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>80</v>
+        <v>246</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>80</v>
@@ -5141,7 +5218,7 @@
         <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5156,13 +5233,13 @@
         <v>100</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>272</v>
+        <v>80</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>80</v>
@@ -5171,9 +5248,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5181,32 +5258,30 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>108</v>
+        <v>251</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>80</v>
@@ -5231,13 +5306,13 @@
         <v>80</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>189</v>
+        <v>80</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>279</v>
+        <v>80</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>80</v>
@@ -5255,10 +5330,10 @@
         <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>88</v>
@@ -5270,24 +5345,24 @@
         <v>100</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>281</v>
+        <v>80</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>284</v>
+        <v>80</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>285</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5295,31 +5370,31 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>108</v>
+        <v>258</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5345,13 +5420,13 @@
         <v>80</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>189</v>
+        <v>80</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>290</v>
+        <v>80</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>291</v>
+        <v>80</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>80</v>
@@ -5369,10 +5444,10 @@
         <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>88</v>
@@ -5384,24 +5459,24 @@
         <v>100</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>292</v>
+        <v>80</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>131</v>
+        <v>263</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>294</v>
+        <v>80</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5409,13 +5484,13 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>80</v>
@@ -5424,20 +5499,18 @@
         <v>89</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>195</v>
+        <v>266</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>80</v>
       </c>
@@ -5461,11 +5534,13 @@
         <v>80</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="X31" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Y31" t="s" s="2">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>80</v>
@@ -5483,7 +5558,7 @@
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5498,24 +5573,24 @@
         <v>100</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>80</v>
+        <v>270</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>301</v>
+        <v>146</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>294</v>
+        <v>80</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5526,10 +5601,10 @@
         <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>80</v>
@@ -5538,22 +5613,22 @@
         <v>89</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>304</v>
+        <v>273</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P32" t="s" s="2">
-        <v>306</v>
-      </c>
+      <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
         <v>80</v>
       </c>
@@ -5573,13 +5648,13 @@
         <v>80</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>189</v>
+        <v>80</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>307</v>
+        <v>80</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>308</v>
+        <v>80</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>80</v>
@@ -5597,13 +5672,13 @@
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>80</v>
@@ -5612,66 +5687,60 @@
         <v>100</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>310</v>
+        <v>146</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>311</v>
+        <v>271</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>312</v>
+        <v>80</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>80</v>
+        <v>278</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>314</v>
+        <v>279</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P33" t="s" s="2">
-        <v>319</v>
-      </c>
+      <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
         <v>80</v>
       </c>
@@ -5715,13 +5784,13 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>80</v>
@@ -5730,13 +5799,13 @@
         <v>100</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>80</v>
+        <v>283</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>321</v>
+        <v>284</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>80</v>
@@ -5747,18 +5816,18 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>322</v>
+        <v>285</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>80</v>
+        <v>286</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>89</v>
@@ -5767,20 +5836,18 @@
         <v>80</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>323</v>
+        <v>287</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>324</v>
+        <v>288</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>80</v>
@@ -5805,13 +5872,13 @@
         <v>80</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>327</v>
+        <v>80</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>328</v>
+        <v>80</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>329</v>
+        <v>80</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>80</v>
@@ -5829,28 +5896,28 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>322</v>
+        <v>285</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>80</v>
+        <v>290</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>330</v>
+        <v>291</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>331</v>
+        <v>292</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>80</v>
@@ -5861,18 +5928,18 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>332</v>
+        <v>293</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>80</v>
+        <v>294</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>89</v>
@@ -5881,21 +5948,23 @@
         <v>80</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>323</v>
+        <v>197</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>334</v>
+        <v>296</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>80</v>
       </c>
@@ -5919,13 +5988,13 @@
         <v>80</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>327</v>
+        <v>80</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>336</v>
+        <v>80</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>337</v>
+        <v>80</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>80</v>
@@ -5943,28 +6012,28 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>332</v>
+        <v>293</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>80</v>
+        <v>299</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>331</v>
+        <v>301</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>80</v>
@@ -5973,9 +6042,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>338</v>
+        <v>302</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5983,33 +6052,33 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>339</v>
+        <v>108</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>340</v>
+        <v>303</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>80</v>
       </c>
@@ -6033,13 +6102,13 @@
         <v>80</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>80</v>
+        <v>306</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>80</v>
+        <v>307</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>80</v>
@@ -6057,10 +6126,10 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>338</v>
+        <v>302</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>88</v>
@@ -6072,24 +6141,24 @@
         <v>100</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>80</v>
+        <v>308</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>344</v>
+        <v>310</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>80</v>
+        <v>311</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>80</v>
+        <v>312</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6106,21 +6175,23 @@
         <v>89</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>346</v>
+        <v>108</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>347</v>
+        <v>314</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>80</v>
@@ -6145,13 +6216,13 @@
         <v>80</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>80</v>
+        <v>317</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>80</v>
+        <v>318</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>80</v>
@@ -6169,7 +6240,7 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>88</v>
@@ -6184,38 +6255,38 @@
         <v>100</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>349</v>
+        <v>319</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>350</v>
+        <v>131</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>351</v>
+        <v>320</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>352</v>
+        <v>321</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>353</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>355</v>
+        <v>80</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>80</v>
@@ -6224,16 +6295,20 @@
         <v>89</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>356</v>
+        <v>163</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>357</v>
+        <v>323</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>80</v>
       </c>
@@ -6257,13 +6332,11 @@
         <v>80</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X38" s="2"/>
       <c r="Y38" t="s" s="2">
-        <v>80</v>
+        <v>327</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>80</v>
@@ -6281,13 +6354,13 @@
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>80</v>
@@ -6296,35 +6369,35 @@
         <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>359</v>
+        <v>80</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>362</v>
+        <v>321</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>363</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>364</v>
+        <v>330</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>365</v>
+        <v>80</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>89</v>
@@ -6336,20 +6409,22 @@
         <v>89</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>366</v>
+        <v>108</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>367</v>
+        <v>331</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>368</v>
+        <v>332</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P39" s="2"/>
+      <c r="P39" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="Q39" t="s" s="2">
         <v>80</v>
       </c>
@@ -6369,13 +6444,13 @@
         <v>80</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>80</v>
+        <v>334</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>80</v>
+        <v>335</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>80</v>
@@ -6393,7 +6468,7 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>364</v>
+        <v>330</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6408,24 +6483,24 @@
         <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>370</v>
+        <v>337</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>372</v>
+        <v>339</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>373</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>374</v>
+        <v>340</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6442,26 +6517,32 @@
         <v>80</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>375</v>
+        <v>341</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>376</v>
+        <v>342</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P40" s="2"/>
+      <c r="P40" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="Q40" t="s" s="2">
         <v>80</v>
       </c>
@@ -6481,13 +6562,13 @@
         <v>80</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>327</v>
+        <v>80</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>378</v>
+        <v>80</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>379</v>
+        <v>80</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>80</v>
@@ -6505,7 +6586,7 @@
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>374</v>
+        <v>340</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6520,28 +6601,28 @@
         <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>80</v>
+        <v>347</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>381</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>382</v>
+        <v>349</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>383</v>
+        <v>80</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6557,18 +6638,20 @@
         <v>80</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>384</v>
+        <v>350</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>385</v>
+        <v>351</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>80</v>
@@ -6593,13 +6676,13 @@
         <v>80</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>80</v>
+        <v>354</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>80</v>
+        <v>355</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>80</v>
@@ -6617,7 +6700,7 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>382</v>
+        <v>349</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6626,41 +6709,41 @@
         <v>88</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>387</v>
+        <v>80</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>388</v>
+        <v>356</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>389</v>
+        <v>357</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>390</v>
+        <v>80</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>391</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>392</v>
+        <v>358</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>393</v>
+        <v>80</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>89</v>
@@ -6669,19 +6752,19 @@
         <v>80</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>394</v>
+        <v>350</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>395</v>
+        <v>359</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>396</v>
+        <v>360</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>397</v>
+        <v>361</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6707,13 +6790,13 @@
         <v>80</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>80</v>
+        <v>362</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>80</v>
+        <v>363</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>80</v>
@@ -6731,43 +6814,43 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>392</v>
+        <v>358</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>398</v>
+        <v>80</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>400</v>
+        <v>357</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>401</v>
+        <v>80</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>402</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>403</v>
+        <v>364</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>404</v>
+        <v>80</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6777,7 +6860,7 @@
         <v>88</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>80</v>
@@ -6786,18 +6869,18 @@
         <v>89</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>195</v>
+        <v>365</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>405</v>
+        <v>366</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>80</v>
       </c>
@@ -6821,13 +6904,13 @@
         <v>80</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>327</v>
+        <v>80</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>408</v>
+        <v>80</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>409</v>
+        <v>80</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>80</v>
@@ -6845,7 +6928,7 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>403</v>
+        <v>364</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6860,16 +6943,16 @@
         <v>100</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>410</v>
+        <v>80</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>411</v>
+        <v>369</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>412</v>
+        <v>370</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>413</v>
+        <v>80</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
@@ -6877,18 +6960,18 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>414</v>
+        <v>371</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>415</v>
+        <v>80</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>89</v>
@@ -6900,17 +6983,15 @@
         <v>89</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>416</v>
+        <v>372</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>417</v>
+        <v>373</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>419</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>80</v>
@@ -6959,13 +7040,13 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>414</v>
+        <v>371</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>80</v>
@@ -6974,35 +7055,35 @@
         <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>420</v>
+        <v>375</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>421</v>
+        <v>376</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>422</v>
+        <v>377</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>80</v>
+        <v>379</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>423</v>
+        <v>380</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>80</v>
+        <v>381</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>80</v>
@@ -7014,13 +7095,13 @@
         <v>89</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>195</v>
+        <v>382</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>424</v>
+        <v>383</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>425</v>
+        <v>384</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7047,13 +7128,13 @@
         <v>80</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>327</v>
+        <v>80</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>426</v>
+        <v>80</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>427</v>
+        <v>80</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>80</v>
@@ -7071,13 +7152,13 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>423</v>
+        <v>380</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>80</v>
@@ -7086,38 +7167,38 @@
         <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>80</v>
+        <v>385</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>80</v>
+        <v>386</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>428</v>
+        <v>387</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>413</v>
+        <v>388</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>80</v>
+        <v>389</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>429</v>
+        <v>390</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>80</v>
+        <v>391</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>80</v>
@@ -7126,13 +7207,13 @@
         <v>89</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>430</v>
+        <v>392</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>424</v>
+        <v>393</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>431</v>
+        <v>394</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7183,13 +7264,13 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>429</v>
+        <v>390</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>80</v>
@@ -7198,24 +7279,24 @@
         <v>100</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>80</v>
+        <v>395</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>80</v>
+        <v>396</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>432</v>
+        <v>397</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>80</v>
+        <v>399</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>433</v>
+        <v>400</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7226,10 +7307,10 @@
         <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>80</v>
@@ -7238,17 +7319,15 @@
         <v>89</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>195</v>
+        <v>401</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>434</v>
+        <v>402</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>436</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>80</v>
@@ -7273,13 +7352,13 @@
         <v>80</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>327</v>
+        <v>166</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>437</v>
+        <v>404</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>438</v>
+        <v>405</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>80</v>
@@ -7297,13 +7376,13 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>433</v>
+        <v>400</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>80</v>
@@ -7312,38 +7391,38 @@
         <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>439</v>
+        <v>80</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>440</v>
+        <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>441</v>
+        <v>406</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>442</v>
+        <v>80</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>80</v>
+        <v>407</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>443</v>
+        <v>408</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>80</v>
+        <v>409</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>80</v>
@@ -7352,17 +7431,15 @@
         <v>89</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>444</v>
+        <v>410</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>445</v>
+        <v>411</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>447</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>80</v>
@@ -7411,13 +7488,13 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>443</v>
+        <v>408</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>80</v>
@@ -7426,55 +7503,57 @@
         <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>448</v>
+        <v>413</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>449</v>
+        <v>414</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>450</v>
+        <v>415</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>442</v>
+        <v>416</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>80</v>
+        <v>417</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>451</v>
+        <v>418</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>80</v>
+        <v>419</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>452</v>
+        <v>420</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>453</v>
+        <v>421</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>80</v>
@@ -7523,13 +7602,13 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>451</v>
+        <v>418</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>80</v>
@@ -7538,35 +7617,35 @@
         <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>455</v>
+        <v>424</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>456</v>
+        <v>425</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>457</v>
+        <v>426</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>80</v>
+        <v>427</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>80</v>
+        <v>428</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>458</v>
+        <v>429</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>459</v>
+        <v>430</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>89</v>
@@ -7575,19 +7654,19 @@
         <v>80</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>460</v>
+        <v>163</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>461</v>
+        <v>431</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>462</v>
+        <v>432</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>463</v>
+        <v>433</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7613,13 +7692,13 @@
         <v>80</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>80</v>
+        <v>434</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>80</v>
+        <v>435</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>80</v>
@@ -7637,13 +7716,13 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>458</v>
+        <v>429</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>80</v>
@@ -7652,16 +7731,16 @@
         <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>464</v>
+        <v>436</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>465</v>
+        <v>437</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>466</v>
+        <v>438</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>80</v>
+        <v>439</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>80</v>
@@ -7669,11 +7748,11 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>467</v>
+        <v>440</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>80</v>
+        <v>441</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7692,16 +7771,16 @@
         <v>89</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>468</v>
+        <v>442</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>469</v>
+        <v>443</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>470</v>
+        <v>444</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>471</v>
+        <v>445</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7751,7 +7830,7 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>467</v>
+        <v>440</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7766,16 +7845,16 @@
         <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>80</v>
+        <v>446</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>472</v>
+        <v>447</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>80</v>
+        <v>439</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>80</v>
@@ -7783,18 +7862,18 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>474</v>
+        <v>449</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>475</v>
+        <v>80</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>80</v>
@@ -7806,20 +7885,16 @@
         <v>89</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>476</v>
+        <v>450</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>479</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>80</v>
       </c>
@@ -7843,13 +7918,13 @@
         <v>80</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>327</v>
+        <v>166</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>480</v>
+        <v>452</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>481</v>
+        <v>453</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>80</v>
@@ -7867,7 +7942,7 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>474</v>
+        <v>449</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7885,21 +7960,21 @@
         <v>80</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>472</v>
+        <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>482</v>
+        <v>454</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>80</v>
+        <v>439</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>483</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>484</v>
+        <v>455</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7913,22 +7988,22 @@
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I53" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J53" t="s" s="2">
-        <v>485</v>
+        <v>456</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>49</v>
+        <v>450</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>486</v>
+        <v>457</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7979,7 +8054,7 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>484</v>
+        <v>455</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -7994,24 +8069,24 @@
         <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>487</v>
+        <v>80</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>343</v>
+        <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>488</v>
+        <v>458</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>80</v>
+        <v>439</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>489</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>490</v>
+        <v>459</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8022,7 +8097,7 @@
         <v>78</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>89</v>
@@ -8034,15 +8109,17 @@
         <v>89</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>90</v>
+        <v>163</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>491</v>
+        <v>460</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>462</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>80</v>
@@ -8067,13 +8144,13 @@
         <v>80</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>80</v>
+        <v>463</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>80</v>
+        <v>464</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>80</v>
@@ -8091,13 +8168,13 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>490</v>
+        <v>459</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>80</v>
@@ -8106,16 +8183,16 @@
         <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>80</v>
+        <v>465</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>343</v>
+        <v>466</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>493</v>
+        <v>467</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>80</v>
+        <v>468</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>80</v>
@@ -8123,7 +8200,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>494</v>
+        <v>469</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8143,19 +8220,19 @@
         <v>80</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>495</v>
+        <v>470</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>496</v>
+        <v>471</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>497</v>
+        <v>472</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>498</v>
+        <v>473</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8205,7 +8282,7 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>494</v>
+        <v>469</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8220,23 +8297,817 @@
         <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="AK55" t="s" s="2">
+      <c r="AM58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AK62" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="AL55" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN55" t="s" s="2">
+      <c r="AL62" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN55">
+  <autoFilter ref="A1:AN62">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8246,7 +9117,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI54">
+  <conditionalFormatting sqref="A2:AI61">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-lab-prescription.xlsx
+++ b/StructureDefinition-be-lab-prescription.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$63</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2298" uniqueCount="532">
   <si>
     <t>Property</t>
   </si>
@@ -429,6 +429,9 @@
     <t>ServiceRequest.extension</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
@@ -596,6 +599,19 @@
   </si>
   <si>
     <t>The effective period for a resource  determines when the content is applicable for usage and is independent of publication and review dates. For example, a measure intended to be used for the year 2016 would be published in 2015.</t>
+  </si>
+  <si>
+    <t>executed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-execution-period}
+</t>
+  </si>
+  <si>
+    <t>BeExecutionPeriod</t>
+  </si>
+  <si>
+    <t>Begin and enddate of the execution of the request</t>
   </si>
   <si>
     <t>urgentCommunication</t>
@@ -2005,7 +2021,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN62"/>
+  <dimension ref="A1:AN63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2982,7 +2998,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>79</v>
@@ -2997,13 +3013,13 @@
         <v>80</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -3042,17 +3058,17 @@
         <v>80</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>78</v>
@@ -3064,7 +3080,7 @@
         <v>80</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>80</v>
@@ -3087,7 +3103,7 @@
         <v>132</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>80</v>
@@ -3109,16 +3125,16 @@
         <v>80</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -3168,7 +3184,7 @@
         <v>80</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>78</v>
@@ -3177,19 +3193,19 @@
         <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>80</v>
@@ -3200,7 +3216,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3226,10 +3242,10 @@
         <v>90</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3280,7 +3296,7 @@
         <v>80</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>78</v>
@@ -3301,7 +3317,7 @@
         <v>80</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>80</v>
@@ -3312,7 +3328,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3335,13 +3351,13 @@
         <v>80</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3380,19 +3396,19 @@
         <v>80</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>78</v>
@@ -3404,7 +3420,7 @@
         <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>80</v>
@@ -3424,7 +3440,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3450,13 +3466,13 @@
         <v>102</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3464,7 +3480,7 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>80</v>
@@ -3506,7 +3522,7 @@
         <v>80</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>88</v>
@@ -3538,7 +3554,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3561,13 +3577,13 @@
         <v>80</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3594,10 +3610,10 @@
         <v>80</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Y14" t="s" s="2">
         <v>80</v>
@@ -3606,17 +3622,17 @@
         <v>80</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>78</v>
@@ -3648,10 +3664,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>80</v>
@@ -3673,13 +3689,13 @@
         <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3706,11 +3722,11 @@
         <v>80</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>80</v>
@@ -3728,7 +3744,7 @@
         <v>80</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>78</v>
@@ -3763,7 +3779,7 @@
         <v>132</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>80</v>
@@ -3785,13 +3801,13 @@
         <v>80</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3842,7 +3858,7 @@
         <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>78</v>
@@ -3851,10 +3867,10 @@
         <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>80</v>
@@ -3877,7 +3893,7 @@
         <v>132</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>80</v>
@@ -3899,13 +3915,13 @@
         <v>80</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3956,7 +3972,7 @@
         <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>78</v>
@@ -3965,10 +3981,10 @@
         <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>80</v>
@@ -3991,14 +4007,14 @@
         <v>132</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>88</v>
@@ -4013,16 +4029,16 @@
         <v>80</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -4072,7 +4088,7 @@
         <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>78</v>
@@ -4081,10 +4097,10 @@
         <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>80</v>
@@ -4102,25 +4118,25 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>132</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>80</v>
@@ -4129,13 +4145,13 @@
         <v>80</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -4186,7 +4202,7 @@
         <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -4195,10 +4211,10 @@
         <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>80</v>
@@ -4218,43 +4234,41 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="C20" t="s" s="2">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>133</v>
+        <v>192</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>80</v>
       </c>
@@ -4302,7 +4316,7 @@
         <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>195</v>
+        <v>139</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
@@ -4314,7 +4328,7 @@
         <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>80</v>
@@ -4323,7 +4337,7 @@
         <v>80</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>80</v>
@@ -4334,11 +4348,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>80</v>
+        <v>195</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4348,27 +4362,29 @@
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H21" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H21" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="I21" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M21" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>80</v>
       </c>
@@ -4404,17 +4420,19 @@
         <v>80</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AB21" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AC21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -4426,31 +4444,29 @@
         <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>202</v>
+        <v>80</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>203</v>
+        <v>80</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>204</v>
+        <v>131</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>206</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
         <v>80</v>
       </c>
@@ -4459,10 +4475,10 @@
         <v>78</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>80</v>
@@ -4471,16 +4487,16 @@
         <v>89</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4518,19 +4534,17 @@
         <v>80</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
@@ -4545,26 +4559,28 @@
         <v>100</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="C23" t="s" s="2">
         <v>80</v>
       </c>
@@ -4582,18 +4598,20 @@
         <v>80</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>90</v>
+        <v>202</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>149</v>
+        <v>213</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>80</v>
@@ -4642,50 +4660,50 @@
         <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>80</v>
+        <v>207</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>80</v>
+        <v>208</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>152</v>
+        <v>209</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>80</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>80</v>
@@ -4697,17 +4715,15 @@
         <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>211</v>
+        <v>150</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>80</v>
@@ -4744,31 +4760,31 @@
         <v>80</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>80</v>
@@ -4777,7 +4793,7 @@
         <v>80</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>80</v>
@@ -4788,43 +4804,41 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>80</v>
+        <v>195</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>80</v>
       </c>
@@ -4848,52 +4862,52 @@
         <v>80</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>218</v>
+        <v>80</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>219</v>
+        <v>80</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>221</v>
+        <v>156</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>222</v>
+        <v>153</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>80</v>
@@ -4904,7 +4918,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4921,25 +4935,25 @@
         <v>80</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>80</v>
@@ -4964,13 +4978,13 @@
         <v>80</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>172</v>
+        <v>223</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>80</v>
@@ -4988,7 +5002,7 @@
         <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -5006,10 +5020,10 @@
         <v>80</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>231</v>
+        <v>131</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>80</v>
@@ -5020,7 +5034,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5028,7 +5042,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>88</v>
@@ -5043,32 +5057,32 @@
         <v>89</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>102</v>
+        <v>164</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>237</v>
+        <v>80</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>238</v>
+        <v>80</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>80</v>
@@ -5080,13 +5094,13 @@
         <v>80</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>80</v>
+        <v>233</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>80</v>
+        <v>234</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>80</v>
@@ -5104,7 +5118,7 @@
         <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5122,10 +5136,10 @@
         <v>80</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>80</v>
@@ -5136,7 +5150,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5159,30 +5173,32 @@
         <v>89</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>80</v>
+        <v>242</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>80</v>
@@ -5218,7 +5234,7 @@
         <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5236,10 +5252,10 @@
         <v>80</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>80</v>
@@ -5250,7 +5266,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5258,7 +5274,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>88</v>
@@ -5273,15 +5289,17 @@
         <v>89</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>251</v>
+        <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>80</v>
@@ -5294,7 +5312,7 @@
         <v>80</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>80</v>
+        <v>251</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>80</v>
@@ -5330,7 +5348,7 @@
         <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5348,10 +5366,10 @@
         <v>80</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>80</v>
@@ -5362,7 +5380,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5385,17 +5403,15 @@
         <v>89</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="K30" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>261</v>
-      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>80</v>
@@ -5444,7 +5460,7 @@
         <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5462,10 +5478,10 @@
         <v>80</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>80</v>
@@ -5476,7 +5492,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5487,7 +5503,7 @@
         <v>78</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>80</v>
@@ -5499,16 +5515,16 @@
         <v>89</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="K31" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5558,13 +5574,13 @@
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>80</v>
@@ -5573,13 +5589,13 @@
         <v>100</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>270</v>
+        <v>80</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>146</v>
+        <v>268</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>80</v>
@@ -5590,7 +5606,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5613,16 +5629,16 @@
         <v>89</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>102</v>
+        <v>271</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5672,7 +5688,7 @@
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5687,14 +5703,14 @@
         <v>100</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AK32" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>271</v>
-      </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
       </c>
@@ -5702,13 +5718,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
         <v>277</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>278</v>
+        <v>80</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5718,7 +5734,7 @@
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>80</v>
@@ -5727,15 +5743,17 @@
         <v>89</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="L33" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>80</v>
@@ -5799,13 +5817,13 @@
         <v>100</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>283</v>
+        <v>147</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>80</v>
@@ -5816,11 +5834,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5839,13 +5857,13 @@
         <v>89</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5896,7 +5914,7 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5911,13 +5929,13 @@
         <v>100</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>80</v>
@@ -5928,18 +5946,18 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>89</v>
@@ -5951,20 +5969,16 @@
         <v>89</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>197</v>
+        <v>292</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>80</v>
       </c>
@@ -6012,13 +6026,13 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>80</v>
@@ -6027,13 +6041,13 @@
         <v>100</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>80</v>
@@ -6044,15 +6058,15 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>80</v>
+        <v>299</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>88</v>
@@ -6061,24 +6075,26 @@
         <v>89</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N36" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L36" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>80</v>
       </c>
@@ -6102,13 +6118,13 @@
         <v>80</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>218</v>
+        <v>80</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>306</v>
+        <v>80</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>307</v>
+        <v>80</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>80</v>
@@ -6126,10 +6142,10 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>88</v>
@@ -6141,24 +6157,24 @@
         <v>100</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>311</v>
+        <v>80</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>312</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6184,13 +6200,13 @@
         <v>108</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6216,13 +6232,13 @@
         <v>80</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>80</v>
@@ -6240,7 +6256,7 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>88</v>
@@ -6255,24 +6271,24 @@
         <v>100</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>131</v>
+        <v>314</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>80</v>
+        <v>317</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6289,26 +6305,24 @@
         <v>89</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>80</v>
       </c>
@@ -6332,11 +6346,13 @@
         <v>80</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X38" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="Y38" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>80</v>
@@ -6354,13 +6370,13 @@
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>80</v>
@@ -6369,16 +6385,16 @@
         <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>80</v>
+        <v>324</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>328</v>
+        <v>131</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>80</v>
@@ -6386,7 +6402,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6394,7 +6410,7 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>88</v>
@@ -6409,49 +6425,49 @@
         <v>89</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="N39" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="O39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="X39" s="2"/>
+      <c r="Y39" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P39" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="Q39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>335</v>
-      </c>
       <c r="Z39" t="s" s="2">
         <v>80</v>
       </c>
@@ -6468,13 +6484,13 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>80</v>
@@ -6483,24 +6499,24 @@
         <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>336</v>
+        <v>80</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6514,34 +6530,30 @@
         <v>88</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>341</v>
+        <v>108</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P40" t="s" s="2">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="Q40" t="s" s="2">
         <v>80</v>
@@ -6562,13 +6574,13 @@
         <v>80</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>80</v>
+        <v>339</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>80</v>
+        <v>340</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>80</v>
@@ -6586,7 +6598,7 @@
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6601,24 +6613,24 @@
         <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>80</v>
+        <v>342</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>80</v>
+        <v>344</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6632,31 +6644,35 @@
         <v>88</v>
       </c>
       <c r="G41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H41" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H41" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="I41" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="N41" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="O41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P41" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="L41" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
         <v>80</v>
       </c>
@@ -6676,13 +6692,13 @@
         <v>80</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>354</v>
+        <v>80</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>355</v>
+        <v>80</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>80</v>
@@ -6700,7 +6716,7 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6709,19 +6725,19 @@
         <v>88</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>80</v>
+        <v>352</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>356</v>
+        <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>80</v>
@@ -6732,7 +6748,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6743,7 +6759,7 @@
         <v>78</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>89</v>
@@ -6755,16 +6771,16 @@
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6790,13 +6806,13 @@
         <v>80</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>80</v>
@@ -6814,16 +6830,16 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>100</v>
@@ -6832,10 +6848,10 @@
         <v>80</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>80</v>
@@ -6844,9 +6860,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6857,30 +6873,30 @@
         <v>78</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" t="s" s="2">
-        <v>368</v>
-      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>80</v>
       </c>
@@ -6904,13 +6920,13 @@
         <v>80</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>80</v>
+        <v>367</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>80</v>
+        <v>368</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>80</v>
@@ -6928,16 +6944,16 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>100</v>
@@ -6946,21 +6962,21 @@
         <v>80</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" hidden="true">
+      <c r="A44" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6968,13 +6984,13 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>80</v>
@@ -6983,16 +6999,18 @@
         <v>89</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="M44" s="2"/>
+      <c r="N44" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="L44" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>80</v>
       </c>
@@ -7040,10 +7058,10 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>88</v>
@@ -7055,38 +7073,38 @@
         <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="AK44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="45" hidden="true">
-      <c r="A45" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>381</v>
+        <v>80</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>80</v>
@@ -7095,13 +7113,13 @@
         <v>89</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7152,10 +7170,10 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>88</v>
@@ -7167,38 +7185,38 @@
         <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>80</v>
@@ -7207,13 +7225,13 @@
         <v>89</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7264,7 +7282,7 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7279,38 +7297,38 @@
         <v>100</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="47" hidden="true">
-      <c r="A47" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>80</v>
+        <v>396</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>80</v>
@@ -7319,13 +7337,13 @@
         <v>89</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7352,13 +7370,13 @@
         <v>80</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>404</v>
+        <v>80</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>405</v>
+        <v>80</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>80</v>
@@ -7376,7 +7394,7 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7391,28 +7409,28 @@
         <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>80</v>
+        <v>401</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>80</v>
+        <v>403</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>409</v>
+        <v>80</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7422,7 +7440,7 @@
         <v>88</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>80</v>
@@ -7431,13 +7449,13 @@
         <v>89</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7464,13 +7482,13 @@
         <v>80</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>80</v>
+        <v>409</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>80</v>
+        <v>410</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>80</v>
@@ -7488,7 +7506,7 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7503,28 +7521,28 @@
         <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>413</v>
+        <v>80</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>414</v>
+        <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>416</v>
+        <v>80</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7543,17 +7561,15 @@
         <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>80</v>
@@ -7602,7 +7618,7 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7617,32 +7633,32 @@
         <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>88</v>
@@ -7657,16 +7673,16 @@
         <v>89</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>163</v>
+        <v>425</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7692,13 +7708,13 @@
         <v>80</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>434</v>
+        <v>80</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>435</v>
+        <v>80</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>80</v>
@@ -7716,7 +7732,7 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7731,35 +7747,35 @@
         <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>80</v>
+        <v>433</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>89</v>
@@ -7771,16 +7787,16 @@
         <v>89</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>442</v>
+        <v>164</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7806,13 +7822,13 @@
         <v>80</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>80</v>
+        <v>439</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>80</v>
+        <v>440</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>80</v>
@@ -7830,13 +7846,13 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>80</v>
@@ -7845,28 +7861,28 @@
         <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>80</v>
+        <v>446</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7876,7 +7892,7 @@
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>80</v>
@@ -7885,15 +7901,17 @@
         <v>89</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>163</v>
+        <v>447</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="L52" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>80</v>
@@ -7918,13 +7936,13 @@
         <v>80</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>452</v>
+        <v>80</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>453</v>
+        <v>80</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>80</v>
@@ -7942,7 +7960,7 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7957,16 +7975,16 @@
         <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>80</v>
+        <v>451</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>80</v>
+        <v>452</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>80</v>
@@ -7974,7 +7992,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7997,13 +8015,13 @@
         <v>89</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8030,13 +8048,13 @@
         <v>80</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>80</v>
+        <v>457</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>80</v>
+        <v>458</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>80</v>
@@ -8054,7 +8072,7 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8075,18 +8093,18 @@
         <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8100,7 +8118,7 @@
         <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>80</v>
@@ -8109,17 +8127,15 @@
         <v>89</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>163</v>
+        <v>461</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="M54" t="s" s="2">
         <v>462</v>
       </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>80</v>
@@ -8144,13 +8160,13 @@
         <v>80</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>463</v>
+        <v>80</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>464</v>
+        <v>80</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>80</v>
@@ -8168,7 +8184,7 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8183,24 +8199,24 @@
         <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>465</v>
+        <v>80</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>466</v>
+        <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>468</v>
+        <v>444</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8208,13 +8224,13 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>80</v>
@@ -8223,16 +8239,16 @@
         <v>89</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>470</v>
+        <v>164</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8258,13 +8274,13 @@
         <v>80</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>80</v>
+        <v>468</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>80</v>
+        <v>469</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>80</v>
@@ -8282,7 +8298,7 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8297,16 +8313,16 @@
         <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>80</v>
@@ -8314,7 +8330,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8334,18 +8350,20 @@
         <v>80</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="K56" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>80</v>
@@ -8394,7 +8412,7 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8409,28 +8427,28 @@
         <v>100</v>
       </c>
       <c r="AJ56" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="AK56" t="s" s="2">
+      <c r="AM56" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>485</v>
+        <v>80</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8440,7 +8458,7 @@
         <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>80</v>
@@ -8449,17 +8467,15 @@
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>489</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>80</v>
@@ -8508,7 +8524,7 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8523,13 +8539,13 @@
         <v>100</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
@@ -8540,11 +8556,11 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>80</v>
+        <v>490</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8560,19 +8576,19 @@
         <v>80</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8622,7 +8638,7 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8637,38 +8653,38 @@
         <v>100</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>80</v>
+        <v>495</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="59" hidden="true">
-      <c r="A59" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>501</v>
+        <v>80</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>80</v>
@@ -8677,20 +8693,18 @@
         <v>89</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>163</v>
+        <v>499</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="L59" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>505</v>
-      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>80</v>
       </c>
@@ -8714,13 +8728,13 @@
         <v>80</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>506</v>
+        <v>80</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>507</v>
+        <v>80</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>80</v>
@@ -8738,7 +8752,7 @@
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8756,53 +8770,57 @@
         <v>80</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>509</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>80</v>
+        <v>506</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I60" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J60" t="s" s="2">
-        <v>511</v>
+        <v>164</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>49</v>
+        <v>507</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+        <v>508</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>510</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>80</v>
       </c>
@@ -8826,13 +8844,13 @@
         <v>80</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>80</v>
+        <v>511</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>80</v>
+        <v>512</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>80</v>
@@ -8850,7 +8868,7 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8865,24 +8883,24 @@
         <v>100</v>
       </c>
       <c r="AJ60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="AK60" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="AL60" t="s" s="2">
+      <c r="AM60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>515</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8893,7 +8911,7 @@
         <v>78</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>89</v>
@@ -8902,16 +8920,16 @@
         <v>80</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>90</v>
+        <v>516</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8962,13 +8980,13 @@
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>80</v>
@@ -8977,10 +8995,10 @@
         <v>100</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>80</v>
+        <v>518</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>519</v>
@@ -8989,12 +9007,12 @@
         <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>80</v>
+        <v>520</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9005,19 +9023,19 @@
         <v>78</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>521</v>
+        <v>90</v>
       </c>
       <c r="K62" t="s" s="2">
         <v>522</v>
@@ -9025,9 +9043,7 @@
       <c r="L62" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="M62" t="s" s="2">
-        <v>524</v>
-      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>80</v>
@@ -9076,13 +9092,13 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>80</v>
@@ -9091,23 +9107,137 @@
         <v>100</v>
       </c>
       <c r="AJ62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="AK62" t="s" s="2">
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AK63" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="AL62" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN62" t="s" s="2">
+      <c r="AL63" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN62">
+  <autoFilter ref="A1:AN63">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9117,7 +9247,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI61">
+  <conditionalFormatting sqref="A2:AI62">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-lab-prescription.xlsx
+++ b/StructureDefinition-be-lab-prescription.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2298" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2297" uniqueCount="531">
   <si>
     <t>Property</t>
   </si>
@@ -429,7 +429,7 @@
     <t>ServiceRequest.extension</t>
   </si>
   <si>
-    <t>3</t>
+    <t>2</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
@@ -588,17 +588,14 @@
     <t>validity</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {resource-effectivePeriod}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-validity-period}
 </t>
   </si>
   <si>
     <t>Validity period of the prescription</t>
   </si>
   <si>
-    <t>The period during which the resource content was or is planned to be effective.</t>
-  </si>
-  <si>
-    <t>The effective period for a resource  determines when the content is applicable for usage and is independent of publication and review dates. For example, a measure intended to be used for the year 2016 would be published in 2015.</t>
+    <t>Begin and enddate of the validity of the request</t>
   </si>
   <si>
     <t>executed</t>
@@ -4037,9 +4034,7 @@
       <c r="L18" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="M18" t="s" s="2">
-        <v>186</v>
-      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>80</v>
@@ -4123,17 +4118,17 @@
         <v>132</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F19" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="F19" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>89</v>
@@ -4145,13 +4140,13 @@
         <v>80</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -4237,7 +4232,7 @@
         <v>132</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>80</v>
@@ -4259,10 +4254,10 @@
         <v>80</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="L20" t="s" s="2">
         <v>136</v>
@@ -4348,11 +4343,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4374,16 +4369,16 @@
         <v>134</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>80</v>
@@ -4432,7 +4427,7 @@
         <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -4464,7 +4459,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4487,16 +4482,16 @@
         <v>89</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4534,7 +4529,7 @@
         <v>80</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
@@ -4544,7 +4539,7 @@
         <v>138</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
@@ -4559,27 +4554,27 @@
         <v>100</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>211</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>80</v>
@@ -4601,16 +4596,16 @@
         <v>89</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4660,7 +4655,7 @@
         <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4675,24 +4670,24 @@
         <v>100</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AK23" t="s" s="2">
+      <c r="AL23" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>211</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4804,11 +4799,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4830,13 +4825,13 @@
         <v>134</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L25" t="s" s="2">
-        <v>217</v>
-      </c>
       <c r="M25" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4918,7 +4913,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4944,16 +4939,16 @@
         <v>108</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>80</v>
@@ -4978,31 +4973,31 @@
         <v>80</v>
       </c>
       <c r="W26" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="X26" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="X26" t="s" s="2">
+      <c r="Y26" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="Y26" t="s" s="2">
+      <c r="Z26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE26" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -5023,7 +5018,7 @@
         <v>131</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>80</v>
@@ -5034,7 +5029,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5060,16 +5055,16 @@
         <v>164</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>80</v>
@@ -5097,28 +5092,28 @@
         <v>173</v>
       </c>
       <c r="X27" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="Y27" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="Y27" t="s" s="2">
+      <c r="Z27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5136,10 +5131,10 @@
         <v>80</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>80</v>
@@ -5150,7 +5145,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5176,65 +5171,65 @@
         <v>102</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="R28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S28" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="R28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S28" t="s" s="2">
+      <c r="T28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE28" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5252,10 +5247,10 @@
         <v>80</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>80</v>
@@ -5266,7 +5261,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5292,13 +5287,13 @@
         <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5312,43 +5307,43 @@
         <v>80</v>
       </c>
       <c r="S29" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE29" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5366,10 +5361,10 @@
         <v>80</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>80</v>
@@ -5380,7 +5375,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5403,13 +5398,13 @@
         <v>89</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5460,7 +5455,7 @@
         <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5478,10 +5473,10 @@
         <v>80</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>80</v>
@@ -5492,7 +5487,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5515,16 +5510,16 @@
         <v>89</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5574,7 +5569,7 @@
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5592,10 +5587,10 @@
         <v>80</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>80</v>
@@ -5606,7 +5601,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5629,16 +5624,16 @@
         <v>89</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5688,7 +5683,7 @@
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5703,13 +5698,13 @@
         <v>100</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>147</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
@@ -5720,7 +5715,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5746,13 +5741,13 @@
         <v>102</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5802,7 +5797,7 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5817,13 +5812,13 @@
         <v>100</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>147</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>80</v>
@@ -5834,11 +5829,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5857,13 +5852,13 @@
         <v>89</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5914,7 +5909,7 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5929,13 +5924,13 @@
         <v>100</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AL34" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>80</v>
@@ -5946,11 +5941,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5969,13 +5964,13 @@
         <v>89</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -6026,7 +6021,7 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -6041,13 +6036,13 @@
         <v>100</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AK35" t="s" s="2">
+      <c r="AL35" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>80</v>
@@ -6058,11 +6053,11 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -6081,19 +6076,19 @@
         <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>80</v>
@@ -6142,7 +6137,7 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6157,13 +6152,13 @@
         <v>100</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
@@ -6174,7 +6169,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6200,13 +6195,13 @@
         <v>108</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6232,14 +6227,14 @@
         <v>80</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="X37" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="Y37" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="Y37" t="s" s="2">
-        <v>312</v>
-      </c>
       <c r="Z37" t="s" s="2">
         <v>80</v>
       </c>
@@ -6256,7 +6251,7 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>88</v>
@@ -6271,24 +6266,24 @@
         <v>100</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="AK37" t="s" s="2">
+      <c r="AL37" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>317</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6314,13 +6309,13 @@
         <v>108</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6346,14 +6341,14 @@
         <v>80</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="X38" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="Y38" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="Y38" t="s" s="2">
-        <v>323</v>
-      </c>
       <c r="Z38" t="s" s="2">
         <v>80</v>
       </c>
@@ -6370,7 +6365,7 @@
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>88</v>
@@ -6385,16 +6380,16 @@
         <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>131</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>80</v>
@@ -6402,7 +6397,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6428,16 +6423,16 @@
         <v>164</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>80</v>
@@ -6466,7 +6461,7 @@
       </c>
       <c r="X39" s="2"/>
       <c r="Y39" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>80</v>
@@ -6484,7 +6479,7 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6502,13 +6497,13 @@
         <v>80</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="AL39" t="s" s="2">
-        <v>334</v>
-      </c>
       <c r="AM39" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
@@ -6516,7 +6511,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6542,10 +6537,10 @@
         <v>108</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6553,35 +6548,35 @@
         <v>80</v>
       </c>
       <c r="P40" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="Q40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="X40" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="Q40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="X40" t="s" s="2">
+      <c r="Y40" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="Y40" t="s" s="2">
-        <v>340</v>
-      </c>
       <c r="Z40" t="s" s="2">
         <v>80</v>
       </c>
@@ -6598,7 +6593,7 @@
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6613,16 +6608,16 @@
         <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AK40" t="s" s="2">
+      <c r="AL40" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>80</v>
@@ -6630,7 +6625,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6653,26 +6648,26 @@
         <v>89</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="N41" t="s" s="2">
+      <c r="O41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P41" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="O41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P41" t="s" s="2">
-        <v>351</v>
-      </c>
       <c r="Q41" t="s" s="2">
         <v>80</v>
       </c>
@@ -6716,7 +6711,7 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6731,13 +6726,13 @@
         <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>80</v>
@@ -6748,7 +6743,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6771,16 +6766,16 @@
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6809,11 +6804,11 @@
         <v>167</v>
       </c>
       <c r="X42" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="Y42" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="Y42" t="s" s="2">
-        <v>360</v>
-      </c>
       <c r="Z42" t="s" s="2">
         <v>80</v>
       </c>
@@ -6830,7 +6825,7 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6848,10 +6843,10 @@
         <v>80</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>80</v>
@@ -6862,7 +6857,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6885,16 +6880,16 @@
         <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6923,11 +6918,11 @@
         <v>167</v>
       </c>
       <c r="X43" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="Y43" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="Y43" t="s" s="2">
-        <v>368</v>
-      </c>
       <c r="Z43" t="s" s="2">
         <v>80</v>
       </c>
@@ -6944,7 +6939,7 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6962,10 +6957,10 @@
         <v>80</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>80</v>
@@ -6976,7 +6971,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6999,17 +6994,17 @@
         <v>89</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>80</v>
@@ -7058,7 +7053,7 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7076,10 +7071,10 @@
         <v>80</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>80</v>
@@ -7090,7 +7085,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7113,13 +7108,13 @@
         <v>89</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7170,7 +7165,7 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>88</v>
@@ -7185,28 +7180,28 @@
         <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="AK45" t="s" s="2">
+      <c r="AL45" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>384</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7225,13 +7220,13 @@
         <v>89</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7282,7 +7277,7 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7297,28 +7292,28 @@
         <v>100</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AK46" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="AK46" t="s" s="2">
+      <c r="AL46" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AM46" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>394</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7337,13 +7332,13 @@
         <v>89</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7394,7 +7389,7 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7409,24 +7404,24 @@
         <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="AK47" t="s" s="2">
+      <c r="AL47" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>404</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7449,13 +7444,13 @@
         <v>89</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7485,11 +7480,11 @@
         <v>167</v>
       </c>
       <c r="X48" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="Y48" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="Y48" t="s" s="2">
-        <v>410</v>
-      </c>
       <c r="Z48" t="s" s="2">
         <v>80</v>
       </c>
@@ -7506,7 +7501,7 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7527,22 +7522,22 @@
         <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>412</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7561,13 +7556,13 @@
         <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7618,7 +7613,7 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7633,28 +7628,28 @@
         <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AK49" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="AK49" t="s" s="2">
+      <c r="AL49" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>422</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7673,16 +7668,16 @@
         <v>89</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7732,7 +7727,7 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7747,28 +7742,28 @@
         <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="AK50" t="s" s="2">
+      <c r="AL50" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="AM50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>433</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7790,13 +7785,13 @@
         <v>164</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7825,11 +7820,11 @@
         <v>167</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="Y51" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="Y51" t="s" s="2">
-        <v>440</v>
-      </c>
       <c r="Z51" t="s" s="2">
         <v>80</v>
       </c>
@@ -7846,7 +7841,7 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7861,16 +7856,16 @@
         <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AK51" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="AK51" t="s" s="2">
+      <c r="AL51" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AM51" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>80</v>
@@ -7878,11 +7873,11 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7901,16 +7896,16 @@
         <v>89</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7960,7 +7955,7 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7975,16 +7970,16 @@
         <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AK52" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="AK52" t="s" s="2">
+      <c r="AL52" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="AL52" t="s" s="2">
-        <v>453</v>
-      </c>
       <c r="AM52" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>80</v>
@@ -7992,7 +7987,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8018,10 +8013,10 @@
         <v>164</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8051,11 +8046,11 @@
         <v>167</v>
       </c>
       <c r="X53" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="Y53" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="Y53" t="s" s="2">
-        <v>458</v>
-      </c>
       <c r="Z53" t="s" s="2">
         <v>80</v>
       </c>
@@ -8072,7 +8067,7 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8093,10 +8088,10 @@
         <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>80</v>
@@ -8104,7 +8099,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8127,13 +8122,13 @@
         <v>89</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8184,7 +8179,7 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8205,10 +8200,10 @@
         <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>80</v>
@@ -8216,7 +8211,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8242,13 +8237,13 @@
         <v>164</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8277,11 +8272,11 @@
         <v>167</v>
       </c>
       <c r="X55" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="Y55" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="Y55" t="s" s="2">
-        <v>469</v>
-      </c>
       <c r="Z55" t="s" s="2">
         <v>80</v>
       </c>
@@ -8298,7 +8293,7 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8313,16 +8308,16 @@
         <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AK55" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="AK55" t="s" s="2">
+      <c r="AL55" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="AL55" t="s" s="2">
+      <c r="AM55" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>80</v>
@@ -8330,7 +8325,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8353,16 +8348,16 @@
         <v>89</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8412,7 +8407,7 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8427,16 +8422,16 @@
         <v>100</v>
       </c>
       <c r="AJ56" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AK56" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="AK56" t="s" s="2">
+      <c r="AL56" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="AL56" t="s" s="2">
-        <v>481</v>
-      </c>
       <c r="AM56" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
@@ -8444,7 +8439,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8467,13 +8462,13 @@
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8524,7 +8519,7 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8539,13 +8534,13 @@
         <v>100</v>
       </c>
       <c r="AJ57" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AK57" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="AK57" t="s" s="2">
+      <c r="AL57" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
@@ -8556,11 +8551,11 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8579,16 +8574,16 @@
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>494</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8638,7 +8633,7 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8653,13 +8648,13 @@
         <v>100</v>
       </c>
       <c r="AJ58" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AK58" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="AK58" t="s" s="2">
+      <c r="AL58" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
@@ -8670,7 +8665,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8693,16 +8688,16 @@
         <v>89</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8752,7 +8747,7 @@
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8770,10 +8765,10 @@
         <v>80</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
@@ -8784,11 +8779,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8810,16 +8805,16 @@
         <v>164</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>80</v>
@@ -8847,11 +8842,11 @@
         <v>167</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="Y60" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="Y60" t="s" s="2">
-        <v>512</v>
-      </c>
       <c r="Z60" t="s" s="2">
         <v>80</v>
       </c>
@@ -8868,7 +8863,7 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8886,21 +8881,21 @@
         <v>80</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AL60" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>514</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8923,13 +8918,13 @@
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>49</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8980,7 +8975,7 @@
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -8995,24 +8990,24 @@
         <v>100</v>
       </c>
       <c r="AJ61" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="AK61" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AL61" t="s" s="2">
+      <c r="AM61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>520</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9038,10 +9033,10 @@
         <v>90</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>522</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>523</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9092,7 +9087,7 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9110,10 +9105,10 @@
         <v>80</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
@@ -9124,7 +9119,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9147,16 +9142,16 @@
         <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>529</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9206,7 +9201,7 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9221,13 +9216,13 @@
         <v>100</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>131</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>

--- a/StructureDefinition-be-lab-prescription.xlsx
+++ b/StructureDefinition-be-lab-prescription.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2297" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2296" uniqueCount="530">
   <si>
     <t>Property</t>
   </si>
@@ -984,10 +984,7 @@
     <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
   </si>
   <si>
-    <t>The status of a service order.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-status|4.0.1</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-vs-prescription-status</t>
   </si>
   <si>
     <t>Request.status</t>
@@ -6229,11 +6226,9 @@
       <c r="W37" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="X37" t="s" s="2">
+      <c r="X37" s="2"/>
+      <c r="Y37" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>80</v>
@@ -6266,24 +6261,24 @@
         <v>100</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="AK37" t="s" s="2">
+      <c r="AL37" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>316</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6309,13 +6304,13 @@
         <v>108</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6344,11 +6339,11 @@
         <v>222</v>
       </c>
       <c r="X38" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="Y38" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="Y38" t="s" s="2">
-        <v>322</v>
-      </c>
       <c r="Z38" t="s" s="2">
         <v>80</v>
       </c>
@@ -6365,7 +6360,7 @@
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>88</v>
@@ -6380,16 +6375,16 @@
         <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>131</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>80</v>
@@ -6397,7 +6392,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6423,16 +6418,16 @@
         <v>164</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>80</v>
@@ -6461,7 +6456,7 @@
       </c>
       <c r="X39" s="2"/>
       <c r="Y39" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>80</v>
@@ -6479,7 +6474,7 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6497,13 +6492,13 @@
         <v>80</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="AL39" t="s" s="2">
-        <v>333</v>
-      </c>
       <c r="AM39" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
@@ -6511,7 +6506,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6537,10 +6532,10 @@
         <v>108</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6548,7 +6543,7 @@
         <v>80</v>
       </c>
       <c r="P40" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Q40" t="s" s="2">
         <v>80</v>
@@ -6572,11 +6567,11 @@
         <v>222</v>
       </c>
       <c r="X40" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="Y40" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="Y40" t="s" s="2">
-        <v>339</v>
-      </c>
       <c r="Z40" t="s" s="2">
         <v>80</v>
       </c>
@@ -6593,7 +6588,7 @@
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6608,16 +6603,16 @@
         <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AK40" t="s" s="2">
+      <c r="AL40" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>80</v>
@@ -6625,7 +6620,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6648,26 +6643,26 @@
         <v>89</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="N41" t="s" s="2">
+      <c r="O41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P41" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="O41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P41" t="s" s="2">
-        <v>350</v>
-      </c>
       <c r="Q41" t="s" s="2">
         <v>80</v>
       </c>
@@ -6711,7 +6706,7 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6726,13 +6721,13 @@
         <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>80</v>
@@ -6743,7 +6738,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6766,16 +6761,16 @@
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6804,11 +6799,11 @@
         <v>167</v>
       </c>
       <c r="X42" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="Y42" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="Y42" t="s" s="2">
-        <v>359</v>
-      </c>
       <c r="Z42" t="s" s="2">
         <v>80</v>
       </c>
@@ -6825,7 +6820,7 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6843,10 +6838,10 @@
         <v>80</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>80</v>
@@ -6857,7 +6852,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6880,16 +6875,16 @@
         <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6918,11 +6913,11 @@
         <v>167</v>
       </c>
       <c r="X43" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="Y43" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="Y43" t="s" s="2">
-        <v>367</v>
-      </c>
       <c r="Z43" t="s" s="2">
         <v>80</v>
       </c>
@@ -6939,7 +6934,7 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6957,10 +6952,10 @@
         <v>80</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>80</v>
@@ -6971,7 +6966,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6994,17 +6989,17 @@
         <v>89</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>80</v>
@@ -7053,7 +7048,7 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7071,10 +7066,10 @@
         <v>80</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>80</v>
@@ -7085,7 +7080,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7108,13 +7103,13 @@
         <v>89</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7165,7 +7160,7 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>88</v>
@@ -7180,28 +7175,28 @@
         <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AK45" t="s" s="2">
+      <c r="AL45" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>383</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7220,13 +7215,13 @@
         <v>89</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7277,7 +7272,7 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7292,28 +7287,28 @@
         <v>100</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AK46" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="AK46" t="s" s="2">
+      <c r="AL46" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AM46" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>393</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7332,13 +7327,13 @@
         <v>89</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7389,7 +7384,7 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7404,24 +7399,24 @@
         <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="AK47" t="s" s="2">
+      <c r="AL47" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>403</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7444,13 +7439,13 @@
         <v>89</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7480,11 +7475,11 @@
         <v>167</v>
       </c>
       <c r="X48" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="Y48" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="Y48" t="s" s="2">
-        <v>409</v>
-      </c>
       <c r="Z48" t="s" s="2">
         <v>80</v>
       </c>
@@ -7501,7 +7496,7 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7522,22 +7517,22 @@
         <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>411</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7556,13 +7551,13 @@
         <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7613,7 +7608,7 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7628,28 +7623,28 @@
         <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AK49" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="AK49" t="s" s="2">
+      <c r="AL49" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>421</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7668,16 +7663,16 @@
         <v>89</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7727,7 +7722,7 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7742,28 +7737,28 @@
         <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="AK50" t="s" s="2">
+      <c r="AL50" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="AM50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>432</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7785,13 +7780,13 @@
         <v>164</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7820,11 +7815,11 @@
         <v>167</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="Y51" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="Y51" t="s" s="2">
-        <v>439</v>
-      </c>
       <c r="Z51" t="s" s="2">
         <v>80</v>
       </c>
@@ -7841,7 +7836,7 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7856,16 +7851,16 @@
         <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AK51" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="AK51" t="s" s="2">
+      <c r="AL51" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AM51" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>80</v>
@@ -7873,11 +7868,11 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7896,16 +7891,16 @@
         <v>89</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7955,7 +7950,7 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7970,16 +7965,16 @@
         <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AK52" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="AK52" t="s" s="2">
+      <c r="AL52" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="AL52" t="s" s="2">
-        <v>452</v>
-      </c>
       <c r="AM52" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>80</v>
@@ -7987,7 +7982,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8013,10 +8008,10 @@
         <v>164</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8046,11 +8041,11 @@
         <v>167</v>
       </c>
       <c r="X53" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="Y53" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="Y53" t="s" s="2">
-        <v>457</v>
-      </c>
       <c r="Z53" t="s" s="2">
         <v>80</v>
       </c>
@@ -8067,7 +8062,7 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8088,10 +8083,10 @@
         <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>80</v>
@@ -8099,7 +8094,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8122,13 +8117,13 @@
         <v>89</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8179,7 +8174,7 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8200,10 +8195,10 @@
         <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>80</v>
@@ -8211,7 +8206,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8237,13 +8232,13 @@
         <v>164</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8272,11 +8267,11 @@
         <v>167</v>
       </c>
       <c r="X55" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="Y55" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="Y55" t="s" s="2">
-        <v>468</v>
-      </c>
       <c r="Z55" t="s" s="2">
         <v>80</v>
       </c>
@@ -8293,7 +8288,7 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8308,16 +8303,16 @@
         <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AK55" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="AK55" t="s" s="2">
+      <c r="AL55" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="AL55" t="s" s="2">
+      <c r="AM55" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>80</v>
@@ -8325,7 +8320,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8348,16 +8343,16 @@
         <v>89</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8407,7 +8402,7 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8422,16 +8417,16 @@
         <v>100</v>
       </c>
       <c r="AJ56" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AK56" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="AK56" t="s" s="2">
+      <c r="AL56" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="AL56" t="s" s="2">
-        <v>480</v>
-      </c>
       <c r="AM56" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
@@ -8439,7 +8434,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8462,13 +8457,13 @@
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8519,7 +8514,7 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8534,13 +8529,13 @@
         <v>100</v>
       </c>
       <c r="AJ57" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AK57" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="AK57" t="s" s="2">
+      <c r="AL57" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
@@ -8551,11 +8546,11 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8574,16 +8569,16 @@
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>493</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8633,7 +8628,7 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8648,13 +8643,13 @@
         <v>100</v>
       </c>
       <c r="AJ58" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AK58" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="AK58" t="s" s="2">
+      <c r="AL58" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
@@ -8665,7 +8660,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8688,16 +8683,16 @@
         <v>89</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8747,7 +8742,7 @@
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8765,10 +8760,10 @@
         <v>80</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
@@ -8779,11 +8774,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8805,16 +8800,16 @@
         <v>164</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>80</v>
@@ -8842,11 +8837,11 @@
         <v>167</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="Y60" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="Y60" t="s" s="2">
-        <v>511</v>
-      </c>
       <c r="Z60" t="s" s="2">
         <v>80</v>
       </c>
@@ -8863,7 +8858,7 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8881,21 +8876,21 @@
         <v>80</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AL60" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>513</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8918,13 +8913,13 @@
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>49</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8975,7 +8970,7 @@
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -8990,24 +8985,24 @@
         <v>100</v>
       </c>
       <c r="AJ61" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="AK61" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AL61" t="s" s="2">
+      <c r="AM61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>519</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9033,10 +9028,10 @@
         <v>90</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9087,7 +9082,7 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9105,10 +9100,10 @@
         <v>80</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
@@ -9119,7 +9114,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9142,16 +9137,16 @@
         <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9201,7 +9196,7 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9216,13 +9211,13 @@
         <v>100</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>131</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>

--- a/StructureDefinition-be-lab-prescription.xlsx
+++ b/StructureDefinition-be-lab-prescription.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$64</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2296" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2332" uniqueCount="534">
   <si>
     <t>Property</t>
   </si>
@@ -609,6 +609,19 @@
   </si>
   <si>
     <t>Begin and enddate of the execution of the request</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-lastest-end-date}
+</t>
+  </si>
+  <si>
+    <t>BeLastestEndDate</t>
+  </si>
+  <si>
+    <t>Request must be performed before</t>
   </si>
   <si>
     <t>urgentCommunication</t>
@@ -2015,7 +2028,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN63"/>
+  <dimension ref="A1:AN64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4224,7 +4237,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>132</v>
       </c>
@@ -4242,7 +4255,7 @@
         <v>88</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>80</v>
@@ -4257,7 +4270,7 @@
         <v>192</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>136</v>
+        <v>193</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4317,7 +4330,7 @@
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>140</v>
@@ -4340,43 +4353,41 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="C21" t="s" s="2">
-        <v>194</v>
+        <v>80</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>80</v>
       </c>
@@ -4424,7 +4435,7 @@
         <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>199</v>
+        <v>139</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -4445,7 +4456,7 @@
         <v>80</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>80</v>
@@ -4456,11 +4467,11 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>80</v>
+        <v>198</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4470,27 +4481,29 @@
         <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H22" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H22" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="I22" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L22" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>80</v>
       </c>
@@ -4526,17 +4539,19 @@
         <v>80</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AB22" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AC22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
@@ -4548,31 +4563,29 @@
         <v>80</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>206</v>
+        <v>80</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>207</v>
+        <v>80</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>208</v>
+        <v>131</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>209</v>
+        <v>80</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>210</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
         <v>80</v>
       </c>
@@ -4581,10 +4594,10 @@
         <v>78</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>80</v>
@@ -4593,16 +4606,16 @@
         <v>89</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4640,19 +4653,17 @@
         <v>80</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="AB23" s="2"/>
       <c r="AC23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4667,26 +4678,28 @@
         <v>100</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="B24" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="C24" t="s" s="2">
         <v>80</v>
       </c>
@@ -4704,18 +4717,20 @@
         <v>80</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>90</v>
+        <v>205</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>150</v>
+        <v>216</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M24" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>80</v>
@@ -4764,50 +4779,50 @@
         <v>80</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>152</v>
+        <v>204</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>80</v>
+        <v>211</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>153</v>
+        <v>212</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>80</v>
+        <v>213</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>80</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>194</v>
+        <v>80</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>80</v>
@@ -4819,17 +4834,15 @@
         <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>215</v>
+        <v>150</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>80</v>
@@ -4866,31 +4879,31 @@
         <v>80</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>80</v>
@@ -4910,43 +4923,41 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>80</v>
+        <v>198</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>80</v>
       </c>
@@ -4970,52 +4981,52 @@
         <v>80</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>222</v>
+        <v>80</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>223</v>
+        <v>80</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>224</v>
+        <v>80</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>225</v>
+        <v>156</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>226</v>
+        <v>153</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>80</v>
@@ -5026,7 +5037,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5043,25 +5054,25 @@
         <v>80</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>80</v>
@@ -5086,13 +5097,13 @@
         <v>80</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>80</v>
@@ -5110,7 +5121,7 @@
         <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5128,10 +5139,10 @@
         <v>80</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>235</v>
+        <v>131</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>80</v>
@@ -5142,7 +5153,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5150,7 +5161,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>88</v>
@@ -5165,32 +5176,32 @@
         <v>89</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>102</v>
+        <v>164</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>241</v>
+        <v>80</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>242</v>
+        <v>80</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>80</v>
@@ -5202,13 +5213,13 @@
         <v>80</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>80</v>
+        <v>236</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>80</v>
+        <v>237</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>80</v>
@@ -5226,7 +5237,7 @@
         <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5244,10 +5255,10 @@
         <v>80</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>80</v>
@@ -5258,7 +5269,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5281,30 +5292,32 @@
         <v>89</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>80</v>
+        <v>245</v>
       </c>
       <c r="R29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>80</v>
@@ -5340,7 +5353,7 @@
         <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5358,10 +5371,10 @@
         <v>80</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>80</v>
@@ -5372,7 +5385,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5380,7 +5393,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>88</v>
@@ -5395,15 +5408,17 @@
         <v>89</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>255</v>
+        <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>80</v>
@@ -5416,7 +5431,7 @@
         <v>80</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>80</v>
+        <v>254</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>80</v>
@@ -5452,7 +5467,7 @@
         <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5470,10 +5485,10 @@
         <v>80</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>80</v>
@@ -5484,7 +5499,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5507,17 +5522,15 @@
         <v>89</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>80</v>
@@ -5566,7 +5579,7 @@
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5584,10 +5597,10 @@
         <v>80</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>80</v>
@@ -5598,7 +5611,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5609,7 +5622,7 @@
         <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>80</v>
@@ -5621,16 +5634,16 @@
         <v>89</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5680,13 +5693,13 @@
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>80</v>
@@ -5695,13 +5708,13 @@
         <v>100</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>274</v>
+        <v>80</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>147</v>
+        <v>271</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
@@ -5712,7 +5725,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5735,16 +5748,16 @@
         <v>89</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>102</v>
+        <v>274</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5794,7 +5807,7 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5809,13 +5822,13 @@
         <v>100</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>147</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>80</v>
@@ -5824,13 +5837,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>282</v>
+        <v>80</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5840,7 +5853,7 @@
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>80</v>
@@ -5849,15 +5862,17 @@
         <v>89</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="K34" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>80</v>
@@ -5906,7 +5921,7 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5921,13 +5936,13 @@
         <v>100</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>287</v>
+        <v>147</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>80</v>
@@ -5938,11 +5953,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5961,13 +5976,13 @@
         <v>89</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -6018,7 +6033,7 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -6033,13 +6048,13 @@
         <v>100</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>80</v>
@@ -6050,18 +6065,18 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>89</v>
@@ -6073,20 +6088,16 @@
         <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>201</v>
+        <v>295</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>80</v>
       </c>
@@ -6134,13 +6145,13 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>80</v>
@@ -6149,13 +6160,13 @@
         <v>100</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
@@ -6166,15 +6177,15 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>80</v>
+        <v>302</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>88</v>
@@ -6183,24 +6194,26 @@
         <v>89</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>108</v>
+        <v>205</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>80</v>
       </c>
@@ -6224,11 +6237,13 @@
         <v>80</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="X37" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Y37" t="s" s="2">
-        <v>310</v>
+        <v>80</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>80</v>
@@ -6246,10 +6261,10 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>88</v>
@@ -6261,24 +6276,24 @@
         <v>100</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>314</v>
+        <v>80</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>315</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6304,13 +6319,13 @@
         <v>108</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6336,13 +6351,11 @@
         <v>80</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="X38" s="2"/>
       <c r="Y38" t="s" s="2">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>80</v>
@@ -6360,7 +6373,7 @@
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>88</v>
@@ -6375,24 +6388,24 @@
         <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>131</v>
+        <v>316</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>80</v>
+        <v>319</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6409,26 +6422,24 @@
         <v>89</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>329</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>80</v>
       </c>
@@ -6452,11 +6463,13 @@
         <v>80</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="X39" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="Y39" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>80</v>
@@ -6474,13 +6487,13 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>80</v>
@@ -6489,16 +6502,16 @@
         <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>80</v>
+        <v>326</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>331</v>
+        <v>131</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
@@ -6506,7 +6519,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6514,7 +6527,7 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>88</v>
@@ -6529,49 +6542,49 @@
         <v>89</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="X40" s="2"/>
+      <c r="Y40" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="L40" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P40" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="Q40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>338</v>
-      </c>
       <c r="Z40" t="s" s="2">
         <v>80</v>
       </c>
@@ -6588,13 +6601,13 @@
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>80</v>
@@ -6603,24 +6616,24 @@
         <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>339</v>
+        <v>80</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6634,34 +6647,30 @@
         <v>88</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>344</v>
+        <v>108</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P41" t="s" s="2">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="Q41" t="s" s="2">
         <v>80</v>
@@ -6682,13 +6691,13 @@
         <v>80</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>80</v>
+        <v>226</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>80</v>
+        <v>341</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>80</v>
+        <v>342</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>80</v>
@@ -6706,7 +6715,7 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6721,24 +6730,24 @@
         <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>80</v>
+        <v>344</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>80</v>
+        <v>346</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6752,31 +6761,35 @@
         <v>88</v>
       </c>
       <c r="G42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H42" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H42" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="I42" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P42" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="K42" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
         <v>80</v>
       </c>
@@ -6796,13 +6809,13 @@
         <v>80</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>357</v>
+        <v>80</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>358</v>
+        <v>80</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>80</v>
@@ -6820,7 +6833,7 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6829,19 +6842,19 @@
         <v>88</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>80</v>
+        <v>354</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>359</v>
+        <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>80</v>
@@ -6852,7 +6865,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6863,7 +6876,7 @@
         <v>78</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>89</v>
@@ -6875,16 +6888,16 @@
         <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6913,10 +6926,10 @@
         <v>167</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>80</v>
@@ -6934,13 +6947,13 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>146</v>
@@ -6952,10 +6965,10 @@
         <v>80</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>80</v>
@@ -6964,9 +6977,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6977,30 +6990,30 @@
         <v>78</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="K44" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" t="s" s="2">
-        <v>371</v>
-      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>80</v>
       </c>
@@ -7024,13 +7037,13 @@
         <v>80</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>80</v>
+        <v>369</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>80</v>
+        <v>370</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>80</v>
@@ -7048,16 +7061,16 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>100</v>
@@ -7066,10 +7079,10 @@
         <v>80</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>80</v>
@@ -7078,9 +7091,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7088,13 +7101,13 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>80</v>
@@ -7103,16 +7116,18 @@
         <v>89</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="K45" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7160,10 +7175,10 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>88</v>
@@ -7175,38 +7190,38 @@
         <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="46" hidden="true">
-      <c r="A46" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>384</v>
+        <v>80</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>80</v>
@@ -7215,13 +7230,13 @@
         <v>89</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7272,10 +7287,10 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>88</v>
@@ -7287,38 +7302,38 @@
         <v>100</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>80</v>
@@ -7327,13 +7342,13 @@
         <v>89</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7384,7 +7399,7 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7399,38 +7414,38 @@
         <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>80</v>
+        <v>398</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>80</v>
@@ -7439,13 +7454,13 @@
         <v>89</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7472,13 +7487,13 @@
         <v>80</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>407</v>
+        <v>80</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>408</v>
+        <v>80</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>80</v>
@@ -7496,7 +7511,7 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7511,38 +7526,38 @@
         <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>80</v>
+        <v>402</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>80</v>
+        <v>403</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>80</v>
+        <v>405</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>412</v>
+        <v>80</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>80</v>
@@ -7551,13 +7566,13 @@
         <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7584,13 +7599,13 @@
         <v>80</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>80</v>
+        <v>411</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>80</v>
+        <v>412</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>80</v>
@@ -7608,7 +7623,7 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7623,28 +7638,28 @@
         <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>416</v>
+        <v>80</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>417</v>
+        <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>419</v>
+        <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7663,17 +7678,15 @@
         <v>89</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>426</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>80</v>
@@ -7722,7 +7735,7 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7737,32 +7750,32 @@
         <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>88</v>
@@ -7777,16 +7790,16 @@
         <v>89</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>164</v>
+        <v>427</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7812,13 +7825,13 @@
         <v>80</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>437</v>
+        <v>80</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>438</v>
+        <v>80</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>80</v>
@@ -7836,7 +7849,7 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7851,35 +7864,35 @@
         <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>80</v>
+        <v>435</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>89</v>
@@ -7891,16 +7904,16 @@
         <v>89</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>445</v>
+        <v>164</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7926,13 +7939,13 @@
         <v>80</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>80</v>
+        <v>441</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>80</v>
+        <v>442</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>80</v>
@@ -7950,13 +7963,13 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>80</v>
@@ -7965,28 +7978,28 @@
         <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>80</v>
+        <v>448</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7996,7 +8009,7 @@
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>80</v>
@@ -8005,15 +8018,17 @@
         <v>89</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>164</v>
+        <v>449</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>451</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>80</v>
@@ -8038,13 +8053,13 @@
         <v>80</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>455</v>
+        <v>80</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>456</v>
+        <v>80</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>80</v>
@@ -8062,7 +8077,7 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8077,16 +8092,16 @@
         <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>80</v>
+        <v>453</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>80</v>
+        <v>454</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>80</v>
@@ -8094,7 +8109,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8117,13 +8132,13 @@
         <v>89</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>459</v>
+        <v>164</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8150,13 +8165,13 @@
         <v>80</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>80</v>
+        <v>459</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>80</v>
+        <v>460</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>80</v>
@@ -8174,7 +8189,7 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8198,13 +8213,13 @@
         <v>461</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
         <v>462</v>
       </c>
@@ -8214,13 +8229,13 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>80</v>
@@ -8229,17 +8244,15 @@
         <v>89</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>164</v>
+        <v>463</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="L55" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="M55" t="s" s="2">
-        <v>465</v>
-      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>80</v>
@@ -8264,13 +8277,13 @@
         <v>80</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>466</v>
+        <v>80</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>467</v>
+        <v>80</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>80</v>
@@ -8303,24 +8316,24 @@
         <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>468</v>
+        <v>80</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>469</v>
+        <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8328,13 +8341,13 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>80</v>
@@ -8343,16 +8356,16 @@
         <v>89</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>473</v>
+        <v>164</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8378,13 +8391,13 @@
         <v>80</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>80</v>
+        <v>470</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>80</v>
+        <v>471</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>80</v>
@@ -8402,7 +8415,7 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8417,16 +8430,16 @@
         <v>100</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
@@ -8434,7 +8447,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8454,18 +8467,20 @@
         <v>80</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>479</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>480</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>80</v>
@@ -8514,7 +8529,7 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8529,28 +8544,28 @@
         <v>100</v>
       </c>
       <c r="AJ57" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>488</v>
+        <v>80</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8560,7 +8575,7 @@
         <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>80</v>
@@ -8569,17 +8584,15 @@
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>492</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>80</v>
@@ -8628,7 +8641,7 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8643,13 +8656,13 @@
         <v>100</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
@@ -8660,11 +8673,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>80</v>
+        <v>492</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8680,19 +8693,19 @@
         <v>80</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8742,7 +8755,7 @@
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8757,13 +8770,13 @@
         <v>100</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>80</v>
+        <v>497</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
@@ -8772,23 +8785,23 @@
         <v>80</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>504</v>
+        <v>80</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>80</v>
@@ -8797,20 +8810,18 @@
         <v>89</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>164</v>
+        <v>501</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>508</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>80</v>
       </c>
@@ -8834,13 +8845,13 @@
         <v>80</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>509</v>
+        <v>80</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>510</v>
+        <v>80</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>80</v>
@@ -8858,7 +8869,7 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8876,53 +8887,57 @@
         <v>80</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>512</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>80</v>
+        <v>508</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I61" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J61" t="s" s="2">
-        <v>514</v>
+        <v>164</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>49</v>
+        <v>509</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+        <v>510</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>512</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>80</v>
       </c>
@@ -8946,13 +8961,13 @@
         <v>80</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>80</v>
+        <v>513</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>80</v>
+        <v>514</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>80</v>
@@ -8970,7 +8985,7 @@
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -8985,24 +9000,24 @@
         <v>100</v>
       </c>
       <c r="AJ61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>518</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9013,7 +9028,7 @@
         <v>78</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>89</v>
@@ -9022,16 +9037,16 @@
         <v>80</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>90</v>
+        <v>518</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>520</v>
+        <v>49</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9082,13 +9097,13 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>80</v>
@@ -9097,22 +9112,22 @@
         <v>100</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>80</v>
+        <v>520</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="AL62" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="AM62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>80</v>
-      </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
         <v>523</v>
       </c>
@@ -9125,29 +9140,27 @@
         <v>78</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="L63" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>527</v>
-      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>80</v>
@@ -9202,7 +9215,7 @@
         <v>78</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>80</v>
@@ -9211,23 +9224,137 @@
         <v>100</v>
       </c>
       <c r="AJ63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J64" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="AK63" t="s" s="2">
+      <c r="K64" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AK64" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="AL63" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN63" t="s" s="2">
+      <c r="AL64" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN63">
+  <autoFilter ref="A1:AN64">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9237,7 +9364,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI62">
+  <conditionalFormatting sqref="A2:AI63">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-lab-prescription.xlsx
+++ b/StructureDefinition-be-lab-prescription.xlsx
@@ -429,7 +429,7 @@
     <t>ServiceRequest.extension</t>
   </si>
   <si>
-    <t>2</t>
+    <t>3</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
@@ -611,17 +611,17 @@
     <t>Begin and enddate of the execution of the request</t>
   </si>
   <si>
-    <t>latest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-lastest-end-date}
+    <t>performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-intended-performer}
 </t>
   </si>
   <si>
-    <t>BeLastestEndDate</t>
-  </si>
-  <si>
-    <t>Request must be performed before</t>
+    <t>Takes the place of performer and performerType</t>
+  </si>
+  <si>
+    <t>Intended performers for this request</t>
   </si>
   <si>
     <t>urgentCommunication</t>
@@ -4249,7 +4249,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>88</v>
@@ -7892,7 +7892,7 @@
         <v>78</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>89</v>
@@ -8006,7 +8006,7 @@
         <v>78</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>89</v>

--- a/StructureDefinition-be-lab-prescription.xlsx
+++ b/StructureDefinition-be-lab-prescription.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$65</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2332" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="538">
   <si>
     <t>Property</t>
   </si>
@@ -609,6 +609,19 @@
   </si>
   <si>
     <t>Begin and enddate of the execution of the request</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-lastest-end-date}
+</t>
+  </si>
+  <si>
+    <t>Request must be executed before</t>
+  </si>
+  <si>
+    <t>Request must be performed before</t>
   </si>
   <si>
     <t>performer</t>
@@ -2028,7 +2041,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN64"/>
+  <dimension ref="A1:AN65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4249,7 +4262,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>88</v>
@@ -4351,7 +4364,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>132</v>
       </c>
@@ -4363,13 +4376,13 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>80</v>
@@ -4384,7 +4397,7 @@
         <v>196</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>136</v>
+        <v>197</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4444,7 +4457,7 @@
         <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>140</v>
@@ -4467,43 +4480,41 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="C22" t="s" s="2">
-        <v>198</v>
+        <v>80</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>134</v>
+        <v>199</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>80</v>
       </c>
@@ -4551,7 +4562,7 @@
         <v>80</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
@@ -4572,7 +4583,7 @@
         <v>80</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>80</v>
@@ -4583,11 +4594,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>80</v>
+        <v>202</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4597,27 +4608,29 @@
         <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H23" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H23" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="I23" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="L23" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>80</v>
       </c>
@@ -4653,17 +4666,19 @@
         <v>80</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AB23" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AC23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4675,31 +4690,29 @@
         <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>211</v>
+        <v>80</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>212</v>
+        <v>131</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>213</v>
+        <v>80</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>214</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
         <v>80</v>
       </c>
@@ -4708,10 +4721,10 @@
         <v>78</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>80</v>
@@ -4720,16 +4733,16 @@
         <v>89</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4767,19 +4780,17 @@
         <v>80</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="AB24" s="2"/>
       <c r="AC24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4794,26 +4805,28 @@
         <v>100</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="B25" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="C25" t="s" s="2">
         <v>80</v>
       </c>
@@ -4831,18 +4844,20 @@
         <v>80</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>90</v>
+        <v>209</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>80</v>
@@ -4891,50 +4906,50 @@
         <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>152</v>
+        <v>208</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>80</v>
+        <v>214</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>80</v>
+        <v>215</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>153</v>
+        <v>216</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>80</v>
+        <v>217</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>80</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>198</v>
+        <v>80</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>80</v>
@@ -4946,17 +4961,15 @@
         <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>219</v>
+        <v>150</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>80</v>
@@ -4993,31 +5006,31 @@
         <v>80</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>80</v>
@@ -5037,43 +5050,41 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>80</v>
+        <v>202</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>80</v>
       </c>
@@ -5097,52 +5108,52 @@
         <v>80</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>226</v>
+        <v>80</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>227</v>
+        <v>80</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>228</v>
+        <v>80</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>229</v>
+        <v>156</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>230</v>
+        <v>153</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>80</v>
@@ -5153,7 +5164,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5170,25 +5181,25 @@
         <v>80</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>80</v>
@@ -5213,13 +5224,13 @@
         <v>80</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>173</v>
+        <v>230</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>80</v>
@@ -5237,7 +5248,7 @@
         <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5255,10 +5266,10 @@
         <v>80</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>239</v>
+        <v>131</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>80</v>
@@ -5269,7 +5280,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5277,7 +5288,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>88</v>
@@ -5292,32 +5303,32 @@
         <v>89</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>102</v>
+        <v>164</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>245</v>
+        <v>80</v>
       </c>
       <c r="R29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>246</v>
+        <v>80</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>80</v>
@@ -5329,13 +5340,13 @@
         <v>80</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>80</v>
+        <v>241</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>80</v>
@@ -5353,7 +5364,7 @@
         <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5371,10 +5382,10 @@
         <v>80</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>80</v>
@@ -5385,7 +5396,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5408,30 +5419,32 @@
         <v>89</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>80</v>
+        <v>249</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>80</v>
@@ -5467,7 +5480,7 @@
         <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5485,10 +5498,10 @@
         <v>80</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>80</v>
@@ -5499,7 +5512,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5507,7 +5520,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>88</v>
@@ -5522,15 +5535,17 @@
         <v>89</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>259</v>
+        <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>80</v>
@@ -5543,7 +5558,7 @@
         <v>80</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>80</v>
+        <v>258</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>80</v>
@@ -5579,7 +5594,7 @@
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5597,10 +5612,10 @@
         <v>80</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>80</v>
@@ -5611,7 +5626,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5634,17 +5649,15 @@
         <v>89</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>80</v>
@@ -5693,7 +5706,7 @@
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5711,10 +5724,10 @@
         <v>80</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
@@ -5725,7 +5738,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5736,7 +5749,7 @@
         <v>78</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>80</v>
@@ -5748,16 +5761,16 @@
         <v>89</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5807,13 +5820,13 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>80</v>
@@ -5822,13 +5835,13 @@
         <v>100</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>278</v>
+        <v>80</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>147</v>
+        <v>275</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>80</v>
@@ -5839,7 +5852,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5862,16 +5875,16 @@
         <v>89</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>102</v>
+        <v>278</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5921,7 +5934,7 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5936,13 +5949,13 @@
         <v>100</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>147</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>80</v>
@@ -5951,13 +5964,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>286</v>
+        <v>80</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5967,7 +5980,7 @@
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>80</v>
@@ -5976,15 +5989,17 @@
         <v>89</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="K35" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>80</v>
@@ -6033,7 +6048,7 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -6048,13 +6063,13 @@
         <v>100</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>291</v>
+        <v>147</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>80</v>
@@ -6065,11 +6080,11 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -6088,13 +6103,13 @@
         <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6145,7 +6160,7 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6160,13 +6175,13 @@
         <v>100</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
@@ -6177,18 +6192,18 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>89</v>
@@ -6200,20 +6215,16 @@
         <v>89</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>205</v>
+        <v>299</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>80</v>
       </c>
@@ -6261,13 +6272,13 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>80</v>
@@ -6276,13 +6287,13 @@
         <v>100</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
@@ -6293,15 +6304,15 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>80</v>
+        <v>306</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>88</v>
@@ -6310,24 +6321,26 @@
         <v>89</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>108</v>
+        <v>209</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>80</v>
       </c>
@@ -6351,11 +6364,13 @@
         <v>80</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="X38" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Y38" t="s" s="2">
-        <v>314</v>
+        <v>80</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>80</v>
@@ -6373,10 +6388,10 @@
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>88</v>
@@ -6388,24 +6403,24 @@
         <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>318</v>
+        <v>80</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>319</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6431,13 +6446,13 @@
         <v>108</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6463,13 +6478,11 @@
         <v>80</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>324</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="X39" s="2"/>
       <c r="Y39" t="s" s="2">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>80</v>
@@ -6487,7 +6500,7 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>88</v>
@@ -6502,24 +6515,24 @@
         <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>131</v>
+        <v>320</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>80</v>
+        <v>323</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6536,26 +6549,24 @@
         <v>89</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>80</v>
       </c>
@@ -6579,11 +6590,13 @@
         <v>80</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="X40" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="Y40" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>80</v>
@@ -6601,13 +6614,13 @@
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>80</v>
@@ -6616,16 +6629,16 @@
         <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>335</v>
+        <v>131</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>80</v>
@@ -6633,7 +6646,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6641,7 +6654,7 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>88</v>
@@ -6656,49 +6669,49 @@
         <v>89</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="X41" s="2"/>
+      <c r="Y41" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="L41" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P41" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="Q41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>342</v>
-      </c>
       <c r="Z41" t="s" s="2">
         <v>80</v>
       </c>
@@ -6715,13 +6728,13 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>80</v>
@@ -6730,24 +6743,24 @@
         <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>343</v>
+        <v>80</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6761,34 +6774,30 @@
         <v>88</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>348</v>
+        <v>108</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P42" t="s" s="2">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="Q42" t="s" s="2">
         <v>80</v>
@@ -6809,13 +6818,13 @@
         <v>80</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>80</v>
+        <v>345</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>80</v>
+        <v>346</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>80</v>
@@ -6833,7 +6842,7 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6848,24 +6857,24 @@
         <v>100</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>80</v>
+        <v>348</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6879,31 +6888,35 @@
         <v>88</v>
       </c>
       <c r="G43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H43" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H43" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="I43" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P43" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="K43" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
         <v>80</v>
       </c>
@@ -6923,13 +6936,13 @@
         <v>80</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>361</v>
+        <v>80</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>362</v>
+        <v>80</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>80</v>
@@ -6947,7 +6960,7 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6956,19 +6969,19 @@
         <v>88</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>80</v>
+        <v>358</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>363</v>
+        <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>80</v>
@@ -6979,7 +6992,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6990,7 +7003,7 @@
         <v>78</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>89</v>
@@ -7002,16 +7015,16 @@
         <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7040,10 +7053,10 @@
         <v>167</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>80</v>
@@ -7061,13 +7074,13 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>146</v>
@@ -7079,10 +7092,10 @@
         <v>80</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>80</v>
@@ -7091,9 +7104,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7104,30 +7117,30 @@
         <v>78</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="K45" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" t="s" s="2">
-        <v>375</v>
-      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7151,13 +7164,13 @@
         <v>80</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>80</v>
+        <v>373</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>80</v>
+        <v>374</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>80</v>
@@ -7175,16 +7188,16 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>100</v>
@@ -7193,10 +7206,10 @@
         <v>80</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
@@ -7205,9 +7218,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7215,13 +7228,13 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>80</v>
@@ -7230,16 +7243,18 @@
         <v>89</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="K46" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>80</v>
       </c>
@@ -7287,10 +7302,10 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>88</v>
@@ -7302,38 +7317,38 @@
         <v>100</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="47" hidden="true">
-      <c r="A47" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>388</v>
+        <v>80</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>80</v>
@@ -7342,13 +7357,13 @@
         <v>89</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7399,10 +7414,10 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>88</v>
@@ -7414,38 +7429,38 @@
         <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>80</v>
@@ -7454,13 +7469,13 @@
         <v>89</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7511,7 +7526,7 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7526,38 +7541,38 @@
         <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>80</v>
+        <v>402</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>80</v>
@@ -7566,13 +7581,13 @@
         <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7599,13 +7614,13 @@
         <v>80</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>411</v>
+        <v>80</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>412</v>
+        <v>80</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>80</v>
@@ -7623,7 +7638,7 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7638,38 +7653,38 @@
         <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>80</v>
+        <v>406</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>80</v>
+        <v>407</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>80</v>
+        <v>409</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>416</v>
+        <v>80</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>80</v>
@@ -7678,13 +7693,13 @@
         <v>89</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7711,13 +7726,13 @@
         <v>80</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>80</v>
+        <v>415</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>80</v>
+        <v>416</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>80</v>
@@ -7735,7 +7750,7 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7750,28 +7765,28 @@
         <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>420</v>
+        <v>80</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>421</v>
+        <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>423</v>
+        <v>80</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7790,17 +7805,15 @@
         <v>89</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>430</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>80</v>
@@ -7849,7 +7862,7 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7864,35 +7877,35 @@
         <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>89</v>
@@ -7904,16 +7917,16 @@
         <v>89</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>164</v>
+        <v>431</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7939,13 +7952,13 @@
         <v>80</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>441</v>
+        <v>80</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>442</v>
+        <v>80</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>80</v>
@@ -7963,7 +7976,7 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7978,28 +7991,28 @@
         <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>80</v>
+        <v>439</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -8018,16 +8031,16 @@
         <v>89</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>449</v>
+        <v>164</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8053,13 +8066,13 @@
         <v>80</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>80</v>
+        <v>445</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>80</v>
+        <v>446</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>80</v>
@@ -8077,13 +8090,13 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>80</v>
@@ -8092,38 +8105,38 @@
         <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>80</v>
+        <v>452</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>80</v>
@@ -8132,15 +8145,17 @@
         <v>89</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>164</v>
+        <v>453</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>80</v>
@@ -8165,13 +8180,13 @@
         <v>80</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>459</v>
+        <v>80</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>460</v>
+        <v>80</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>80</v>
@@ -8189,7 +8204,7 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8204,16 +8219,16 @@
         <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>80</v>
+        <v>457</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>80</v>
+        <v>458</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>80</v>
@@ -8221,7 +8236,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8244,13 +8259,13 @@
         <v>89</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>463</v>
+        <v>164</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8277,13 +8292,13 @@
         <v>80</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>80</v>
+        <v>463</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>80</v>
+        <v>464</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>80</v>
@@ -8301,7 +8316,7 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8325,13 +8340,13 @@
         <v>465</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
         <v>466</v>
       </c>
@@ -8341,13 +8356,13 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>80</v>
@@ -8356,17 +8371,15 @@
         <v>89</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>164</v>
+        <v>467</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="L56" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="M56" t="s" s="2">
-        <v>469</v>
-      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>80</v>
@@ -8391,13 +8404,13 @@
         <v>80</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>470</v>
+        <v>80</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>471</v>
+        <v>80</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>80</v>
@@ -8430,24 +8443,24 @@
         <v>100</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>472</v>
+        <v>80</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>473</v>
+        <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8455,13 +8468,13 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>80</v>
@@ -8470,16 +8483,16 @@
         <v>89</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>477</v>
+        <v>164</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8505,13 +8518,13 @@
         <v>80</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>80</v>
+        <v>474</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>80</v>
+        <v>475</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>80</v>
@@ -8529,7 +8542,7 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8544,16 +8557,16 @@
         <v>100</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
@@ -8561,7 +8574,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8581,18 +8594,20 @@
         <v>80</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>483</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>484</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>80</v>
@@ -8641,7 +8656,7 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8656,28 +8671,28 @@
         <v>100</v>
       </c>
       <c r="AJ58" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>492</v>
+        <v>80</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8687,7 +8702,7 @@
         <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>80</v>
@@ -8696,17 +8711,15 @@
         <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>496</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>80</v>
@@ -8755,7 +8768,7 @@
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8770,13 +8783,13 @@
         <v>100</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
@@ -8787,11 +8800,11 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>80</v>
+        <v>496</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8807,19 +8820,19 @@
         <v>80</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8869,7 +8882,7 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8884,13 +8897,13 @@
         <v>100</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>80</v>
+        <v>501</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
@@ -8899,23 +8912,23 @@
         <v>80</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>508</v>
+        <v>80</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>80</v>
@@ -8924,20 +8937,18 @@
         <v>89</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>164</v>
+        <v>505</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>512</v>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>80</v>
       </c>
@@ -8961,13 +8972,13 @@
         <v>80</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>513</v>
+        <v>80</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>514</v>
+        <v>80</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>80</v>
@@ -8985,7 +8996,7 @@
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -9003,53 +9014,57 @@
         <v>80</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>516</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>80</v>
+        <v>512</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I62" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J62" t="s" s="2">
-        <v>518</v>
+        <v>164</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>49</v>
+        <v>513</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+        <v>514</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>516</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>80</v>
       </c>
@@ -9073,13 +9088,13 @@
         <v>80</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>80</v>
+        <v>517</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>80</v>
+        <v>518</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>80</v>
@@ -9097,7 +9112,7 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9112,24 +9127,24 @@
         <v>100</v>
       </c>
       <c r="AJ62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>522</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9140,7 +9155,7 @@
         <v>78</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>89</v>
@@ -9149,16 +9164,16 @@
         <v>80</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>90</v>
+        <v>522</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>524</v>
+        <v>49</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9209,13 +9224,13 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>80</v>
@@ -9224,22 +9239,22 @@
         <v>100</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>80</v>
+        <v>524</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="AM63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>80</v>
-      </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
         <v>527</v>
       </c>
@@ -9252,29 +9267,27 @@
         <v>78</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="L64" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>531</v>
-      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>80</v>
@@ -9329,7 +9342,7 @@
         <v>78</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>80</v>
@@ -9338,23 +9351,137 @@
         <v>100</v>
       </c>
       <c r="AJ64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J65" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="AK64" t="s" s="2">
+      <c r="K65" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AK65" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="AL64" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN64" t="s" s="2">
+      <c r="AL65" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN65" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN64">
+  <autoFilter ref="A1:AN65">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9364,7 +9491,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI63">
+  <conditionalFormatting sqref="A2:AI64">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-lab-prescription.xlsx
+++ b/StructureDefinition-be-lab-prescription.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$66</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2404" uniqueCount="542">
   <si>
     <t>Property</t>
   </si>
@@ -635,6 +635,19 @@
   </si>
   <si>
     <t>Intended performers for this request</t>
+  </si>
+  <si>
+    <t>proposalType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-proposal-type}
+</t>
+  </si>
+  <si>
+    <t>BeProposalType</t>
+  </si>
+  <si>
+    <t>Type of proposal</t>
   </si>
   <si>
     <t>urgentCommunication</t>
@@ -2041,7 +2054,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN65"/>
+  <dimension ref="A1:AN66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4478,7 +4491,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>132</v>
       </c>
@@ -4496,7 +4509,7 @@
         <v>88</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>80</v>
@@ -4511,7 +4524,7 @@
         <v>200</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>136</v>
+        <v>201</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4571,7 +4584,7 @@
         <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>140</v>
@@ -4594,43 +4607,41 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="C23" t="s" s="2">
-        <v>202</v>
+        <v>80</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>134</v>
+        <v>203</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>80</v>
       </c>
@@ -4678,7 +4689,7 @@
         <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>207</v>
+        <v>139</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4699,7 +4710,7 @@
         <v>80</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>80</v>
@@ -4710,11 +4721,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>80</v>
+        <v>206</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4724,27 +4735,29 @@
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H24" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H24" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="I24" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L24" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>80</v>
       </c>
@@ -4780,17 +4793,19 @@
         <v>80</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AB24" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AC24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4802,31 +4817,29 @@
         <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>214</v>
+        <v>80</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>215</v>
+        <v>80</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>216</v>
+        <v>131</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>217</v>
+        <v>80</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>218</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
         <v>80</v>
       </c>
@@ -4835,10 +4848,10 @@
         <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>80</v>
@@ -4847,16 +4860,16 @@
         <v>89</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4894,19 +4907,17 @@
         <v>80</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="AB25" s="2"/>
       <c r="AC25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4921,26 +4932,28 @@
         <v>100</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="C26" t="s" s="2">
         <v>80</v>
       </c>
@@ -4958,18 +4971,20 @@
         <v>80</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>90</v>
+        <v>213</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>150</v>
+        <v>224</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>80</v>
@@ -5018,50 +5033,50 @@
         <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>152</v>
+        <v>212</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>153</v>
+        <v>220</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>80</v>
+        <v>221</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>80</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>202</v>
+        <v>80</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>80</v>
@@ -5073,17 +5088,15 @@
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>223</v>
+        <v>150</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>80</v>
@@ -5120,31 +5133,31 @@
         <v>80</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>80</v>
@@ -5164,43 +5177,41 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>80</v>
+        <v>206</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>80</v>
       </c>
@@ -5224,52 +5235,52 @@
         <v>80</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>231</v>
+        <v>80</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>232</v>
+        <v>80</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>233</v>
+        <v>156</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>234</v>
+        <v>153</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>80</v>
@@ -5280,7 +5291,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5297,25 +5308,25 @@
         <v>80</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>80</v>
@@ -5340,13 +5351,13 @@
         <v>80</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>173</v>
+        <v>234</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>80</v>
@@ -5364,7 +5375,7 @@
         <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5382,10 +5393,10 @@
         <v>80</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>243</v>
+        <v>131</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>80</v>
@@ -5396,7 +5407,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5404,7 +5415,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>88</v>
@@ -5419,32 +5430,32 @@
         <v>89</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>102</v>
+        <v>164</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>249</v>
+        <v>80</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>80</v>
@@ -5456,13 +5467,13 @@
         <v>80</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>80</v>
+        <v>244</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>80</v>
+        <v>245</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>80</v>
@@ -5480,7 +5491,7 @@
         <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5498,10 +5509,10 @@
         <v>80</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>80</v>
@@ -5512,7 +5523,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5535,30 +5546,32 @@
         <v>89</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>80</v>
+        <v>253</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>80</v>
@@ -5594,7 +5607,7 @@
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5612,10 +5625,10 @@
         <v>80</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>80</v>
@@ -5626,7 +5639,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5634,7 +5647,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>88</v>
@@ -5649,15 +5662,17 @@
         <v>89</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>263</v>
+        <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>80</v>
@@ -5670,7 +5685,7 @@
         <v>80</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>80</v>
+        <v>262</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>80</v>
@@ -5706,7 +5721,7 @@
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5724,10 +5739,10 @@
         <v>80</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
@@ -5738,7 +5753,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5761,17 +5776,15 @@
         <v>89</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>80</v>
@@ -5820,7 +5833,7 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5838,10 +5851,10 @@
         <v>80</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>80</v>
@@ -5852,7 +5865,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5863,7 +5876,7 @@
         <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>80</v>
@@ -5875,16 +5888,16 @@
         <v>89</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5934,13 +5947,13 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>80</v>
@@ -5949,13 +5962,13 @@
         <v>100</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>282</v>
+        <v>80</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>147</v>
+        <v>279</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>80</v>
@@ -5966,7 +5979,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5989,16 +6002,16 @@
         <v>89</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>102</v>
+        <v>282</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6048,7 +6061,7 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -6063,13 +6076,13 @@
         <v>100</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>147</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>80</v>
@@ -6078,13 +6091,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>290</v>
+        <v>80</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -6094,7 +6107,7 @@
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>80</v>
@@ -6103,15 +6116,17 @@
         <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="K36" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>80</v>
@@ -6160,7 +6175,7 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6175,13 +6190,13 @@
         <v>100</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>295</v>
+        <v>147</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
@@ -6192,11 +6207,11 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6215,13 +6230,13 @@
         <v>89</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6272,7 +6287,7 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6287,13 +6302,13 @@
         <v>100</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
@@ -6304,18 +6319,18 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>89</v>
@@ -6327,20 +6342,16 @@
         <v>89</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>209</v>
+        <v>303</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>80</v>
       </c>
@@ -6388,13 +6399,13 @@
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>80</v>
@@ -6403,13 +6414,13 @@
         <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>80</v>
@@ -6420,15 +6431,15 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>80</v>
+        <v>310</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>88</v>
@@ -6437,24 +6448,26 @@
         <v>89</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>108</v>
+        <v>213</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>80</v>
       </c>
@@ -6478,11 +6491,13 @@
         <v>80</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="X39" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Y39" t="s" s="2">
-        <v>318</v>
+        <v>80</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>80</v>
@@ -6500,10 +6515,10 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>88</v>
@@ -6515,24 +6530,24 @@
         <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>322</v>
+        <v>80</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>323</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6558,13 +6573,13 @@
         <v>108</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6590,13 +6605,11 @@
         <v>80</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="X40" s="2"/>
       <c r="Y40" t="s" s="2">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>80</v>
@@ -6614,7 +6627,7 @@
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>88</v>
@@ -6629,24 +6642,24 @@
         <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>131</v>
+        <v>324</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>80</v>
+        <v>327</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6663,26 +6676,24 @@
         <v>89</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>80</v>
       </c>
@@ -6706,11 +6717,13 @@
         <v>80</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="X41" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="Y41" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>80</v>
@@ -6728,13 +6741,13 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>80</v>
@@ -6743,16 +6756,16 @@
         <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>80</v>
+        <v>334</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>339</v>
+        <v>131</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>80</v>
@@ -6760,7 +6773,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6768,7 +6781,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>88</v>
@@ -6783,49 +6796,49 @@
         <v>89</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="X42" s="2"/>
+      <c r="Y42" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="L42" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P42" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="Q42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>346</v>
-      </c>
       <c r="Z42" t="s" s="2">
         <v>80</v>
       </c>
@@ -6842,13 +6855,13 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>80</v>
@@ -6857,24 +6870,24 @@
         <v>100</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>347</v>
+        <v>80</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6888,34 +6901,30 @@
         <v>88</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>352</v>
+        <v>108</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P43" t="s" s="2">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="Q43" t="s" s="2">
         <v>80</v>
@@ -6936,13 +6945,13 @@
         <v>80</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>80</v>
+        <v>234</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>80</v>
+        <v>349</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>80</v>
@@ -6960,7 +6969,7 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6975,24 +6984,24 @@
         <v>100</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>80</v>
+        <v>352</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>80</v>
+        <v>354</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7006,31 +7015,35 @@
         <v>88</v>
       </c>
       <c r="G44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H44" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H44" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="I44" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P44" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="K44" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
         <v>80</v>
       </c>
@@ -7050,13 +7063,13 @@
         <v>80</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>365</v>
+        <v>80</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>366</v>
+        <v>80</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>80</v>
@@ -7074,7 +7087,7 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7083,19 +7096,19 @@
         <v>88</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>80</v>
+        <v>362</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>367</v>
+        <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>80</v>
@@ -7106,7 +7119,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7117,7 +7130,7 @@
         <v>78</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>89</v>
@@ -7129,16 +7142,16 @@
         <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7167,10 +7180,10 @@
         <v>167</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>80</v>
@@ -7188,13 +7201,13 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>146</v>
@@ -7206,10 +7219,10 @@
         <v>80</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
@@ -7218,9 +7231,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7231,30 +7244,30 @@
         <v>78</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="K46" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" t="s" s="2">
-        <v>379</v>
-      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>80</v>
       </c>
@@ -7278,13 +7291,13 @@
         <v>80</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>80</v>
+        <v>377</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>80</v>
+        <v>378</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>80</v>
@@ -7302,16 +7315,16 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>100</v>
@@ -7320,10 +7333,10 @@
         <v>80</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
@@ -7332,9 +7345,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7342,13 +7355,13 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>80</v>
@@ -7357,16 +7370,18 @@
         <v>89</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="K47" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7414,10 +7429,10 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>88</v>
@@ -7429,38 +7444,38 @@
         <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="48" hidden="true">
-      <c r="A48" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>392</v>
+        <v>80</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>80</v>
@@ -7469,13 +7484,13 @@
         <v>89</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7526,10 +7541,10 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>88</v>
@@ -7541,38 +7556,38 @@
         <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>80</v>
@@ -7581,13 +7596,13 @@
         <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7638,7 +7653,7 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7653,38 +7668,38 @@
         <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>80</v>
+        <v>406</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>80</v>
@@ -7693,13 +7708,13 @@
         <v>89</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7726,13 +7741,13 @@
         <v>80</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>415</v>
+        <v>80</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>416</v>
+        <v>80</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>80</v>
@@ -7750,7 +7765,7 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7765,38 +7780,38 @@
         <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>80</v>
+        <v>410</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>80</v>
+        <v>411</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>80</v>
+        <v>413</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>420</v>
+        <v>80</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>80</v>
@@ -7805,13 +7820,13 @@
         <v>89</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7838,13 +7853,13 @@
         <v>80</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>80</v>
+        <v>419</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>80</v>
+        <v>420</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>80</v>
@@ -7862,7 +7877,7 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7877,28 +7892,28 @@
         <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>424</v>
+        <v>80</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>425</v>
+        <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>427</v>
+        <v>80</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7917,17 +7932,15 @@
         <v>89</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>434</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>80</v>
@@ -7976,7 +7989,7 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7991,35 +8004,35 @@
         <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>439</v>
+        <v>432</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>89</v>
@@ -8031,16 +8044,16 @@
         <v>89</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>164</v>
+        <v>435</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8066,13 +8079,13 @@
         <v>80</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>445</v>
+        <v>80</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>446</v>
+        <v>80</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>80</v>
@@ -8090,7 +8103,7 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8105,28 +8118,28 @@
         <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>80</v>
+        <v>443</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8145,16 +8158,16 @@
         <v>89</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>453</v>
+        <v>164</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8180,13 +8193,13 @@
         <v>80</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>80</v>
+        <v>449</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>80</v>
+        <v>450</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>80</v>
@@ -8204,13 +8217,13 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>80</v>
@@ -8219,38 +8232,38 @@
         <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>80</v>
+        <v>456</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>80</v>
@@ -8259,15 +8272,17 @@
         <v>89</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>164</v>
+        <v>457</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>459</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>460</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>80</v>
@@ -8292,13 +8307,13 @@
         <v>80</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>463</v>
+        <v>80</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>464</v>
+        <v>80</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>80</v>
@@ -8316,7 +8331,7 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8331,16 +8346,16 @@
         <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>80</v>
+        <v>461</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>80</v>
+        <v>462</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>80</v>
@@ -8348,7 +8363,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8371,13 +8386,13 @@
         <v>89</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>467</v>
+        <v>164</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8404,13 +8419,13 @@
         <v>80</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>80</v>
+        <v>467</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>80</v>
+        <v>468</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>80</v>
@@ -8428,7 +8443,7 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8452,13 +8467,13 @@
         <v>469</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
         <v>470</v>
       </c>
@@ -8468,13 +8483,13 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>80</v>
@@ -8483,17 +8498,15 @@
         <v>89</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>164</v>
+        <v>471</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="L57" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="M57" t="s" s="2">
-        <v>473</v>
-      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>80</v>
@@ -8518,13 +8531,13 @@
         <v>80</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>474</v>
+        <v>80</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>475</v>
+        <v>80</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>80</v>
@@ -8557,24 +8570,24 @@
         <v>100</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>476</v>
+        <v>80</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>477</v>
+        <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>479</v>
+        <v>454</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8582,13 +8595,13 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>80</v>
@@ -8597,16 +8610,16 @@
         <v>89</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>481</v>
+        <v>164</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8632,13 +8645,13 @@
         <v>80</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>80</v>
+        <v>478</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>80</v>
+        <v>479</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>80</v>
@@ -8656,7 +8669,7 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8671,16 +8684,16 @@
         <v>100</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>
@@ -8688,7 +8701,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8708,18 +8721,20 @@
         <v>80</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>487</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>488</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>80</v>
@@ -8768,7 +8783,7 @@
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8783,28 +8798,28 @@
         <v>100</v>
       </c>
       <c r="AJ59" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>496</v>
+        <v>80</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8814,7 +8829,7 @@
         <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>80</v>
@@ -8823,17 +8838,15 @@
         <v>80</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>500</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>80</v>
@@ -8882,7 +8895,7 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8897,13 +8910,13 @@
         <v>100</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
@@ -8914,11 +8927,11 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8934,19 +8947,19 @@
         <v>80</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8996,7 +9009,7 @@
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -9011,13 +9024,13 @@
         <v>100</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>80</v>
+        <v>505</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
@@ -9026,23 +9039,23 @@
         <v>80</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>512</v>
+        <v>80</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>80</v>
@@ -9051,20 +9064,18 @@
         <v>89</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>164</v>
+        <v>509</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>516</v>
-      </c>
+        <v>512</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>80</v>
       </c>
@@ -9088,13 +9099,13 @@
         <v>80</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>517</v>
+        <v>80</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>518</v>
+        <v>80</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>80</v>
@@ -9112,7 +9123,7 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9130,53 +9141,57 @@
         <v>80</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>520</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>80</v>
+        <v>516</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I63" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J63" t="s" s="2">
-        <v>522</v>
+        <v>164</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>49</v>
+        <v>517</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
+        <v>518</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>520</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>80</v>
       </c>
@@ -9200,13 +9215,13 @@
         <v>80</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>80</v>
+        <v>521</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>80</v>
+        <v>522</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>80</v>
@@ -9224,7 +9239,7 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9239,24 +9254,24 @@
         <v>100</v>
       </c>
       <c r="AJ63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>526</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9267,7 +9282,7 @@
         <v>78</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>89</v>
@@ -9276,16 +9291,16 @@
         <v>80</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>90</v>
+        <v>526</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>528</v>
+        <v>49</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9336,13 +9351,13 @@
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>80</v>
@@ -9351,22 +9366,22 @@
         <v>100</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>80</v>
+        <v>528</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="AL64" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="AM64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>80</v>
-      </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
         <v>531</v>
       </c>
@@ -9379,29 +9394,27 @@
         <v>78</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="K65" t="s" s="2">
+      <c r="L65" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="L65" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>535</v>
-      </c>
+      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>80</v>
@@ -9456,7 +9469,7 @@
         <v>78</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>80</v>
@@ -9465,23 +9478,137 @@
         <v>100</v>
       </c>
       <c r="AJ65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J66" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="AK65" t="s" s="2">
+      <c r="K66" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AK66" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="AL65" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN65" t="s" s="2">
+      <c r="AL66" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN66" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN65">
+  <autoFilter ref="A1:AN66">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9491,7 +9618,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI64">
+  <conditionalFormatting sqref="A2:AI65">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-lab-prescription.xlsx
+++ b/StructureDefinition-be-lab-prescription.xlsx
@@ -1020,7 +1020,7 @@
     <t>The status of the order.</t>
   </si>
   <si>
-    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
+    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](http://hl7.org/fhir/R4/event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
   </si>
   <si>
     <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-vs-prescription-status</t>
@@ -1519,7 +1519,7 @@
     <t>An explanation or justification for why this service is being requested in coded or textual form.   This is often for billing purposes.  May relate to the resources referred to in `supportingInfo`.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>Diagnosis or problem codes justifying the reason for requesting the service investigation.</t>
@@ -1553,7 +1553,7 @@
     <t>Indicates another resource that provides a justification for why this service is being requested.   May relate to the resources referred to in `supportingInfo`.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>Request.reasonReference</t>

--- a/StructureDefinition-be-lab-prescription.xlsx
+++ b/StructureDefinition-be-lab-prescription.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$67</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2404" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2441" uniqueCount="546">
   <si>
     <t>Property</t>
   </si>
@@ -650,6 +650,16 @@
     <t>Type of proposal</t>
   </si>
   <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-task-reference}
+</t>
+  </si>
+  <si>
+    <t>BeTaskReference</t>
+  </si>
+  <si>
     <t>urgentCommunication</t>
   </si>
   <si>
@@ -1023,7 +1033,10 @@
     <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](http://hl7.org/fhir/R4/event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-vs-prescription-status</t>
+    <t>The status of a service order.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-status|4.0.1</t>
   </si>
   <si>
     <t>Request.status</t>
@@ -2054,7 +2067,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN66"/>
+  <dimension ref="A1:AN67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4605,7 +4618,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>132</v>
       </c>
@@ -4623,7 +4636,7 @@
         <v>88</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>80</v>
@@ -4638,7 +4651,7 @@
         <v>204</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>136</v>
+        <v>204</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4698,7 +4711,7 @@
         <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>140</v>
@@ -4721,43 +4734,41 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>206</v>
+        <v>80</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>134</v>
+        <v>206</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>207</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>80</v>
       </c>
@@ -4805,7 +4816,7 @@
         <v>80</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>211</v>
+        <v>139</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4826,7 +4837,7 @@
         <v>80</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>80</v>
@@ -4837,11 +4848,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>80</v>
+        <v>209</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4851,27 +4862,29 @@
         <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H25" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H25" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="I25" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="K25" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>80</v>
       </c>
@@ -4907,17 +4920,19 @@
         <v>80</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AB25" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AC25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4929,31 +4944,29 @@
         <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>218</v>
+        <v>80</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>219</v>
+        <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>220</v>
+        <v>131</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>221</v>
+        <v>80</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>222</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
         <v>80</v>
       </c>
@@ -4962,10 +4975,10 @@
         <v>78</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>80</v>
@@ -4974,16 +4987,16 @@
         <v>89</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -5021,19 +5034,17 @@
         <v>80</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="AB26" s="2"/>
       <c r="AC26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -5048,26 +5059,28 @@
         <v>100</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="C27" t="s" s="2">
         <v>80</v>
       </c>
@@ -5085,18 +5098,20 @@
         <v>80</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>90</v>
+        <v>216</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>150</v>
+        <v>227</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>80</v>
@@ -5145,50 +5160,50 @@
         <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>152</v>
+        <v>215</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>80</v>
+        <v>221</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>80</v>
+        <v>222</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>153</v>
+        <v>223</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>80</v>
+        <v>224</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>80</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>206</v>
+        <v>80</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>80</v>
@@ -5200,17 +5215,15 @@
         <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>80</v>
@@ -5247,31 +5260,31 @@
         <v>80</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>80</v>
@@ -5295,26 +5308,26 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>80</v>
+        <v>209</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>230</v>
@@ -5323,11 +5336,9 @@
         <v>231</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>80</v>
       </c>
@@ -5351,52 +5362,52 @@
         <v>80</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>234</v>
+        <v>80</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>235</v>
+        <v>80</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>236</v>
+        <v>80</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>237</v>
+        <v>156</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>238</v>
+        <v>153</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>80</v>
@@ -5407,7 +5418,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5424,25 +5435,25 @@
         <v>80</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>80</v>
@@ -5467,13 +5478,13 @@
         <v>80</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>173</v>
+        <v>237</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>80</v>
@@ -5491,7 +5502,7 @@
         <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5509,10 +5520,10 @@
         <v>80</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>247</v>
+        <v>131</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>80</v>
@@ -5523,7 +5534,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5531,7 +5542,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>88</v>
@@ -5546,32 +5557,32 @@
         <v>89</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>102</v>
+        <v>164</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>253</v>
+        <v>80</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>254</v>
+        <v>80</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>80</v>
@@ -5583,13 +5594,13 @@
         <v>80</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>80</v>
+        <v>247</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>80</v>
+        <v>248</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>80</v>
@@ -5607,7 +5618,7 @@
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5625,10 +5636,10 @@
         <v>80</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>80</v>
@@ -5639,7 +5650,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5662,30 +5673,32 @@
         <v>89</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>80</v>
+        <v>256</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>80</v>
@@ -5721,7 +5734,7 @@
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5739,10 +5752,10 @@
         <v>80</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
@@ -5753,7 +5766,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5761,7 +5774,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>88</v>
@@ -5776,15 +5789,17 @@
         <v>89</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>267</v>
+        <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>80</v>
@@ -5797,7 +5812,7 @@
         <v>80</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>80</v>
+        <v>265</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>80</v>
@@ -5833,7 +5848,7 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5851,10 +5866,10 @@
         <v>80</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>80</v>
@@ -5865,7 +5880,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5888,17 +5903,15 @@
         <v>89</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>80</v>
@@ -5947,7 +5960,7 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5965,10 +5978,10 @@
         <v>80</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>80</v>
@@ -5979,7 +5992,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5990,7 +6003,7 @@
         <v>78</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>80</v>
@@ -6002,16 +6015,16 @@
         <v>89</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6067,7 +6080,7 @@
         <v>78</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>80</v>
@@ -6076,13 +6089,13 @@
         <v>100</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>286</v>
+        <v>80</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>147</v>
+        <v>282</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>80</v>
@@ -6093,7 +6106,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6116,16 +6129,16 @@
         <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>102</v>
+        <v>285</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6175,7 +6188,7 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6190,13 +6203,13 @@
         <v>100</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>147</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
@@ -6205,13 +6218,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>294</v>
+        <v>80</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6221,7 +6234,7 @@
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>80</v>
@@ -6230,15 +6243,17 @@
         <v>89</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>295</v>
+        <v>102</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>80</v>
@@ -6287,7 +6302,7 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6302,13 +6317,13 @@
         <v>100</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>299</v>
+        <v>147</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
@@ -6319,11 +6334,11 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6342,13 +6357,13 @@
         <v>89</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6399,7 +6414,7 @@
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6414,13 +6429,13 @@
         <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>80</v>
@@ -6431,18 +6446,18 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>89</v>
@@ -6454,20 +6469,16 @@
         <v>89</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>80</v>
       </c>
@@ -6515,13 +6526,13 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>80</v>
@@ -6530,13 +6541,13 @@
         <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>80</v>
@@ -6547,15 +6558,15 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>80</v>
+        <v>313</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>88</v>
@@ -6564,24 +6575,26 @@
         <v>89</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>108</v>
+        <v>216</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>80</v>
       </c>
@@ -6605,11 +6618,13 @@
         <v>80</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="X40" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Y40" t="s" s="2">
-        <v>322</v>
+        <v>80</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>80</v>
@@ -6627,10 +6642,10 @@
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>88</v>
@@ -6642,24 +6657,24 @@
         <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>326</v>
+        <v>80</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>327</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6685,13 +6700,13 @@
         <v>108</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6717,13 +6732,13 @@
         <v>80</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>80</v>
@@ -6741,7 +6756,7 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>88</v>
@@ -6756,24 +6771,24 @@
         <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>131</v>
+        <v>328</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>80</v>
+        <v>331</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6790,26 +6805,24 @@
         <v>89</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>80</v>
       </c>
@@ -6833,11 +6846,13 @@
         <v>80</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="X42" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="Y42" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>80</v>
@@ -6855,13 +6870,13 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>80</v>
@@ -6870,16 +6885,16 @@
         <v>100</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>80</v>
+        <v>338</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>343</v>
+        <v>131</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>80</v>
@@ -6887,7 +6902,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6895,7 +6910,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>88</v>
@@ -6910,49 +6925,49 @@
         <v>89</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="X43" s="2"/>
+      <c r="Y43" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P43" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="Q43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>350</v>
-      </c>
       <c r="Z43" t="s" s="2">
         <v>80</v>
       </c>
@@ -6969,13 +6984,13 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>80</v>
@@ -6984,24 +6999,24 @@
         <v>100</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>351</v>
+        <v>80</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7015,34 +7030,30 @@
         <v>88</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>356</v>
+        <v>108</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P44" t="s" s="2">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="Q44" t="s" s="2">
         <v>80</v>
@@ -7063,13 +7074,13 @@
         <v>80</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>80</v>
+        <v>237</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>80</v>
+        <v>353</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>80</v>
+        <v>354</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>80</v>
@@ -7087,7 +7098,7 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7102,24 +7113,24 @@
         <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>80</v>
+        <v>356</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>80</v>
+        <v>358</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7133,31 +7144,35 @@
         <v>88</v>
       </c>
       <c r="G45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H45" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H45" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="I45" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P45" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="K45" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7177,13 +7192,13 @@
         <v>80</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>369</v>
+        <v>80</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>370</v>
+        <v>80</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>80</v>
@@ -7201,7 +7216,7 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7210,19 +7225,19 @@
         <v>88</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>80</v>
+        <v>366</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>371</v>
+        <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
@@ -7233,7 +7248,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7244,7 +7259,7 @@
         <v>78</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>89</v>
@@ -7256,16 +7271,16 @@
         <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7294,10 +7309,10 @@
         <v>167</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>80</v>
@@ -7315,13 +7330,13 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>146</v>
@@ -7333,10 +7348,10 @@
         <v>80</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
@@ -7345,9 +7360,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7358,30 +7373,30 @@
         <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="K47" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" t="s" s="2">
-        <v>383</v>
-      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7405,13 +7420,13 @@
         <v>80</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>80</v>
+        <v>381</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>80</v>
+        <v>382</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>80</v>
@@ -7429,16 +7444,16 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>100</v>
@@ -7447,10 +7462,10 @@
         <v>80</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>80</v>
@@ -7459,9 +7474,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7469,13 +7484,13 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>80</v>
@@ -7484,16 +7499,18 @@
         <v>89</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="K48" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>80</v>
       </c>
@@ -7541,10 +7558,10 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>88</v>
@@ -7556,38 +7573,38 @@
         <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="49" hidden="true">
-      <c r="A49" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>396</v>
+        <v>80</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>80</v>
@@ -7596,13 +7613,13 @@
         <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7653,10 +7670,10 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>88</v>
@@ -7668,38 +7685,38 @@
         <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>80</v>
@@ -7708,13 +7725,13 @@
         <v>89</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7765,7 +7782,7 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7780,38 +7797,38 @@
         <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>80</v>
+        <v>410</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>80</v>
@@ -7820,13 +7837,13 @@
         <v>89</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7853,13 +7870,13 @@
         <v>80</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>419</v>
+        <v>80</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>420</v>
+        <v>80</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>80</v>
@@ -7877,7 +7894,7 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7892,38 +7909,38 @@
         <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>80</v>
+        <v>414</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>80</v>
+        <v>415</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>80</v>
+        <v>417</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>424</v>
+        <v>80</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>80</v>
@@ -7932,13 +7949,13 @@
         <v>89</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7965,13 +7982,13 @@
         <v>80</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>80</v>
+        <v>423</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>80</v>
+        <v>424</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>80</v>
@@ -7989,7 +8006,7 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -8004,28 +8021,28 @@
         <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>428</v>
+        <v>80</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>429</v>
+        <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>431</v>
+        <v>80</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -8044,17 +8061,15 @@
         <v>89</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>438</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>80</v>
@@ -8103,7 +8118,7 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8118,35 +8133,35 @@
         <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>443</v>
+        <v>436</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>89</v>
@@ -8158,16 +8173,16 @@
         <v>89</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>164</v>
+        <v>439</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8193,13 +8208,13 @@
         <v>80</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>449</v>
+        <v>80</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>450</v>
+        <v>80</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>80</v>
@@ -8217,7 +8232,7 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8232,28 +8247,28 @@
         <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>80</v>
+        <v>447</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8272,16 +8287,16 @@
         <v>89</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>457</v>
+        <v>164</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8307,13 +8322,13 @@
         <v>80</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>80</v>
+        <v>453</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>80</v>
+        <v>454</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>80</v>
@@ -8331,13 +8346,13 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>80</v>
@@ -8346,38 +8361,38 @@
         <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>80</v>
+        <v>460</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>80</v>
@@ -8386,15 +8401,17 @@
         <v>89</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>164</v>
+        <v>461</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>464</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>80</v>
@@ -8419,13 +8436,13 @@
         <v>80</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>467</v>
+        <v>80</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>468</v>
+        <v>80</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>80</v>
@@ -8443,7 +8460,7 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8458,16 +8475,16 @@
         <v>100</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>80</v>
+        <v>465</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>80</v>
+        <v>466</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
@@ -8475,7 +8492,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8498,13 +8515,13 @@
         <v>89</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>471</v>
+        <v>164</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8531,13 +8548,13 @@
         <v>80</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>80</v>
+        <v>471</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>80</v>
+        <v>472</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>80</v>
@@ -8555,7 +8572,7 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8579,13 +8596,13 @@
         <v>473</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
         <v>474</v>
       </c>
@@ -8595,13 +8612,13 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>80</v>
@@ -8610,17 +8627,15 @@
         <v>89</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>164</v>
+        <v>475</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="L58" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="M58" t="s" s="2">
-        <v>477</v>
-      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>80</v>
@@ -8645,13 +8660,13 @@
         <v>80</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>478</v>
+        <v>80</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>479</v>
+        <v>80</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>80</v>
@@ -8684,24 +8699,24 @@
         <v>100</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>480</v>
+        <v>80</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>481</v>
+        <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>483</v>
+        <v>458</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8709,13 +8724,13 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>80</v>
@@ -8724,16 +8739,16 @@
         <v>89</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>485</v>
+        <v>164</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8759,13 +8774,13 @@
         <v>80</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>80</v>
+        <v>482</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>80</v>
+        <v>483</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>80</v>
@@ -8783,7 +8798,7 @@
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8798,16 +8813,16 @@
         <v>100</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
@@ -8815,7 +8830,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8835,18 +8850,20 @@
         <v>80</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="M60" s="2"/>
+        <v>491</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>492</v>
+      </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>80</v>
@@ -8895,7 +8912,7 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8910,28 +8927,28 @@
         <v>100</v>
       </c>
       <c r="AJ60" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8941,7 +8958,7 @@
         <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>80</v>
@@ -8950,17 +8967,15 @@
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>504</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>80</v>
@@ -9009,7 +9024,7 @@
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -9024,13 +9039,13 @@
         <v>100</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
@@ -9041,11 +9056,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>80</v>
+        <v>504</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9061,19 +9076,19 @@
         <v>80</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9123,7 +9138,7 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9138,13 +9153,13 @@
         <v>100</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>80</v>
+        <v>509</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
@@ -9153,23 +9168,23 @@
         <v>80</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>516</v>
+        <v>80</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>80</v>
@@ -9178,20 +9193,18 @@
         <v>89</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>164</v>
+        <v>513</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>520</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>80</v>
       </c>
@@ -9215,13 +9228,13 @@
         <v>80</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>521</v>
+        <v>80</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>522</v>
+        <v>80</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>80</v>
@@ -9239,7 +9252,7 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9257,53 +9270,57 @@
         <v>80</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>524</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>80</v>
+        <v>520</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I64" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J64" t="s" s="2">
-        <v>526</v>
+        <v>164</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>49</v>
+        <v>521</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
+        <v>522</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>524</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>80</v>
       </c>
@@ -9327,13 +9344,13 @@
         <v>80</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>80</v>
+        <v>525</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>80</v>
+        <v>526</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>80</v>
@@ -9351,7 +9368,7 @@
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9366,24 +9383,24 @@
         <v>100</v>
       </c>
       <c r="AJ64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>530</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9394,7 +9411,7 @@
         <v>78</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>89</v>
@@ -9403,16 +9420,16 @@
         <v>80</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>90</v>
+        <v>530</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>532</v>
+        <v>49</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9463,13 +9480,13 @@
         <v>80</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>80</v>
@@ -9478,22 +9495,22 @@
         <v>100</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>80</v>
+        <v>532</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="AL65" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN65" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="AM65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>80</v>
-      </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
         <v>535</v>
       </c>
@@ -9506,29 +9523,27 @@
         <v>78</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K66" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="K66" t="s" s="2">
+      <c r="L66" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="L66" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>539</v>
-      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>80</v>
@@ -9583,7 +9598,7 @@
         <v>78</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>80</v>
@@ -9592,23 +9607,137 @@
         <v>100</v>
       </c>
       <c r="AJ66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J67" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="AK66" t="s" s="2">
+      <c r="K67" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="AK67" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="AL66" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN66" t="s" s="2">
+      <c r="AL67" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN66">
+  <autoFilter ref="A1:AN67">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9618,7 +9747,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI65">
+  <conditionalFormatting sqref="A2:AI66">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-lab-prescription.xlsx
+++ b/StructureDefinition-be-lab-prescription.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$68</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2441" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2477" uniqueCount="549">
   <si>
     <t>Property</t>
   </si>
@@ -658,6 +658,16 @@
   </si>
   <si>
     <t>BeTaskReference</t>
+  </si>
+  <si>
+    <t>extends</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-extends}
+</t>
+  </si>
+  <si>
+    <t>BeExtends</t>
   </si>
   <si>
     <t>urgentCommunication</t>
@@ -2067,7 +2077,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN67"/>
+  <dimension ref="A1:AN68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4732,7 +4742,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>132</v>
       </c>
@@ -4750,7 +4760,7 @@
         <v>88</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>80</v>
@@ -4765,7 +4775,7 @@
         <v>207</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4825,7 +4835,7 @@
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>140</v>
@@ -4848,43 +4858,41 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>209</v>
+        <v>80</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>210</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>80</v>
       </c>
@@ -4932,7 +4940,7 @@
         <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>214</v>
+        <v>139</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4953,7 +4961,7 @@
         <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>80</v>
@@ -4964,11 +4972,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4978,27 +4986,29 @@
         <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H26" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H26" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="I26" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="K26" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>80</v>
       </c>
@@ -5034,17 +5044,19 @@
         <v>80</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AB26" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AC26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -5056,31 +5068,29 @@
         <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>221</v>
+        <v>80</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>222</v>
+        <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>223</v>
+        <v>131</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>224</v>
+        <v>80</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>225</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>80</v>
       </c>
@@ -5089,10 +5099,10 @@
         <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>80</v>
@@ -5101,16 +5111,16 @@
         <v>89</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5148,19 +5158,17 @@
         <v>80</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="AB27" s="2"/>
       <c r="AC27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5175,26 +5183,28 @@
         <v>100</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="B28" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="C28" t="s" s="2">
         <v>80</v>
       </c>
@@ -5212,18 +5222,20 @@
         <v>80</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>90</v>
+        <v>219</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>80</v>
@@ -5272,50 +5284,50 @@
         <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>152</v>
+        <v>218</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>80</v>
+        <v>224</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>80</v>
+        <v>225</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>153</v>
+        <v>226</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>80</v>
+        <v>227</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>80</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>209</v>
+        <v>80</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>80</v>
@@ -5327,17 +5339,15 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>80</v>
@@ -5374,31 +5384,31 @@
         <v>80</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>80</v>
@@ -5422,26 +5432,26 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>233</v>
@@ -5450,11 +5460,9 @@
         <v>234</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>80</v>
       </c>
@@ -5478,52 +5486,52 @@
         <v>80</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>237</v>
+        <v>80</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>238</v>
+        <v>80</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>240</v>
+        <v>156</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>241</v>
+        <v>153</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>80</v>
@@ -5534,7 +5542,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5551,25 +5559,25 @@
         <v>80</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>80</v>
@@ -5594,13 +5602,13 @@
         <v>80</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>173</v>
+        <v>240</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>80</v>
@@ -5618,7 +5626,7 @@
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5636,10 +5644,10 @@
         <v>80</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>250</v>
+        <v>131</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>80</v>
@@ -5650,7 +5658,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5658,7 +5666,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>88</v>
@@ -5673,32 +5681,32 @@
         <v>89</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>102</v>
+        <v>164</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>257</v>
+        <v>80</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>80</v>
@@ -5710,13 +5718,13 @@
         <v>80</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>80</v>
+        <v>251</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>80</v>
@@ -5734,7 +5742,7 @@
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5752,10 +5760,10 @@
         <v>80</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
@@ -5766,7 +5774,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5789,30 +5797,32 @@
         <v>89</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>80</v>
+        <v>259</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>80</v>
@@ -5848,7 +5858,7 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5866,10 +5876,10 @@
         <v>80</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>80</v>
@@ -5880,7 +5890,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5888,7 +5898,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>88</v>
@@ -5903,15 +5913,17 @@
         <v>89</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>80</v>
@@ -5924,7 +5936,7 @@
         <v>80</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>80</v>
+        <v>268</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>80</v>
@@ -5960,7 +5972,7 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5978,10 +5990,10 @@
         <v>80</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>80</v>
@@ -5992,7 +6004,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6015,17 +6027,15 @@
         <v>89</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>80</v>
@@ -6074,7 +6084,7 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -6092,10 +6102,10 @@
         <v>80</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>80</v>
@@ -6106,7 +6116,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6117,7 +6127,7 @@
         <v>78</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>80</v>
@@ -6129,16 +6139,16 @@
         <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6194,7 +6204,7 @@
         <v>78</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>80</v>
@@ -6203,13 +6213,13 @@
         <v>100</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>289</v>
+        <v>80</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>147</v>
+        <v>285</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
@@ -6220,7 +6230,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6243,16 +6253,16 @@
         <v>89</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>102</v>
+        <v>288</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6302,7 +6312,7 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6317,13 +6327,13 @@
         <v>100</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>147</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
@@ -6332,13 +6342,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>297</v>
+        <v>80</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6348,7 +6358,7 @@
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>80</v>
@@ -6357,15 +6367,17 @@
         <v>89</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>298</v>
+        <v>102</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>80</v>
@@ -6414,7 +6426,7 @@
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6429,13 +6441,13 @@
         <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>302</v>
+        <v>147</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>80</v>
@@ -6446,11 +6458,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6469,13 +6481,13 @@
         <v>89</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6526,7 +6538,7 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6541,13 +6553,13 @@
         <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>80</v>
@@ -6558,18 +6570,18 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>89</v>
@@ -6581,20 +6593,16 @@
         <v>89</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>216</v>
+        <v>309</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>80</v>
       </c>
@@ -6642,13 +6650,13 @@
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>80</v>
@@ -6657,13 +6665,13 @@
         <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>80</v>
@@ -6674,15 +6682,15 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>80</v>
+        <v>316</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>88</v>
@@ -6691,24 +6699,26 @@
         <v>89</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>108</v>
+        <v>219</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>80</v>
       </c>
@@ -6732,13 +6742,13 @@
         <v>80</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>237</v>
+        <v>80</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>325</v>
+        <v>80</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>326</v>
+        <v>80</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>80</v>
@@ -6756,10 +6766,10 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>88</v>
@@ -6771,24 +6781,24 @@
         <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>331</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6814,13 +6824,13 @@
         <v>108</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6846,13 +6856,13 @@
         <v>80</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>80</v>
@@ -6870,7 +6880,7 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>88</v>
@@ -6885,24 +6895,24 @@
         <v>100</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>131</v>
+        <v>331</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>80</v>
+        <v>334</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6919,26 +6929,24 @@
         <v>89</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>80</v>
       </c>
@@ -6962,11 +6970,13 @@
         <v>80</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="X43" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="Y43" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>80</v>
@@ -6984,13 +6994,13 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>80</v>
@@ -6999,16 +7009,16 @@
         <v>100</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>80</v>
+        <v>341</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>347</v>
+        <v>131</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
@@ -7016,7 +7026,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7024,7 +7034,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>88</v>
@@ -7039,22 +7049,24 @@
         <v>89</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P44" t="s" s="2">
-        <v>352</v>
-      </c>
+      <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
         <v>80</v>
       </c>
@@ -7074,13 +7086,11 @@
         <v>80</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="X44" s="2"/>
       <c r="Y44" t="s" s="2">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>80</v>
@@ -7098,13 +7108,13 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>80</v>
@@ -7113,24 +7123,24 @@
         <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>355</v>
+        <v>80</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7144,34 +7154,30 @@
         <v>88</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>360</v>
+        <v>108</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P45" t="s" s="2">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="Q45" t="s" s="2">
         <v>80</v>
@@ -7192,13 +7198,13 @@
         <v>80</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>80</v>
+        <v>356</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>80</v>
+        <v>357</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>80</v>
@@ -7216,7 +7222,7 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7231,24 +7237,24 @@
         <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>80</v>
+        <v>359</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>80</v>
+        <v>361</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7262,31 +7268,35 @@
         <v>88</v>
       </c>
       <c r="G46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H46" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H46" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="I46" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="Q46" t="s" s="2">
         <v>80</v>
       </c>
@@ -7306,13 +7316,13 @@
         <v>80</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>373</v>
+        <v>80</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>374</v>
+        <v>80</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>80</v>
@@ -7330,7 +7340,7 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7339,19 +7349,19 @@
         <v>88</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>80</v>
+        <v>369</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>375</v>
+        <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
@@ -7362,7 +7372,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7373,7 +7383,7 @@
         <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>89</v>
@@ -7385,16 +7395,16 @@
         <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7423,10 +7433,10 @@
         <v>167</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>80</v>
@@ -7444,13 +7454,13 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>146</v>
@@ -7462,10 +7472,10 @@
         <v>80</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>80</v>
@@ -7474,9 +7484,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7487,30 +7497,30 @@
         <v>78</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>80</v>
       </c>
@@ -7534,13 +7544,13 @@
         <v>80</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>80</v>
+        <v>384</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>80</v>
+        <v>385</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>80</v>
@@ -7558,16 +7568,16 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>100</v>
@@ -7576,10 +7586,10 @@
         <v>80</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>80</v>
@@ -7588,9 +7598,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7598,13 +7608,13 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>80</v>
@@ -7613,16 +7623,18 @@
         <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+      <c r="N49" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>80</v>
       </c>
@@ -7670,10 +7682,10 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>88</v>
@@ -7685,38 +7697,38 @@
         <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>394</v>
+        <v>80</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>397</v>
+        <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>398</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>80</v>
@@ -7725,13 +7737,13 @@
         <v>89</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7782,10 +7794,10 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>88</v>
@@ -7797,38 +7809,38 @@
         <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>80</v>
@@ -7837,13 +7849,13 @@
         <v>89</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7894,7 +7906,7 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7909,38 +7921,38 @@
         <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>80</v>
+        <v>413</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>80</v>
@@ -7949,13 +7961,13 @@
         <v>89</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7982,13 +7994,13 @@
         <v>80</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>423</v>
+        <v>80</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>424</v>
+        <v>80</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>80</v>
@@ -8006,7 +8018,7 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -8021,38 +8033,38 @@
         <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>80</v>
+        <v>417</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>80</v>
+        <v>418</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>80</v>
+        <v>420</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>428</v>
+        <v>80</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>80</v>
@@ -8061,13 +8073,13 @@
         <v>89</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8094,13 +8106,13 @@
         <v>80</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>80</v>
+        <v>426</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>80</v>
+        <v>427</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>80</v>
@@ -8118,7 +8130,7 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8133,28 +8145,28 @@
         <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>432</v>
+        <v>80</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>433</v>
+        <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>435</v>
+        <v>80</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8173,17 +8185,15 @@
         <v>89</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>442</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>80</v>
@@ -8232,7 +8242,7 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8247,35 +8257,35 @@
         <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>89</v>
@@ -8287,16 +8297,16 @@
         <v>89</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>164</v>
+        <v>442</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8322,13 +8332,13 @@
         <v>80</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>453</v>
+        <v>80</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>454</v>
+        <v>80</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>80</v>
@@ -8346,7 +8356,7 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8361,28 +8371,28 @@
         <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>80</v>
+        <v>450</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8401,16 +8411,16 @@
         <v>89</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>461</v>
+        <v>164</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8436,13 +8446,13 @@
         <v>80</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>80</v>
+        <v>456</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>80</v>
+        <v>457</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>80</v>
@@ -8460,13 +8470,13 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>80</v>
@@ -8475,38 +8485,38 @@
         <v>100</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>80</v>
+        <v>463</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>80</v>
@@ -8515,15 +8525,17 @@
         <v>89</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>164</v>
+        <v>464</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>466</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>467</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>80</v>
@@ -8548,13 +8560,13 @@
         <v>80</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>471</v>
+        <v>80</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>472</v>
+        <v>80</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>80</v>
@@ -8572,7 +8584,7 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8587,16 +8599,16 @@
         <v>100</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>80</v>
+        <v>468</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>80</v>
+        <v>469</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
@@ -8604,7 +8616,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8627,13 +8639,13 @@
         <v>89</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>475</v>
+        <v>164</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8660,13 +8672,13 @@
         <v>80</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>80</v>
+        <v>474</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>80</v>
+        <v>475</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>80</v>
@@ -8684,7 +8696,7 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8705,18 +8717,18 @@
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8724,13 +8736,13 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>80</v>
@@ -8739,17 +8751,15 @@
         <v>89</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>164</v>
+        <v>478</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="L59" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>481</v>
-      </c>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>80</v>
@@ -8774,13 +8784,13 @@
         <v>80</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>482</v>
+        <v>80</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>483</v>
+        <v>80</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>80</v>
@@ -8798,7 +8808,7 @@
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8813,24 +8823,24 @@
         <v>100</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>484</v>
+        <v>80</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>485</v>
+        <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>487</v>
+        <v>461</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8838,13 +8848,13 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>80</v>
@@ -8853,16 +8863,16 @@
         <v>89</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>489</v>
+        <v>164</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8888,13 +8898,13 @@
         <v>80</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>80</v>
+        <v>485</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>80</v>
+        <v>486</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>80</v>
@@ -8912,7 +8922,7 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8927,16 +8937,16 @@
         <v>100</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>80</v>
@@ -8944,7 +8954,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8964,18 +8974,20 @@
         <v>80</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>494</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>495</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>80</v>
@@ -9024,7 +9036,7 @@
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -9039,28 +9051,28 @@
         <v>100</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>80</v>
+        <v>490</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>504</v>
+        <v>80</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9070,7 +9082,7 @@
         <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>80</v>
@@ -9079,17 +9091,15 @@
         <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>508</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>80</v>
@@ -9138,7 +9148,7 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9153,13 +9163,13 @@
         <v>100</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
@@ -9170,11 +9180,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>80</v>
+        <v>507</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9190,19 +9200,19 @@
         <v>80</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9252,7 +9262,7 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9267,13 +9277,13 @@
         <v>100</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>80</v>
+        <v>512</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
@@ -9282,23 +9292,23 @@
         <v>80</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>520</v>
+        <v>80</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>80</v>
@@ -9307,20 +9317,18 @@
         <v>89</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>164</v>
+        <v>516</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>524</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>80</v>
       </c>
@@ -9344,13 +9352,13 @@
         <v>80</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>525</v>
+        <v>80</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>526</v>
+        <v>80</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>80</v>
@@ -9368,7 +9376,7 @@
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9386,53 +9394,57 @@
         <v>80</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>528</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>80</v>
+        <v>523</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I65" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J65" t="s" s="2">
-        <v>530</v>
+        <v>164</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>49</v>
+        <v>524</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
+        <v>525</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>527</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>80</v>
       </c>
@@ -9456,13 +9468,13 @@
         <v>80</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>80</v>
+        <v>528</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>80</v>
+        <v>529</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>80</v>
@@ -9480,7 +9492,7 @@
         <v>80</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9495,24 +9507,24 @@
         <v>100</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>532</v>
+        <v>80</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>388</v>
+        <v>520</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9523,7 +9535,7 @@
         <v>78</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>89</v>
@@ -9532,16 +9544,16 @@
         <v>80</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>90</v>
+        <v>533</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>536</v>
+        <v>49</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9592,13 +9604,13 @@
         <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>80</v>
@@ -9607,24 +9619,24 @@
         <v>100</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>80</v>
+        <v>535</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="AL66" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" hidden="true">
-      <c r="A67" t="s" s="2">
-        <v>539</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9635,29 +9647,27 @@
         <v>78</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="K67" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>543</v>
-      </c>
+      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>80</v>
@@ -9706,13 +9716,13 @@
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>80</v>
@@ -9721,23 +9731,137 @@
         <v>100</v>
       </c>
       <c r="AJ67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="AK67" t="s" s="2">
+      <c r="L68" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AK68" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="AL67" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN67" t="s" s="2">
+      <c r="AL68" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN68" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN67">
+  <autoFilter ref="A1:AN68">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9747,7 +9871,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI66">
+  <conditionalFormatting sqref="A2:AI67">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-lab-prescription.xlsx
+++ b/StructureDefinition-be-lab-prescription.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$67</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2477" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2441" uniqueCount="546">
   <si>
     <t>Property</t>
   </si>
@@ -658,16 +658,6 @@
   </si>
   <si>
     <t>BeTaskReference</t>
-  </si>
-  <si>
-    <t>extends</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-extends}
-</t>
-  </si>
-  <si>
-    <t>BeExtends</t>
   </si>
   <si>
     <t>urgentCommunication</t>
@@ -2077,7 +2067,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN68"/>
+  <dimension ref="A1:AN67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4742,7 +4732,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
         <v>132</v>
       </c>
@@ -4760,7 +4750,7 @@
         <v>88</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>80</v>
@@ -4775,7 +4765,7 @@
         <v>207</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4835,7 +4825,7 @@
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>140</v>
@@ -4858,41 +4848,43 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="B25" t="s" s="2">
         <v>208</v>
       </c>
+      <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>80</v>
+        <v>209</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>209</v>
+        <v>134</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>210</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>80</v>
       </c>
@@ -4940,7 +4932,7 @@
         <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>139</v>
+        <v>214</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4961,7 +4953,7 @@
         <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>80</v>
@@ -4972,11 +4964,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>212</v>
+        <v>80</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4986,29 +4978,27 @@
         <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="I26" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J26" t="s" s="2">
-        <v>134</v>
+        <v>216</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>80</v>
       </c>
@@ -5044,19 +5034,17 @@
         <v>80</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="AB26" s="2"/>
       <c r="AC26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -5068,29 +5056,31 @@
         <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>80</v>
+        <v>221</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>80</v>
+        <v>222</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>131</v>
+        <v>223</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>80</v>
+        <v>224</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>80</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="C27" t="s" s="2">
         <v>80</v>
       </c>
@@ -5099,10 +5089,10 @@
         <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>80</v>
@@ -5111,16 +5101,16 @@
         <v>89</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="K27" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5158,17 +5148,19 @@
         <v>80</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AB27" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AC27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5183,28 +5175,26 @@
         <v>100</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>228</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
         <v>80</v>
       </c>
@@ -5222,20 +5212,18 @@
         <v>80</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>219</v>
+        <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>80</v>
@@ -5284,50 +5272,50 @@
         <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>218</v>
+        <v>152</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>224</v>
+        <v>80</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>225</v>
+        <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>226</v>
+        <v>153</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>227</v>
+        <v>80</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>228</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>80</v>
+        <v>209</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>80</v>
@@ -5339,15 +5327,17 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>80</v>
@@ -5384,31 +5374,31 @@
         <v>80</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>80</v>
@@ -5432,26 +5422,26 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>212</v>
+        <v>80</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>233</v>
@@ -5460,9 +5450,11 @@
         <v>234</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>80</v>
       </c>
@@ -5486,52 +5478,52 @@
         <v>80</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>80</v>
+        <v>237</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>80</v>
+        <v>238</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>80</v>
+        <v>239</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>156</v>
+        <v>240</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>153</v>
+        <v>241</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>80</v>
@@ -5542,7 +5534,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5559,25 +5551,25 @@
         <v>80</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>80</v>
@@ -5602,13 +5594,13 @@
         <v>80</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>240</v>
+        <v>173</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>80</v>
@@ -5626,7 +5618,7 @@
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5644,10 +5636,10 @@
         <v>80</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>131</v>
+        <v>250</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>80</v>
@@ -5658,7 +5650,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5666,7 +5658,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>88</v>
@@ -5681,32 +5673,32 @@
         <v>89</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>164</v>
+        <v>102</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>80</v>
+        <v>256</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>80</v>
+        <v>257</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>80</v>
@@ -5718,13 +5710,13 @@
         <v>80</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>251</v>
+        <v>80</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>80</v>
@@ -5742,7 +5734,7 @@
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5760,10 +5752,10 @@
         <v>80</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
@@ -5774,7 +5766,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5797,32 +5789,30 @@
         <v>89</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>259</v>
+        <v>80</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>80</v>
@@ -5858,7 +5848,7 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5876,10 +5866,10 @@
         <v>80</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>80</v>
@@ -5890,7 +5880,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5898,7 +5888,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>88</v>
@@ -5913,17 +5903,15 @@
         <v>89</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>80</v>
@@ -5936,7 +5924,7 @@
         <v>80</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>268</v>
+        <v>80</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>80</v>
@@ -5972,7 +5960,7 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5990,10 +5978,10 @@
         <v>80</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>80</v>
@@ -6004,7 +5992,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6027,15 +6015,17 @@
         <v>89</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>80</v>
@@ -6084,7 +6074,7 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -6102,10 +6092,10 @@
         <v>80</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>80</v>
@@ -6116,7 +6106,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6127,7 +6117,7 @@
         <v>78</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>80</v>
@@ -6139,16 +6129,16 @@
         <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6204,7 +6194,7 @@
         <v>78</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>80</v>
@@ -6213,13 +6203,13 @@
         <v>100</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>80</v>
+        <v>289</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>285</v>
+        <v>147</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
@@ -6230,7 +6220,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6253,16 +6243,16 @@
         <v>89</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>288</v>
+        <v>102</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6312,7 +6302,7 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6327,13 +6317,13 @@
         <v>100</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>147</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
@@ -6342,13 +6332,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>80</v>
+        <v>297</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6358,7 +6348,7 @@
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>80</v>
@@ -6367,17 +6357,15 @@
         <v>89</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>102</v>
+        <v>298</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>80</v>
@@ -6426,7 +6414,7 @@
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6441,13 +6429,13 @@
         <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>147</v>
+        <v>302</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>80</v>
@@ -6458,11 +6446,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6481,13 +6469,13 @@
         <v>89</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6538,7 +6526,7 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6553,13 +6541,13 @@
         <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>80</v>
@@ -6570,18 +6558,18 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>89</v>
@@ -6593,16 +6581,20 @@
         <v>89</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>309</v>
+        <v>216</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>80</v>
       </c>
@@ -6650,13 +6642,13 @@
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>80</v>
@@ -6665,13 +6657,13 @@
         <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>80</v>
@@ -6682,15 +6674,15 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>316</v>
+        <v>80</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>88</v>
@@ -6699,26 +6691,24 @@
         <v>89</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>219</v>
+        <v>108</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>80</v>
       </c>
@@ -6742,13 +6732,13 @@
         <v>80</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>80</v>
+        <v>237</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>80</v>
+        <v>325</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>80</v>
+        <v>326</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>80</v>
@@ -6766,10 +6756,10 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>88</v>
@@ -6781,24 +6771,24 @@
         <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>80</v>
+        <v>331</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6824,13 +6814,13 @@
         <v>108</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6856,13 +6846,13 @@
         <v>80</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>80</v>
@@ -6880,7 +6870,7 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>88</v>
@@ -6895,24 +6885,24 @@
         <v>100</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>331</v>
+        <v>131</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>334</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6929,24 +6919,26 @@
         <v>89</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>80</v>
       </c>
@@ -6970,13 +6962,11 @@
         <v>80</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="X43" s="2"/>
       <c r="Y43" t="s" s="2">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>80</v>
@@ -6994,13 +6984,13 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>80</v>
@@ -7009,16 +6999,16 @@
         <v>100</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>341</v>
+        <v>80</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>131</v>
+        <v>347</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
@@ -7026,7 +7016,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7034,7 +7024,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>88</v>
@@ -7049,24 +7039,22 @@
         <v>89</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P44" s="2"/>
+      <c r="P44" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="Q44" t="s" s="2">
         <v>80</v>
       </c>
@@ -7086,35 +7074,37 @@
         <v>80</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="X44" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="Y44" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE44" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="Z44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>344</v>
-      </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>80</v>
@@ -7123,24 +7113,24 @@
         <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>80</v>
+        <v>355</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7154,30 +7144,34 @@
         <v>88</v>
       </c>
       <c r="G45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H45" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>108</v>
+        <v>360</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P45" t="s" s="2">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="Q45" t="s" s="2">
         <v>80</v>
@@ -7198,13 +7192,13 @@
         <v>80</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>356</v>
+        <v>80</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>357</v>
+        <v>80</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>80</v>
@@ -7222,7 +7216,7 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7237,24 +7231,24 @@
         <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>359</v>
+        <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>361</v>
+        <v>80</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7268,79 +7262,75 @@
         <v>88</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P46" t="s" s="2">
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE46" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="Q46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7349,19 +7339,19 @@
         <v>88</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>369</v>
+        <v>80</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>80</v>
+        <v>375</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
@@ -7372,7 +7362,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7383,7 +7373,7 @@
         <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>89</v>
@@ -7395,16 +7385,16 @@
         <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7433,34 +7423,34 @@
         <v>167</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="Y47" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE47" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="Z47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>371</v>
-      </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>146</v>
@@ -7472,10 +7462,10 @@
         <v>80</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>80</v>
@@ -7484,9 +7474,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7497,30 +7487,30 @@
         <v>78</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I48" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J48" t="s" s="2">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>80</v>
       </c>
@@ -7544,13 +7534,13 @@
         <v>80</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>384</v>
+        <v>80</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>385</v>
+        <v>80</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>80</v>
@@ -7568,16 +7558,16 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>100</v>
@@ -7586,10 +7576,10 @@
         <v>80</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>80</v>
@@ -7598,9 +7588,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7608,13 +7598,13 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>80</v>
@@ -7623,18 +7613,16 @@
         <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="M49" s="2"/>
-      <c r="N49" t="s" s="2">
-        <v>390</v>
-      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>80</v>
       </c>
@@ -7682,10 +7670,10 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>88</v>
@@ -7697,38 +7685,38 @@
         <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>80</v>
+        <v>394</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>80</v>
+        <v>397</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>80</v>
+        <v>398</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>80</v>
@@ -7737,13 +7725,13 @@
         <v>89</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7794,10 +7782,10 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>88</v>
@@ -7809,38 +7797,38 @@
         <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>401</v>
+        <v>408</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>80</v>
@@ -7849,13 +7837,13 @@
         <v>89</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7906,7 +7894,7 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7921,38 +7909,38 @@
         <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>411</v>
+        <v>418</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>413</v>
+        <v>80</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>80</v>
@@ -7961,13 +7949,13 @@
         <v>89</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7994,13 +7982,13 @@
         <v>80</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>80</v>
+        <v>423</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>80</v>
+        <v>424</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>80</v>
@@ -8018,7 +8006,7 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -8033,38 +8021,38 @@
         <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>417</v>
+        <v>80</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>418</v>
+        <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>420</v>
+        <v>80</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>80</v>
+        <v>428</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>80</v>
@@ -8073,13 +8061,13 @@
         <v>89</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8106,31 +8094,31 @@
         <v>80</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>426</v>
+        <v>80</v>
       </c>
       <c r="Y53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE53" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8145,28 +8133,28 @@
         <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>80</v>
+        <v>432</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>80</v>
+        <v>433</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>80</v>
+        <v>435</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>429</v>
+        <v>436</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8185,15 +8173,17 @@
         <v>89</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>441</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>442</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>80</v>
@@ -8242,7 +8232,7 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8257,35 +8247,35 @@
         <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>89</v>
@@ -8297,16 +8287,16 @@
         <v>89</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>442</v>
+        <v>164</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8332,13 +8322,13 @@
         <v>80</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>80</v>
+        <v>453</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>80</v>
+        <v>454</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>80</v>
@@ -8356,7 +8346,7 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8371,28 +8361,28 @@
         <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>450</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8411,16 +8401,16 @@
         <v>89</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>164</v>
+        <v>461</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8446,13 +8436,13 @@
         <v>80</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>456</v>
+        <v>80</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>457</v>
+        <v>80</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>80</v>
@@ -8470,13 +8460,13 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>80</v>
@@ -8485,38 +8475,38 @@
         <v>100</v>
       </c>
       <c r="AJ56" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="AK56" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>461</v>
-      </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>463</v>
+        <v>80</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>80</v>
@@ -8525,17 +8515,15 @@
         <v>89</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>464</v>
+        <v>164</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>467</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>80</v>
@@ -8560,13 +8548,13 @@
         <v>80</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>80</v>
+        <v>471</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>80</v>
+        <v>472</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>80</v>
@@ -8584,7 +8572,7 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8599,16 +8587,16 @@
         <v>100</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>468</v>
+        <v>80</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>469</v>
+        <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
@@ -8616,7 +8604,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8639,13 +8627,13 @@
         <v>89</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>164</v>
+        <v>475</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8672,31 +8660,31 @@
         <v>80</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE58" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8717,18 +8705,18 @@
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8736,13 +8724,13 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>80</v>
@@ -8751,15 +8739,17 @@
         <v>89</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>478</v>
+        <v>164</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>480</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>481</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>80</v>
@@ -8784,13 +8774,13 @@
         <v>80</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>80</v>
+        <v>482</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>80</v>
+        <v>483</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>80</v>
@@ -8808,7 +8798,7 @@
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8823,24 +8813,24 @@
         <v>100</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>80</v>
+        <v>484</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>80</v>
+        <v>485</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>461</v>
+        <v>487</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8848,13 +8838,13 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>80</v>
@@ -8863,16 +8853,16 @@
         <v>89</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>164</v>
+        <v>489</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8898,13 +8888,13 @@
         <v>80</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>485</v>
+        <v>80</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>486</v>
+        <v>80</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>80</v>
@@ -8922,7 +8912,7 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8937,16 +8927,16 @@
         <v>100</v>
       </c>
       <c r="AJ60" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>80</v>
@@ -8954,7 +8944,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8974,20 +8964,18 @@
         <v>80</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>495</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>80</v>
@@ -9036,7 +9024,7 @@
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -9051,28 +9039,28 @@
         <v>100</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>490</v>
+        <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>80</v>
+        <v>504</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9082,7 +9070,7 @@
         <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>80</v>
@@ -9091,15 +9079,17 @@
         <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>507</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>508</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>80</v>
@@ -9148,7 +9138,7 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9163,13 +9153,13 @@
         <v>100</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
@@ -9180,11 +9170,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>507</v>
+        <v>80</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9200,19 +9190,19 @@
         <v>80</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9262,7 +9252,7 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9277,13 +9267,13 @@
         <v>100</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>512</v>
+        <v>80</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
@@ -9292,23 +9282,23 @@
         <v>80</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>80</v>
+        <v>520</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>80</v>
@@ -9317,18 +9307,20 @@
         <v>89</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>516</v>
+        <v>164</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>523</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>524</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>80</v>
       </c>
@@ -9352,13 +9344,13 @@
         <v>80</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>80</v>
+        <v>525</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>80</v>
+        <v>526</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>80</v>
@@ -9376,7 +9368,7 @@
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9394,57 +9386,53 @@
         <v>80</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>80</v>
+        <v>528</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>523</v>
+        <v>80</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>164</v>
+        <v>530</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>524</v>
+        <v>49</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>527</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>80</v>
       </c>
@@ -9468,31 +9456,31 @@
         <v>80</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>528</v>
+        <v>80</v>
       </c>
       <c r="Y65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE65" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9507,24 +9495,24 @@
         <v>100</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>80</v>
+        <v>532</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>520</v>
+        <v>388</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9535,7 +9523,7 @@
         <v>78</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>89</v>
@@ -9544,16 +9532,16 @@
         <v>80</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>533</v>
+        <v>90</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>49</v>
+        <v>536</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9604,13 +9592,13 @@
         <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>80</v>
@@ -9619,24 +9607,24 @@
         <v>100</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>535</v>
+        <v>80</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>537</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9647,27 +9635,29 @@
         <v>78</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>90</v>
+        <v>540</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="M67" s="2"/>
+        <v>542</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>543</v>
+      </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>80</v>
@@ -9716,13 +9706,13 @@
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>80</v>
@@ -9731,137 +9721,23 @@
         <v>100</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>80</v>
+        <v>544</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>391</v>
+        <v>131</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN68" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN68">
+  <autoFilter ref="A1:AN67">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9871,7 +9747,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI67">
+  <conditionalFormatting sqref="A2:AI66">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-lab-prescription.xlsx
+++ b/StructureDefinition-be-lab-prescription.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2441" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2441" uniqueCount="545">
   <si>
     <t>Property</t>
   </si>
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-lab-prescription</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-lab-prescription</t>
   </si>
   <si>
     <t>Version</t>
@@ -115,7 +115,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-referralprescription</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-referralprescription</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -559,13 +559,13 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-reason-referral-status</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-reason-referral-status</t>
   </si>
   <si>
     <t>informParty</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-inform-party}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-inform-party}
 </t>
   </si>
   <si>
@@ -575,7 +575,7 @@
     <t>coprescriber</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-co-prescriber}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-co-prescriber}
 </t>
   </si>
   <si>
@@ -588,7 +588,7 @@
     <t>validity</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-validity-period}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-validity-period}
 </t>
   </si>
   <si>
@@ -601,7 +601,7 @@
     <t>executed</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-execution-period}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-execution-period}
 </t>
   </si>
   <si>
@@ -614,7 +614,7 @@
     <t>latest</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-lastest-end-date}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-lastest-end-date}
 </t>
   </si>
   <si>
@@ -627,7 +627,7 @@
     <t>performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-intended-performer}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-intended-performer}
 </t>
   </si>
   <si>
@@ -640,7 +640,7 @@
     <t>proposalType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-proposal-type}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-proposal-type}
 </t>
   </si>
   <si>
@@ -653,7 +653,7 @@
     <t>task</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-task-reference}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-task-reference}
 </t>
   </si>
   <si>
@@ -663,7 +663,7 @@
     <t>urgentCommunication</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-urgent-communication}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-urgent-communication}
 </t>
   </si>
   <si>
@@ -818,7 +818,7 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/NamingSystem/uhmep</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/NamingSystem/uhmep</t>
   </si>
   <si>
     <t>http://www.acme.com/identifiers/patient</t>
@@ -1030,7 +1030,7 @@
     <t>The status of the order.</t>
   </si>
   <si>
-    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](http://hl7.org/fhir/R4/event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
+    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
   </si>
   <si>
     <t>The status of a service order.</t>
@@ -1096,7 +1096,7 @@
     <t>Used for filtering what service request are retrieved and displayed.</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-referral-category</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-referral-category</t>
   </si>
   <si>
     <t>RF1-5</t>
@@ -1166,14 +1166,14 @@
     <t>ServiceRequest.code</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-observationcodeableconcept}
+    <t xml:space="preserve">CodeableConcept {https://www.ehealth.fgov.be/standards/fhir/core-clinical/StructureDefinition/be-observationcodeableconcept}
 </t>
   </si>
   <si>
     <t>High level code to describe the tests - if needed to detail within orderDetail - consult comment for more detail.</t>
   </si>
   <si>
-    <t>A code that identifies a particular service (i.e., procedure, diagnostic investigation, or panel of investigations) that have been requested.</t>
+    <t>A concept that may be defined by a formal reference to a terminology or ontology or may be provided by text.</t>
   </si>
   <si>
     <t>Many laboratory and radiology procedure codes embed the specimen/organ system in the test order name, for example,  serum or serum/plasma glucose, or a chest x-ray. The specimen might not be recorded separately from the test code.
@@ -1204,9 +1204,6 @@
     <t>Additional order information - consult comment for more information</t>
   </si>
   <si>
-    <t>A concept that may be defined by a formal reference to a terminology or ontology or may be provided by text.</t>
-  </si>
-  <si>
     <t>For information from the medical record intended to support the delivery of the requested services, use the `supportingInformation` element.
 The implementer SHALL adhere to the preferred codes to use.
 The recommended codification used is LOINC as per the subset defined by the FPS Health, for the majority of commonly used lab measurements and demands. This subset is available on https://www.vas.ehealth.fgov.be/webretam/retam/home.htm
@@ -1248,7 +1245,7 @@
     <t>ServiceRequest.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Group|Location|Device|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-patient)
+    <t xml:space="preserve">Reference(Group|Location|Device|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-patient)
 </t>
   </si>
   <si>
@@ -1401,7 +1398,7 @@
 orderer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(RelatedPerson|Device|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-patient|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-organization|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitioner|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitionerrole)
+    <t xml:space="preserve">Reference(RelatedPerson|Device|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-patient|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-organization|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitioner|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitionerrole)
 </t>
   </si>
   <si>
@@ -1470,7 +1467,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CareTeam|HealthcareService|Device|RelatedPerson|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitioner|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitionerrole|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-patient|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-organization)
+    <t xml:space="preserve">Reference(CareTeam|HealthcareService|Device|RelatedPerson|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitioner|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitionerrole|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-patient|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-organization)
 </t>
   </si>
   <si>
@@ -1532,7 +1529,7 @@
     <t>An explanation or justification for why this service is being requested in coded or textual form.   This is often for billing purposes.  May relate to the resources referred to in `supportingInfo`.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>Diagnosis or problem codes justifying the reason for requesting the service investigation.</t>
@@ -1566,7 +1563,7 @@
     <t>Indicates another resource that provides a justification for why this service is being requested.   May relate to the resources referred to in `supportingInfo`.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>Request.reasonReference</t>
@@ -2100,7 +2097,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="126.34765625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="72.89453125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="83.01171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
@@ -7391,10 +7388,10 @@
         <v>378</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7423,10 +7420,10 @@
         <v>167</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="Y47" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>80</v>
@@ -7476,7 +7473,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7499,17 +7496,17 @@
         <v>89</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>80</v>
@@ -7558,7 +7555,7 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7576,10 +7573,10 @@
         <v>80</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>80</v>
@@ -7590,7 +7587,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7613,13 +7610,13 @@
         <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7670,7 +7667,7 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>88</v>
@@ -7685,28 +7682,28 @@
         <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AK49" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="AK49" t="s" s="2">
+      <c r="AL49" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>398</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7725,13 +7722,13 @@
         <v>89</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7782,7 +7779,7 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7797,28 +7794,28 @@
         <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="AK50" t="s" s="2">
+      <c r="AL50" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="AM50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>408</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7837,13 +7834,13 @@
         <v>89</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7894,7 +7891,7 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7909,24 +7906,24 @@
         <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AK51" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="AK51" t="s" s="2">
+      <c r="AL51" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AM51" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>418</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7949,13 +7946,13 @@
         <v>89</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7985,11 +7982,11 @@
         <v>167</v>
       </c>
       <c r="X52" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="Y52" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="Y52" t="s" s="2">
-        <v>424</v>
-      </c>
       <c r="Z52" t="s" s="2">
         <v>80</v>
       </c>
@@ -8006,7 +8003,7 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -8027,22 +8024,22 @@
         <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>426</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -8061,13 +8058,13 @@
         <v>89</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8118,7 +8115,7 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8133,28 +8130,28 @@
         <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AK53" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="AK53" t="s" s="2">
+      <c r="AL53" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AM53" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="AM53" t="s" s="2">
+      <c r="AN53" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>436</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8173,16 +8170,16 @@
         <v>89</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8232,7 +8229,7 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8247,28 +8244,28 @@
         <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AK54" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="AK54" t="s" s="2">
+      <c r="AL54" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AM54" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AN54" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>447</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8290,13 +8287,13 @@
         <v>164</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8325,11 +8322,11 @@
         <v>167</v>
       </c>
       <c r="X55" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="Y55" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="Y55" t="s" s="2">
-        <v>454</v>
-      </c>
       <c r="Z55" t="s" s="2">
         <v>80</v>
       </c>
@@ -8346,7 +8343,7 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8361,16 +8358,16 @@
         <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AK55" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="AK55" t="s" s="2">
+      <c r="AL55" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="AL55" t="s" s="2">
+      <c r="AM55" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>80</v>
@@ -8378,11 +8375,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8401,16 +8398,16 @@
         <v>89</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8460,7 +8457,7 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8475,16 +8472,16 @@
         <v>100</v>
       </c>
       <c r="AJ56" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AK56" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="AK56" t="s" s="2">
+      <c r="AL56" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="AL56" t="s" s="2">
-        <v>467</v>
-      </c>
       <c r="AM56" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
@@ -8492,7 +8489,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8518,10 +8515,10 @@
         <v>164</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8551,11 +8548,11 @@
         <v>167</v>
       </c>
       <c r="X57" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="Y57" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="Y57" t="s" s="2">
-        <v>472</v>
-      </c>
       <c r="Z57" t="s" s="2">
         <v>80</v>
       </c>
@@ -8572,7 +8569,7 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8593,10 +8590,10 @@
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
@@ -8604,7 +8601,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8627,13 +8624,13 @@
         <v>89</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8684,7 +8681,7 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8705,10 +8702,10 @@
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>
@@ -8716,7 +8713,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8742,13 +8739,13 @@
         <v>164</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>481</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8777,11 +8774,11 @@
         <v>167</v>
       </c>
       <c r="X59" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="Y59" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="Y59" t="s" s="2">
-        <v>483</v>
-      </c>
       <c r="Z59" t="s" s="2">
         <v>80</v>
       </c>
@@ -8798,7 +8795,7 @@
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8813,16 +8810,16 @@
         <v>100</v>
       </c>
       <c r="AJ59" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AK59" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="AK59" t="s" s="2">
+      <c r="AL59" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="AL59" t="s" s="2">
+      <c r="AM59" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
@@ -8830,7 +8827,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8853,16 +8850,16 @@
         <v>89</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="K60" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="K60" t="s" s="2">
+      <c r="L60" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8912,7 +8909,7 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8927,16 +8924,16 @@
         <v>100</v>
       </c>
       <c r="AJ60" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AK60" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="AK60" t="s" s="2">
+      <c r="AL60" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="AL60" t="s" s="2">
-        <v>495</v>
-      </c>
       <c r="AM60" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>80</v>
@@ -8944,7 +8941,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8967,13 +8964,13 @@
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9024,7 +9021,7 @@
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -9039,13 +9036,13 @@
         <v>100</v>
       </c>
       <c r="AJ61" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AK61" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="AK61" t="s" s="2">
+      <c r="AL61" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
@@ -9056,11 +9053,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9079,16 +9076,16 @@
         <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>508</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9138,7 +9135,7 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9153,13 +9150,13 @@
         <v>100</v>
       </c>
       <c r="AJ62" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AK62" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="AK62" t="s" s="2">
+      <c r="AL62" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>511</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
@@ -9170,7 +9167,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9193,16 +9190,16 @@
         <v>89</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9252,7 +9249,7 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9270,10 +9267,10 @@
         <v>80</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
@@ -9284,11 +9281,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9310,16 +9307,16 @@
         <v>164</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>524</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>80</v>
@@ -9347,11 +9344,11 @@
         <v>167</v>
       </c>
       <c r="X64" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="Y64" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="Y64" t="s" s="2">
-        <v>526</v>
-      </c>
       <c r="Z64" t="s" s="2">
         <v>80</v>
       </c>
@@ -9368,7 +9365,7 @@
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9386,21 +9383,21 @@
         <v>80</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AL64" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>528</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9423,13 +9420,13 @@
         <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K65" t="s" s="2">
         <v>49</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9480,7 +9477,7 @@
         <v>80</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9495,24 +9492,24 @@
         <v>100</v>
       </c>
       <c r="AJ65" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AL65" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="AK65" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AL65" t="s" s="2">
+      <c r="AM65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN65" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>534</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9538,10 +9535,10 @@
         <v>90</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9592,7 +9589,7 @@
         <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9610,10 +9607,10 @@
         <v>80</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
@@ -9624,7 +9621,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9647,16 +9644,16 @@
         <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="K67" t="s" s="2">
+      <c r="L67" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>542</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>543</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9706,7 +9703,7 @@
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -9721,13 +9718,13 @@
         <v>100</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>131</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>80</v>

--- a/StructureDefinition-be-lab-prescription.xlsx
+++ b/StructureDefinition-be-lab-prescription.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$68</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2441" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2477" uniqueCount="547">
   <si>
     <t>Property</t>
   </si>
@@ -614,7 +614,7 @@
     <t>latest</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-lastest-end-date}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-latest-end-date}
 </t>
   </si>
   <si>
@@ -658,6 +658,13 @@
   </si>
   <si>
     <t>BeTaskReference</t>
+  </si>
+  <si>
+    <t>pps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-pps-info}
+</t>
   </si>
   <si>
     <t>urgentCommunication</t>
@@ -2064,7 +2071,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN67"/>
+  <dimension ref="A1:AN68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4729,7 +4736,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>132</v>
       </c>
@@ -4747,7 +4754,7 @@
         <v>88</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>80</v>
@@ -4759,10 +4766,10 @@
         <v>206</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>136</v>
+        <v>201</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4822,7 +4829,7 @@
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>140</v>
@@ -4845,43 +4852,41 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="B25" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="C25" t="s" s="2">
-        <v>209</v>
+        <v>80</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>134</v>
+        <v>208</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>80</v>
       </c>
@@ -4929,7 +4934,7 @@
         <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>214</v>
+        <v>139</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4950,7 +4955,7 @@
         <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>80</v>
@@ -4961,11 +4966,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>80</v>
+        <v>211</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4975,27 +4980,29 @@
         <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H26" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H26" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="I26" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>216</v>
+        <v>134</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>80</v>
       </c>
@@ -5031,17 +5038,19 @@
         <v>80</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AB26" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AC26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -5053,31 +5062,29 @@
         <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>221</v>
+        <v>80</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>222</v>
+        <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>223</v>
+        <v>131</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>224</v>
+        <v>80</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>225</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>80</v>
       </c>
@@ -5086,10 +5093,10 @@
         <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>80</v>
@@ -5098,16 +5105,16 @@
         <v>89</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5145,19 +5152,17 @@
         <v>80</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="AB27" s="2"/>
       <c r="AC27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5172,26 +5177,28 @@
         <v>100</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="B28" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
         <v>80</v>
       </c>
@@ -5209,18 +5216,20 @@
         <v>80</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>90</v>
+        <v>218</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>150</v>
+        <v>229</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>80</v>
@@ -5269,50 +5278,50 @@
         <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>152</v>
+        <v>217</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>80</v>
+        <v>224</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>153</v>
+        <v>225</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>80</v>
+        <v>226</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>80</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>209</v>
+        <v>80</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>80</v>
@@ -5324,17 +5333,15 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>80</v>
@@ -5371,31 +5378,31 @@
         <v>80</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>80</v>
@@ -5415,43 +5422,41 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>80</v>
+        <v>211</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L30" t="s" s="2">
-        <v>234</v>
-      </c>
       <c r="M30" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>80</v>
       </c>
@@ -5475,52 +5480,52 @@
         <v>80</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>237</v>
+        <v>80</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>238</v>
+        <v>80</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>240</v>
+        <v>156</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>241</v>
+        <v>153</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>80</v>
@@ -5531,7 +5536,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5548,25 +5553,25 @@
         <v>80</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>80</v>
@@ -5591,13 +5596,13 @@
         <v>80</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>173</v>
+        <v>239</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>80</v>
@@ -5615,7 +5620,7 @@
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5633,10 +5638,10 @@
         <v>80</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>250</v>
+        <v>131</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>80</v>
@@ -5647,7 +5652,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5655,7 +5660,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>88</v>
@@ -5670,32 +5675,32 @@
         <v>89</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>102</v>
+        <v>164</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>257</v>
+        <v>80</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>80</v>
@@ -5707,13 +5712,13 @@
         <v>80</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>80</v>
+        <v>249</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>80</v>
@@ -5731,7 +5736,7 @@
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5749,10 +5754,10 @@
         <v>80</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
@@ -5763,7 +5768,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5786,30 +5791,32 @@
         <v>89</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>80</v>
+        <v>258</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>80</v>
@@ -5845,7 +5852,7 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5863,10 +5870,10 @@
         <v>80</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>80</v>
@@ -5877,7 +5884,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5885,7 +5892,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>88</v>
@@ -5900,15 +5907,17 @@
         <v>89</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>80</v>
@@ -5921,7 +5930,7 @@
         <v>80</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>80</v>
+        <v>267</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>80</v>
@@ -5957,7 +5966,7 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5975,10 +5984,10 @@
         <v>80</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>80</v>
@@ -5989,7 +5998,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6012,17 +6021,15 @@
         <v>89</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>80</v>
@@ -6071,7 +6078,7 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -6089,10 +6096,10 @@
         <v>80</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>80</v>
@@ -6103,7 +6110,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6114,7 +6121,7 @@
         <v>78</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>80</v>
@@ -6126,16 +6133,16 @@
         <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6185,13 +6192,13 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>80</v>
@@ -6200,13 +6207,13 @@
         <v>100</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>289</v>
+        <v>80</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>147</v>
+        <v>284</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
@@ -6217,7 +6224,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6240,16 +6247,16 @@
         <v>89</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>102</v>
+        <v>287</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6299,7 +6306,7 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6314,13 +6321,13 @@
         <v>100</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>147</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
@@ -6329,13 +6336,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>297</v>
+        <v>80</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6345,7 +6352,7 @@
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>80</v>
@@ -6354,15 +6361,17 @@
         <v>89</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>298</v>
+        <v>102</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>80</v>
@@ -6411,7 +6420,7 @@
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6426,13 +6435,13 @@
         <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>302</v>
+        <v>147</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>80</v>
@@ -6443,11 +6452,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6466,13 +6475,13 @@
         <v>89</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6523,7 +6532,7 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6538,13 +6547,13 @@
         <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>80</v>
@@ -6555,18 +6564,18 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>89</v>
@@ -6578,20 +6587,16 @@
         <v>89</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>216</v>
+        <v>308</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>80</v>
       </c>
@@ -6639,13 +6644,13 @@
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>80</v>
@@ -6654,13 +6659,13 @@
         <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>80</v>
@@ -6671,15 +6676,15 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>80</v>
+        <v>315</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>88</v>
@@ -6688,24 +6693,26 @@
         <v>89</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>108</v>
+        <v>218</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>80</v>
       </c>
@@ -6729,13 +6736,13 @@
         <v>80</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>237</v>
+        <v>80</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>325</v>
+        <v>80</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>326</v>
+        <v>80</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>80</v>
@@ -6753,10 +6760,10 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>88</v>
@@ -6768,24 +6775,24 @@
         <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>331</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6811,13 +6818,13 @@
         <v>108</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6843,13 +6850,13 @@
         <v>80</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>80</v>
@@ -6867,7 +6874,7 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>88</v>
@@ -6882,24 +6889,24 @@
         <v>100</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>131</v>
+        <v>330</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>80</v>
+        <v>333</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6916,26 +6923,24 @@
         <v>89</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>80</v>
       </c>
@@ -6959,11 +6964,13 @@
         <v>80</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="X43" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="Y43" t="s" s="2">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>80</v>
@@ -6981,13 +6988,13 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>80</v>
@@ -6996,16 +7003,16 @@
         <v>100</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>80</v>
+        <v>340</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>347</v>
+        <v>131</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
@@ -7013,7 +7020,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7021,7 +7028,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>88</v>
@@ -7036,22 +7043,24 @@
         <v>89</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P44" t="s" s="2">
-        <v>352</v>
-      </c>
+      <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
         <v>80</v>
       </c>
@@ -7071,13 +7080,11 @@
         <v>80</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="X44" s="2"/>
       <c r="Y44" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>80</v>
@@ -7095,13 +7102,13 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>80</v>
@@ -7110,24 +7117,24 @@
         <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>355</v>
+        <v>80</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7141,34 +7148,30 @@
         <v>88</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>360</v>
+        <v>108</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P45" t="s" s="2">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="Q45" t="s" s="2">
         <v>80</v>
@@ -7189,13 +7192,13 @@
         <v>80</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>80</v>
+        <v>239</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>80</v>
+        <v>355</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>80</v>
+        <v>356</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>80</v>
@@ -7213,7 +7216,7 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7228,24 +7231,24 @@
         <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>80</v>
+        <v>358</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7259,31 +7262,35 @@
         <v>88</v>
       </c>
       <c r="G46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H46" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H46" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="I46" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="Q46" t="s" s="2">
         <v>80</v>
       </c>
@@ -7303,13 +7310,13 @@
         <v>80</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>373</v>
+        <v>80</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>374</v>
+        <v>80</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>80</v>
@@ -7327,7 +7334,7 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7336,19 +7343,19 @@
         <v>88</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>80</v>
+        <v>368</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>375</v>
+        <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
@@ -7359,7 +7366,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7370,7 +7377,7 @@
         <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>89</v>
@@ -7382,16 +7389,16 @@
         <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7420,10 +7427,10 @@
         <v>167</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>80</v>
@@ -7441,13 +7448,13 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>146</v>
@@ -7459,10 +7466,10 @@
         <v>80</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>80</v>
@@ -7471,9 +7478,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7484,30 +7491,30 @@
         <v>78</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" t="s" s="2">
-        <v>386</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>80</v>
       </c>
@@ -7531,13 +7538,13 @@
         <v>80</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>80</v>
+        <v>382</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>80</v>
+        <v>383</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>80</v>
@@ -7555,16 +7562,16 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>100</v>
@@ -7573,10 +7580,10 @@
         <v>80</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>80</v>
@@ -7585,9 +7592,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7595,13 +7602,13 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>80</v>
@@ -7610,16 +7617,18 @@
         <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+      <c r="N49" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>80</v>
       </c>
@@ -7667,10 +7676,10 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>88</v>
@@ -7682,38 +7691,38 @@
         <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>393</v>
+        <v>80</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>396</v>
+        <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>397</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>399</v>
+        <v>80</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>80</v>
@@ -7722,13 +7731,13 @@
         <v>89</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7779,10 +7788,10 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>88</v>
@@ -7794,38 +7803,38 @@
         <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>407</v>
+        <v>399</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>80</v>
@@ -7834,13 +7843,13 @@
         <v>89</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7891,7 +7900,7 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7906,38 +7915,38 @@
         <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>417</v>
+        <v>409</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>80</v>
+        <v>411</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>80</v>
@@ -7946,13 +7955,13 @@
         <v>89</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7979,13 +7988,13 @@
         <v>80</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>422</v>
+        <v>80</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>423</v>
+        <v>80</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>80</v>
@@ -8003,7 +8012,7 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -8018,38 +8027,38 @@
         <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>80</v>
+        <v>415</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>80</v>
+        <v>416</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>80</v>
+        <v>418</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>427</v>
+        <v>80</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>80</v>
@@ -8058,13 +8067,13 @@
         <v>89</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8091,13 +8100,13 @@
         <v>80</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>80</v>
+        <v>424</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>80</v>
+        <v>425</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>80</v>
@@ -8115,7 +8124,7 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8130,28 +8139,28 @@
         <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>431</v>
+        <v>80</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>432</v>
+        <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>434</v>
+        <v>80</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>435</v>
+        <v>427</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8170,17 +8179,15 @@
         <v>89</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>441</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>80</v>
@@ -8229,7 +8236,7 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8244,35 +8251,35 @@
         <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>446</v>
+        <v>437</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>89</v>
@@ -8284,16 +8291,16 @@
         <v>89</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>164</v>
+        <v>440</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8319,13 +8326,13 @@
         <v>80</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>452</v>
+        <v>80</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>453</v>
+        <v>80</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>80</v>
@@ -8343,7 +8350,7 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8358,28 +8365,28 @@
         <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>80</v>
+        <v>448</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8398,16 +8405,16 @@
         <v>89</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>460</v>
+        <v>164</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8433,13 +8440,13 @@
         <v>80</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>80</v>
+        <v>454</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>80</v>
+        <v>455</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>80</v>
@@ -8457,13 +8464,13 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>80</v>
@@ -8472,38 +8479,38 @@
         <v>100</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>80</v>
+        <v>461</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>80</v>
@@ -8512,15 +8519,17 @@
         <v>89</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>164</v>
+        <v>462</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>464</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>465</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>80</v>
@@ -8545,13 +8554,13 @@
         <v>80</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>470</v>
+        <v>80</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>471</v>
+        <v>80</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>80</v>
@@ -8569,7 +8578,7 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8584,16 +8593,16 @@
         <v>100</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>80</v>
+        <v>466</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>80</v>
+        <v>467</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
@@ -8601,7 +8610,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8624,13 +8633,13 @@
         <v>89</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>474</v>
+        <v>164</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8657,13 +8666,13 @@
         <v>80</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>80</v>
+        <v>472</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>80</v>
+        <v>473</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>80</v>
@@ -8681,7 +8690,7 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8702,18 +8711,18 @@
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8721,13 +8730,13 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>80</v>
@@ -8736,17 +8745,15 @@
         <v>89</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>164</v>
+        <v>476</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>480</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>80</v>
@@ -8771,13 +8778,13 @@
         <v>80</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>481</v>
+        <v>80</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>482</v>
+        <v>80</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>80</v>
@@ -8795,7 +8802,7 @@
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8810,24 +8817,24 @@
         <v>100</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>483</v>
+        <v>80</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>484</v>
+        <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>486</v>
+        <v>459</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8835,13 +8842,13 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>80</v>
@@ -8850,16 +8857,16 @@
         <v>89</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>488</v>
+        <v>164</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8885,13 +8892,13 @@
         <v>80</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>80</v>
+        <v>483</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>80</v>
+        <v>484</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>80</v>
@@ -8909,7 +8916,7 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8924,16 +8931,16 @@
         <v>100</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>80</v>
@@ -8941,7 +8948,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8961,18 +8968,20 @@
         <v>80</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>492</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>493</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>80</v>
@@ -9021,7 +9030,7 @@
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -9036,28 +9045,28 @@
         <v>100</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>80</v>
+        <v>488</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>503</v>
+        <v>80</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9067,7 +9076,7 @@
         <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>80</v>
@@ -9076,17 +9085,15 @@
         <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>507</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>80</v>
@@ -9135,7 +9142,7 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9150,13 +9157,13 @@
         <v>100</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
@@ -9167,11 +9174,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>80</v>
+        <v>505</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9187,19 +9194,19 @@
         <v>80</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9249,7 +9256,7 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9264,13 +9271,13 @@
         <v>100</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>80</v>
+        <v>510</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
@@ -9279,23 +9286,23 @@
         <v>80</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>519</v>
+        <v>80</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>80</v>
@@ -9304,20 +9311,18 @@
         <v>89</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>164</v>
+        <v>514</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>523</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>80</v>
       </c>
@@ -9341,13 +9346,13 @@
         <v>80</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>524</v>
+        <v>80</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>525</v>
+        <v>80</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>80</v>
@@ -9365,7 +9370,7 @@
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9383,53 +9388,57 @@
         <v>80</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>527</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>80</v>
+        <v>521</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I65" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J65" t="s" s="2">
-        <v>529</v>
+        <v>164</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>49</v>
+        <v>522</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
+        <v>523</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>525</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>80</v>
       </c>
@@ -9453,13 +9462,13 @@
         <v>80</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>80</v>
+        <v>526</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>80</v>
+        <v>527</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>80</v>
@@ -9477,7 +9486,7 @@
         <v>80</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9492,24 +9501,24 @@
         <v>100</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>531</v>
+        <v>80</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>387</v>
+        <v>518</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9520,7 +9529,7 @@
         <v>78</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>89</v>
@@ -9529,16 +9538,16 @@
         <v>80</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>90</v>
+        <v>531</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>535</v>
+        <v>49</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9589,13 +9598,13 @@
         <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>80</v>
@@ -9604,24 +9613,24 @@
         <v>100</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>80</v>
+        <v>533</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>80</v>
+        <v>535</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9632,29 +9641,27 @@
         <v>78</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>539</v>
+        <v>90</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>542</v>
-      </c>
+        <v>538</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>80</v>
@@ -9703,13 +9710,13 @@
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>80</v>
@@ -9718,23 +9725,137 @@
         <v>100</v>
       </c>
       <c r="AJ67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="AK67" t="s" s="2">
+      <c r="M68" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AK68" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="AL67" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN67" t="s" s="2">
+      <c r="AL68" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN68" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN67">
+  <autoFilter ref="A1:AN68">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9744,7 +9865,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI66">
+  <conditionalFormatting sqref="A2:AI67">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-lab-prescription.xlsx
+++ b/StructureDefinition-be-lab-prescription.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$67</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2477" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2441" uniqueCount="545">
   <si>
     <t>Property</t>
   </si>
@@ -614,7 +614,7 @@
     <t>latest</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-latest-end-date}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-lastest-end-date}
 </t>
   </si>
   <si>
@@ -658,13 +658,6 @@
   </si>
   <si>
     <t>BeTaskReference</t>
-  </si>
-  <si>
-    <t>pps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-pps-info}
-</t>
   </si>
   <si>
     <t>urgentCommunication</t>
@@ -2071,7 +2064,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN68"/>
+  <dimension ref="A1:AN67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4736,7 +4729,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
         <v>132</v>
       </c>
@@ -4754,7 +4747,7 @@
         <v>88</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>80</v>
@@ -4766,10 +4759,10 @@
         <v>206</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>201</v>
+        <v>136</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4829,7 +4822,7 @@
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>140</v>
@@ -4852,41 +4845,43 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>80</v>
+        <v>209</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>208</v>
+        <v>134</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>80</v>
       </c>
@@ -4934,7 +4929,7 @@
         <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>139</v>
+        <v>214</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4955,7 +4950,7 @@
         <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>80</v>
@@ -4966,11 +4961,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>211</v>
+        <v>80</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4980,29 +4975,27 @@
         <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="I26" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J26" t="s" s="2">
-        <v>134</v>
+        <v>216</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>80</v>
       </c>
@@ -5038,19 +5031,17 @@
         <v>80</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="AB26" s="2"/>
       <c r="AC26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -5062,29 +5053,31 @@
         <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>80</v>
+        <v>221</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>80</v>
+        <v>222</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>131</v>
+        <v>223</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>80</v>
+        <v>224</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>80</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="C27" t="s" s="2">
         <v>80</v>
       </c>
@@ -5093,10 +5086,10 @@
         <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>80</v>
@@ -5105,16 +5098,16 @@
         <v>89</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5152,17 +5145,19 @@
         <v>80</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AB27" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AC27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5177,28 +5172,26 @@
         <v>100</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>227</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="B28" t="s" s="2">
         <v>228</v>
       </c>
+      <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
         <v>80</v>
       </c>
@@ -5216,20 +5209,18 @@
         <v>80</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>218</v>
+        <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>229</v>
+        <v>150</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>80</v>
@@ -5278,50 +5269,50 @@
         <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>217</v>
+        <v>152</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>223</v>
+        <v>80</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>224</v>
+        <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>225</v>
+        <v>153</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>226</v>
+        <v>80</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>227</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>80</v>
+        <v>209</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>80</v>
@@ -5333,15 +5324,17 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>80</v>
@@ -5378,31 +5371,31 @@
         <v>80</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>80</v>
@@ -5422,41 +5415,43 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>211</v>
+        <v>80</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>80</v>
       </c>
@@ -5480,52 +5475,52 @@
         <v>80</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>80</v>
+        <v>237</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>80</v>
+        <v>238</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>80</v>
+        <v>239</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>156</v>
+        <v>240</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>153</v>
+        <v>241</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>80</v>
@@ -5536,7 +5531,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5553,25 +5548,25 @@
         <v>80</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>80</v>
@@ -5596,13 +5591,13 @@
         <v>80</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>239</v>
+        <v>173</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>80</v>
@@ -5620,7 +5615,7 @@
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5638,10 +5633,10 @@
         <v>80</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>131</v>
+        <v>250</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>80</v>
@@ -5652,7 +5647,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5660,7 +5655,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>88</v>
@@ -5675,32 +5670,32 @@
         <v>89</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>164</v>
+        <v>102</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>80</v>
+        <v>256</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>80</v>
+        <v>257</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>80</v>
@@ -5712,13 +5707,13 @@
         <v>80</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>249</v>
+        <v>80</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>80</v>
@@ -5736,7 +5731,7 @@
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5754,10 +5749,10 @@
         <v>80</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
@@ -5768,7 +5763,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5791,32 +5786,30 @@
         <v>89</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>258</v>
+        <v>80</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>80</v>
@@ -5852,7 +5845,7 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5870,10 +5863,10 @@
         <v>80</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>80</v>
@@ -5884,7 +5877,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5892,7 +5885,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>88</v>
@@ -5907,17 +5900,15 @@
         <v>89</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>266</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>80</v>
@@ -5930,7 +5921,7 @@
         <v>80</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>267</v>
+        <v>80</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>80</v>
@@ -5966,7 +5957,7 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5984,10 +5975,10 @@
         <v>80</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>80</v>
@@ -5998,7 +5989,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6021,15 +6012,17 @@
         <v>89</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>80</v>
@@ -6078,7 +6071,7 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -6096,10 +6089,10 @@
         <v>80</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>80</v>
@@ -6110,7 +6103,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6121,7 +6114,7 @@
         <v>78</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>80</v>
@@ -6133,16 +6126,16 @@
         <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6192,13 +6185,13 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>80</v>
@@ -6207,13 +6200,13 @@
         <v>100</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>80</v>
+        <v>289</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>284</v>
+        <v>147</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
@@ -6224,7 +6217,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6247,16 +6240,16 @@
         <v>89</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>287</v>
+        <v>102</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6306,7 +6299,7 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6321,13 +6314,13 @@
         <v>100</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>147</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
@@ -6336,13 +6329,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>80</v>
+        <v>297</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6352,7 +6345,7 @@
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>80</v>
@@ -6361,17 +6354,15 @@
         <v>89</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>102</v>
+        <v>298</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>80</v>
@@ -6420,7 +6411,7 @@
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6435,13 +6426,13 @@
         <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>147</v>
+        <v>302</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>80</v>
@@ -6452,11 +6443,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6475,13 +6466,13 @@
         <v>89</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6532,7 +6523,7 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6547,13 +6538,13 @@
         <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>80</v>
@@ -6564,18 +6555,18 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>89</v>
@@ -6587,16 +6578,20 @@
         <v>89</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>308</v>
+        <v>216</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>80</v>
       </c>
@@ -6644,13 +6639,13 @@
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>80</v>
@@ -6659,13 +6654,13 @@
         <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>80</v>
@@ -6676,15 +6671,15 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>315</v>
+        <v>80</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>88</v>
@@ -6693,26 +6688,24 @@
         <v>89</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>218</v>
+        <v>108</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>80</v>
       </c>
@@ -6736,13 +6729,13 @@
         <v>80</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>80</v>
+        <v>237</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>80</v>
+        <v>325</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>80</v>
+        <v>326</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>80</v>
@@ -6760,10 +6753,10 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>88</v>
@@ -6775,24 +6768,24 @@
         <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>80</v>
+        <v>331</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6818,13 +6811,13 @@
         <v>108</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6850,13 +6843,13 @@
         <v>80</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>80</v>
@@ -6874,7 +6867,7 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>88</v>
@@ -6889,24 +6882,24 @@
         <v>100</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>330</v>
+        <v>131</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>333</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6923,24 +6916,26 @@
         <v>89</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>80</v>
       </c>
@@ -6964,13 +6959,11 @@
         <v>80</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="X43" s="2"/>
       <c r="Y43" t="s" s="2">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>80</v>
@@ -6988,13 +6981,13 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>80</v>
@@ -7003,16 +6996,16 @@
         <v>100</v>
       </c>
       <c r="AJ43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
@@ -7020,7 +7013,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7028,7 +7021,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>88</v>
@@ -7043,24 +7036,22 @@
         <v>89</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P44" s="2"/>
+      <c r="P44" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="Q44" t="s" s="2">
         <v>80</v>
       </c>
@@ -7080,11 +7071,13 @@
         <v>80</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="X44" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="Y44" t="s" s="2">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>80</v>
@@ -7102,13 +7095,13 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>80</v>
@@ -7117,24 +7110,24 @@
         <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>80</v>
+        <v>355</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7148,30 +7141,34 @@
         <v>88</v>
       </c>
       <c r="G45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H45" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>108</v>
+        <v>360</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P45" t="s" s="2">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="Q45" t="s" s="2">
         <v>80</v>
@@ -7192,13 +7189,13 @@
         <v>80</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>355</v>
+        <v>80</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>356</v>
+        <v>80</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>80</v>
@@ -7216,7 +7213,7 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7231,24 +7228,24 @@
         <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>358</v>
+        <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>360</v>
+        <v>80</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7262,35 +7259,31 @@
         <v>88</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P46" t="s" s="2">
-        <v>367</v>
-      </c>
+      <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
         <v>80</v>
       </c>
@@ -7310,13 +7303,13 @@
         <v>80</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>80</v>
+        <v>373</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>80</v>
+        <v>374</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>80</v>
@@ -7334,7 +7327,7 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7343,19 +7336,19 @@
         <v>88</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>368</v>
+        <v>80</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>80</v>
+        <v>375</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
@@ -7366,7 +7359,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7377,7 +7370,7 @@
         <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>89</v>
@@ -7389,16 +7382,16 @@
         <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="K47" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>373</v>
-      </c>
       <c r="M47" t="s" s="2">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7427,10 +7420,10 @@
         <v>167</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>80</v>
@@ -7448,13 +7441,13 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>146</v>
@@ -7466,10 +7459,10 @@
         <v>80</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>80</v>
@@ -7478,9 +7471,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7491,30 +7484,30 @@
         <v>78</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I48" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J48" t="s" s="2">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" t="s" s="2">
+        <v>386</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>80</v>
       </c>
@@ -7538,40 +7531,40 @@
         <v>80</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE48" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="Y48" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>379</v>
-      </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>100</v>
@@ -7580,10 +7573,10 @@
         <v>80</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>80</v>
@@ -7592,9 +7585,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7602,13 +7595,13 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>80</v>
@@ -7617,18 +7610,16 @@
         <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="M49" s="2"/>
-      <c r="N49" t="s" s="2">
-        <v>388</v>
-      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>80</v>
       </c>
@@ -7676,10 +7667,10 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>88</v>
@@ -7691,38 +7682,38 @@
         <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>80</v>
+        <v>393</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>80</v>
+        <v>396</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>80</v>
+        <v>397</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>80</v>
+        <v>399</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>80</v>
@@ -7731,13 +7722,13 @@
         <v>89</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7788,10 +7779,10 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>88</v>
@@ -7803,38 +7794,38 @@
         <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>399</v>
+        <v>407</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>80</v>
@@ -7843,13 +7834,13 @@
         <v>89</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7900,7 +7891,7 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7915,38 +7906,38 @@
         <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>409</v>
+        <v>417</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>411</v>
+        <v>80</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>80</v>
@@ -7955,13 +7946,13 @@
         <v>89</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7988,13 +7979,13 @@
         <v>80</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>80</v>
+        <v>422</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>80</v>
+        <v>423</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>80</v>
@@ -8012,7 +8003,7 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -8027,38 +8018,38 @@
         <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>415</v>
+        <v>80</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>416</v>
+        <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>418</v>
+        <v>80</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>80</v>
+        <v>427</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>80</v>
@@ -8067,13 +8058,13 @@
         <v>89</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8100,13 +8091,13 @@
         <v>80</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>424</v>
+        <v>80</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>425</v>
+        <v>80</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>80</v>
@@ -8124,7 +8115,7 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8139,28 +8130,28 @@
         <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>80</v>
+        <v>431</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>80</v>
+        <v>432</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>80</v>
+        <v>434</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>427</v>
+        <v>435</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8179,15 +8170,17 @@
         <v>89</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>441</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>80</v>
@@ -8236,7 +8229,7 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8251,35 +8244,35 @@
         <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>437</v>
+        <v>446</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>89</v>
@@ -8291,16 +8284,16 @@
         <v>89</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>440</v>
+        <v>164</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8326,13 +8319,13 @@
         <v>80</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>80</v>
+        <v>452</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>80</v>
+        <v>453</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>80</v>
@@ -8350,7 +8343,7 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8365,28 +8358,28 @@
         <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>448</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8405,16 +8398,16 @@
         <v>89</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>164</v>
+        <v>460</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8440,13 +8433,13 @@
         <v>80</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>454</v>
+        <v>80</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>455</v>
+        <v>80</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>80</v>
@@ -8464,13 +8457,13 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>80</v>
@@ -8479,38 +8472,38 @@
         <v>100</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="AL56" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>459</v>
-      </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>461</v>
+        <v>80</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>80</v>
@@ -8519,17 +8512,15 @@
         <v>89</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>462</v>
+        <v>164</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>465</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>80</v>
@@ -8554,13 +8545,13 @@
         <v>80</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>80</v>
+        <v>470</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>80</v>
+        <v>471</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>80</v>
@@ -8578,7 +8569,7 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8593,16 +8584,16 @@
         <v>100</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>466</v>
+        <v>80</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>467</v>
+        <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
@@ -8610,7 +8601,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8633,13 +8624,13 @@
         <v>89</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>164</v>
+        <v>474</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8666,31 +8657,31 @@
         <v>80</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>472</v>
+        <v>80</v>
       </c>
       <c r="Y58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE58" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8711,18 +8702,18 @@
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8730,13 +8721,13 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>80</v>
@@ -8745,15 +8736,17 @@
         <v>89</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>476</v>
+        <v>164</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>479</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>480</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>80</v>
@@ -8778,13 +8771,13 @@
         <v>80</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>80</v>
+        <v>481</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>80</v>
+        <v>482</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>80</v>
@@ -8802,7 +8795,7 @@
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8817,24 +8810,24 @@
         <v>100</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>80</v>
+        <v>483</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>80</v>
+        <v>484</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>459</v>
+        <v>486</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8842,13 +8835,13 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>80</v>
@@ -8857,16 +8850,16 @@
         <v>89</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>164</v>
+        <v>488</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8892,13 +8885,13 @@
         <v>80</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>483</v>
+        <v>80</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>484</v>
+        <v>80</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>80</v>
@@ -8916,7 +8909,7 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8931,16 +8924,16 @@
         <v>100</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>80</v>
@@ -8948,7 +8941,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8968,20 +8961,18 @@
         <v>80</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>493</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>80</v>
@@ -9030,7 +9021,7 @@
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -9045,28 +9036,28 @@
         <v>100</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>488</v>
+        <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>80</v>
+        <v>503</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9076,7 +9067,7 @@
         <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>80</v>
@@ -9085,15 +9076,17 @@
         <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>506</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>507</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>80</v>
@@ -9142,7 +9135,7 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9157,13 +9150,13 @@
         <v>100</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
@@ -9174,11 +9167,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>505</v>
+        <v>80</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9194,19 +9187,19 @@
         <v>80</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9256,7 +9249,7 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9271,13 +9264,13 @@
         <v>100</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>510</v>
+        <v>80</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
@@ -9286,23 +9279,23 @@
         <v>80</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>80</v>
+        <v>519</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>80</v>
@@ -9311,18 +9304,20 @@
         <v>89</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>514</v>
+        <v>164</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>522</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>523</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>80</v>
       </c>
@@ -9346,13 +9341,13 @@
         <v>80</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>80</v>
+        <v>524</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>80</v>
+        <v>525</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>80</v>
@@ -9370,7 +9365,7 @@
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9388,57 +9383,53 @@
         <v>80</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>80</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>521</v>
+        <v>80</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>164</v>
+        <v>529</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>522</v>
+        <v>49</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>525</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>80</v>
       </c>
@@ -9462,13 +9453,13 @@
         <v>80</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>526</v>
+        <v>80</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>527</v>
+        <v>80</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>80</v>
@@ -9486,7 +9477,7 @@
         <v>80</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9501,24 +9492,24 @@
         <v>100</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>80</v>
+        <v>531</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>518</v>
+        <v>387</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>529</v>
+        <v>533</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9529,7 +9520,7 @@
         <v>78</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>89</v>
@@ -9538,16 +9529,16 @@
         <v>80</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>531</v>
+        <v>90</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>49</v>
+        <v>535</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9598,13 +9589,13 @@
         <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>80</v>
@@ -9613,24 +9604,24 @@
         <v>100</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>533</v>
+        <v>80</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>535</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9641,27 +9632,29 @@
         <v>78</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>90</v>
+        <v>539</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="M67" s="2"/>
+        <v>541</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>542</v>
+      </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>80</v>
@@ -9710,13 +9703,13 @@
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>80</v>
@@ -9725,137 +9718,23 @@
         <v>100</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>80</v>
+        <v>543</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>389</v>
+        <v>131</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN68" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN68">
+  <autoFilter ref="A1:AN67">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9865,7 +9744,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI67">
+  <conditionalFormatting sqref="A2:AI66">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-lab-prescription.xlsx
+++ b/StructureDefinition-be-lab-prescription.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$72</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2441" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2622" uniqueCount="568">
   <si>
     <t>Property</t>
   </si>
@@ -1682,6 +1682,77 @@
   </si>
   <si>
     <t>Procedure.targetBodySite</t>
+  </si>
+  <si>
+    <t>ServiceRequest.bodySite.id</t>
+  </si>
+  <si>
+    <t>ServiceRequest.bodySite.extension</t>
+  </si>
+  <si>
+    <t>bodyLaterality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/core-clinical/StructureDefinition/be-ext-laterality}
+</t>
+  </si>
+  <si>
+    <t>BeExtLaterality</t>
+  </si>
+  <si>
+    <t>An explicit statement of laterality of a lesion, or a treatment, etc.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.bodySite.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>ServiceRequest.bodySite.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>ServiceRequest.note</t>
@@ -2064,7 +2135,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN67"/>
+  <dimension ref="A1:AN72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -9395,7 +9466,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
         <v>528</v>
       </c>
@@ -9408,10 +9479,10 @@
         <v>78</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>80</v>
@@ -9420,13 +9491,13 @@
         <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>529</v>
+        <v>90</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>49</v>
+        <v>150</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>530</v>
+        <v>151</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9477,70 +9548,72 @@
         <v>80</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>528</v>
+        <v>152</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>531</v>
+        <v>80</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>387</v>
+        <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>532</v>
+        <v>153</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>533</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>80</v>
+        <v>209</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>535</v>
+        <v>230</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="M66" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>80</v>
@@ -9577,40 +9650,40 @@
         <v>80</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="AC66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>534</v>
+        <v>156</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>387</v>
+        <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>537</v>
+        <v>153</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
@@ -9621,9 +9694,11 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="B67" s="2"/>
+        <v>529</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>530</v>
+      </c>
       <c r="C67" t="s" s="2">
         <v>80</v>
       </c>
@@ -9632,7 +9707,7 @@
         <v>78</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>80</v>
@@ -9644,17 +9719,15 @@
         <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>542</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>80</v>
@@ -9703,7 +9776,7 @@
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>538</v>
+        <v>156</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -9715,26 +9788,596 @@
         <v>80</v>
       </c>
       <c r="AI67" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI68" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ67" t="s" s="2">
+      <c r="AJ68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="AK67" t="s" s="2">
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AK72" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="AL67" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN67" t="s" s="2">
+      <c r="AL72" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN72" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN67">
+  <autoFilter ref="A1:AN72">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9744,7 +10387,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI66">
+  <conditionalFormatting sqref="A2:AI71">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-lab-prescription.xlsx
+++ b/StructureDefinition-be-lab-prescription.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2622" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2622" uniqueCount="569">
   <si>
     <t>Property</t>
   </si>
@@ -562,14 +562,17 @@
     <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-reason-referral-status</t>
   </si>
   <si>
-    <t>informParty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-inform-party}
+    <t>feedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-feedback-to-prescriber}
 </t>
   </si>
   <si>
-    <t>Parties to inform of fulfillment of the prescription, besides the prescriber.</t>
+    <t>Give feedback to the prescriber</t>
+  </si>
+  <si>
+    <t>Optional Extension Element - found in all resources.</t>
   </si>
   <si>
     <t>coprescriber</t>
@@ -3903,7 +3906,7 @@
         <v>78</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>89</v>
@@ -3921,7 +3924,7 @@
         <v>177</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>136</v>
+        <v>178</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3993,7 +3996,7 @@
         <v>80</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>80</v>
@@ -4007,7 +4010,7 @@
         <v>132</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>80</v>
@@ -4029,13 +4032,13 @@
         <v>80</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -4121,7 +4124,7 @@
         <v>132</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>80</v>
@@ -4143,13 +4146,13 @@
         <v>80</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4235,7 +4238,7 @@
         <v>132</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>80</v>
@@ -4257,13 +4260,13 @@
         <v>80</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -4349,7 +4352,7 @@
         <v>132</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>80</v>
@@ -4371,13 +4374,13 @@
         <v>80</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4463,7 +4466,7 @@
         <v>132</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>80</v>
@@ -4485,13 +4488,13 @@
         <v>80</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4577,7 +4580,7 @@
         <v>132</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>80</v>
@@ -4599,13 +4602,13 @@
         <v>80</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4691,7 +4694,7 @@
         <v>132</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>80</v>
@@ -4713,13 +4716,13 @@
         <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4805,7 +4808,7 @@
         <v>132</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>80</v>
@@ -4827,10 +4830,10 @@
         <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>136</v>
@@ -4916,11 +4919,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4942,16 +4945,16 @@
         <v>134</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>80</v>
@@ -5000,7 +5003,7 @@
         <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -5032,7 +5035,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5055,16 +5058,16 @@
         <v>89</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -5102,7 +5105,7 @@
         <v>80</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AB26" s="2"/>
       <c r="AC26" t="s" s="2">
@@ -5112,7 +5115,7 @@
         <v>138</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -5127,27 +5130,27 @@
         <v>100</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>80</v>
@@ -5169,16 +5172,16 @@
         <v>89</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5228,7 +5231,7 @@
         <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5243,24 +5246,24 @@
         <v>100</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5372,11 +5375,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5398,13 +5401,13 @@
         <v>134</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5486,7 +5489,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5512,16 +5515,16 @@
         <v>108</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>80</v>
@@ -5546,13 +5549,13 @@
         <v>80</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>80</v>
@@ -5570,7 +5573,7 @@
         <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5591,7 +5594,7 @@
         <v>131</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>80</v>
@@ -5602,7 +5605,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5628,16 +5631,16 @@
         <v>164</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>80</v>
@@ -5665,10 +5668,10 @@
         <v>173</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>80</v>
@@ -5686,7 +5689,7 @@
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5704,10 +5707,10 @@
         <v>80</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>80</v>
@@ -5718,7 +5721,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5744,29 +5747,29 @@
         <v>102</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>80</v>
@@ -5802,7 +5805,7 @@
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5820,10 +5823,10 @@
         <v>80</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
@@ -5834,7 +5837,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5860,13 +5863,13 @@
         <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5880,7 +5883,7 @@
         <v>80</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>80</v>
@@ -5916,7 +5919,7 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5934,10 +5937,10 @@
         <v>80</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>80</v>
@@ -5948,7 +5951,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5971,13 +5974,13 @@
         <v>89</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -6028,7 +6031,7 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -6046,10 +6049,10 @@
         <v>80</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>80</v>
@@ -6060,7 +6063,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6083,16 +6086,16 @@
         <v>89</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6142,7 +6145,7 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -6160,10 +6163,10 @@
         <v>80</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>80</v>
@@ -6174,7 +6177,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6197,16 +6200,16 @@
         <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6256,7 +6259,7 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6271,13 +6274,13 @@
         <v>100</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>147</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
@@ -6288,7 +6291,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6314,13 +6317,13 @@
         <v>102</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6370,7 +6373,7 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6385,13 +6388,13 @@
         <v>100</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>147</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
@@ -6402,11 +6405,11 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6425,13 +6428,13 @@
         <v>89</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6482,7 +6485,7 @@
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6497,13 +6500,13 @@
         <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>80</v>
@@ -6514,11 +6517,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6537,13 +6540,13 @@
         <v>89</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6594,7 +6597,7 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6609,13 +6612,13 @@
         <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>80</v>
@@ -6626,11 +6629,11 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6649,19 +6652,19 @@
         <v>89</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>80</v>
@@ -6710,7 +6713,7 @@
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6725,13 +6728,13 @@
         <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>80</v>
@@ -6742,7 +6745,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6768,13 +6771,13 @@
         <v>108</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6800,13 +6803,13 @@
         <v>80</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>80</v>
@@ -6824,7 +6827,7 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>88</v>
@@ -6839,24 +6842,24 @@
         <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6882,13 +6885,13 @@
         <v>108</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6914,13 +6917,13 @@
         <v>80</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>80</v>
@@ -6938,7 +6941,7 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>88</v>
@@ -6953,16 +6956,16 @@
         <v>100</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>131</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>80</v>
@@ -6970,7 +6973,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6996,16 +6999,16 @@
         <v>164</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>80</v>
@@ -7034,7 +7037,7 @@
       </c>
       <c r="X43" s="2"/>
       <c r="Y43" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>80</v>
@@ -7052,7 +7055,7 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -7070,13 +7073,13 @@
         <v>80</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
@@ -7084,7 +7087,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7110,10 +7113,10 @@
         <v>108</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -7121,7 +7124,7 @@
         <v>80</v>
       </c>
       <c r="P44" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q44" t="s" s="2">
         <v>80</v>
@@ -7142,13 +7145,13 @@
         <v>80</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>80</v>
@@ -7166,7 +7169,7 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7181,16 +7184,16 @@
         <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
@@ -7198,7 +7201,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7221,70 +7224,70 @@
         <v>89</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P45" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="Q45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE45" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P45" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="Q45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7299,13 +7302,13 @@
         <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
@@ -7316,7 +7319,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7339,16 +7342,16 @@
         <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7377,10 +7380,10 @@
         <v>167</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>80</v>
@@ -7398,7 +7401,7 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7416,10 +7419,10 @@
         <v>80</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
@@ -7430,7 +7433,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7453,16 +7456,16 @@
         <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7491,10 +7494,10 @@
         <v>167</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>80</v>
@@ -7512,7 +7515,7 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7530,10 +7533,10 @@
         <v>80</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>80</v>
@@ -7544,7 +7547,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7567,17 +7570,17 @@
         <v>89</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>80</v>
@@ -7626,7 +7629,7 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7644,10 +7647,10 @@
         <v>80</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>80</v>
@@ -7658,7 +7661,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7681,13 +7684,13 @@
         <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7738,7 +7741,7 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>88</v>
@@ -7753,28 +7756,28 @@
         <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7793,13 +7796,13 @@
         <v>89</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7850,7 +7853,7 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7865,28 +7868,28 @@
         <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7905,13 +7908,13 @@
         <v>89</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7962,7 +7965,7 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7977,24 +7980,24 @@
         <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8017,13 +8020,13 @@
         <v>89</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -8053,10 +8056,10 @@
         <v>167</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>80</v>
@@ -8074,7 +8077,7 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -8095,22 +8098,22 @@
         <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -8129,13 +8132,13 @@
         <v>89</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8186,7 +8189,7 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8201,28 +8204,28 @@
         <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8241,16 +8244,16 @@
         <v>89</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8300,7 +8303,7 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8315,28 +8318,28 @@
         <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8358,13 +8361,13 @@
         <v>164</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8393,10 +8396,10 @@
         <v>167</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>80</v>
@@ -8414,7 +8417,7 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8429,16 +8432,16 @@
         <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>80</v>
@@ -8446,11 +8449,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8469,16 +8472,16 @@
         <v>89</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8528,7 +8531,7 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8543,16 +8546,16 @@
         <v>100</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
@@ -8560,7 +8563,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8586,10 +8589,10 @@
         <v>164</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8619,10 +8622,10 @@
         <v>167</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>80</v>
@@ -8640,7 +8643,7 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8661,10 +8664,10 @@
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
@@ -8672,7 +8675,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8695,13 +8698,13 @@
         <v>89</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8752,7 +8755,7 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8773,10 +8776,10 @@
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>
@@ -8784,7 +8787,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8810,13 +8813,13 @@
         <v>164</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8845,10 +8848,10 @@
         <v>167</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>80</v>
@@ -8866,7 +8869,7 @@
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8881,16 +8884,16 @@
         <v>100</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
@@ -8898,7 +8901,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8921,16 +8924,16 @@
         <v>89</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8980,7 +8983,7 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8995,16 +8998,16 @@
         <v>100</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>80</v>
@@ -9012,7 +9015,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9035,13 +9038,13 @@
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9092,7 +9095,7 @@
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -9107,13 +9110,13 @@
         <v>100</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
@@ -9124,11 +9127,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9147,16 +9150,16 @@
         <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9206,7 +9209,7 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9221,13 +9224,13 @@
         <v>100</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
@@ -9238,7 +9241,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9261,16 +9264,16 @@
         <v>89</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9320,7 +9323,7 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9338,10 +9341,10 @@
         <v>80</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
@@ -9352,11 +9355,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9378,16 +9381,16 @@
         <v>164</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>80</v>
@@ -9415,10 +9418,10 @@
         <v>167</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>80</v>
@@ -9436,7 +9439,7 @@
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9454,21 +9457,21 @@
         <v>80</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9580,11 +9583,11 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9606,13 +9609,13 @@
         <v>134</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9694,10 +9697,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C67" t="s" s="2">
         <v>80</v>
@@ -9719,13 +9722,13 @@
         <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9808,7 +9811,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9831,19 +9834,19 @@
         <v>89</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>80</v>
@@ -9892,7 +9895,7 @@
         <v>80</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -9910,10 +9913,10 @@
         <v>80</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>80</v>
@@ -9924,7 +9927,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9950,16 +9953,16 @@
         <v>90</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>80</v>
@@ -10008,7 +10011,7 @@
         <v>80</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -10026,10 +10029,10 @@
         <v>80</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>80</v>
@@ -10040,7 +10043,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10063,13 +10066,13 @@
         <v>80</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="K70" t="s" s="2">
         <v>49</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10120,7 +10123,7 @@
         <v>80</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10135,24 +10138,24 @@
         <v>100</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10178,10 +10181,10 @@
         <v>90</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10232,7 +10235,7 @@
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10250,10 +10253,10 @@
         <v>80</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>80</v>
@@ -10264,7 +10267,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10287,16 +10290,16 @@
         <v>80</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10346,7 +10349,7 @@
         <v>80</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -10361,13 +10364,13 @@
         <v>100</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>131</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>80</v>

--- a/StructureDefinition-be-lab-prescription.xlsx
+++ b/StructureDefinition-be-lab-prescription.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$73</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2622" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2658" uniqueCount="571">
   <si>
     <t>Property</t>
   </si>
@@ -617,7 +617,7 @@
     <t>latest</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-lastest-end-date}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-latest-end-date}
 </t>
   </si>
   <si>
@@ -661,6 +661,13 @@
   </si>
   <si>
     <t>BeTaskReference</t>
+  </si>
+  <si>
+    <t>pps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-pps-info}
+</t>
   </si>
   <si>
     <t>urgentCommunication</t>
@@ -2138,7 +2145,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN72"/>
+  <dimension ref="A1:AN73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4803,7 +4810,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>132</v>
       </c>
@@ -4821,7 +4828,7 @@
         <v>88</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>80</v>
@@ -4833,10 +4840,10 @@
         <v>207</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>136</v>
+        <v>202</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4896,7 +4903,7 @@
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>140</v>
@@ -4919,43 +4926,41 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="B25" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="C25" t="s" s="2">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>80</v>
       </c>
@@ -5003,7 +5008,7 @@
         <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>215</v>
+        <v>139</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -5024,7 +5029,7 @@
         <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>80</v>
@@ -5035,11 +5040,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -5049,27 +5054,29 @@
         <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H26" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H26" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="I26" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>217</v>
+        <v>134</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>80</v>
       </c>
@@ -5105,17 +5112,19 @@
         <v>80</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AB26" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AC26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -5127,31 +5136,29 @@
         <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>222</v>
+        <v>80</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>223</v>
+        <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>224</v>
+        <v>131</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>225</v>
+        <v>80</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>226</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>80</v>
       </c>
@@ -5160,10 +5167,10 @@
         <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>80</v>
@@ -5172,16 +5179,16 @@
         <v>89</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5219,19 +5226,17 @@
         <v>80</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="AB27" s="2"/>
       <c r="AC27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5246,26 +5251,28 @@
         <v>100</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="B28" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
         <v>80</v>
       </c>
@@ -5283,18 +5290,20 @@
         <v>80</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>90</v>
+        <v>219</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>80</v>
@@ -5343,50 +5352,50 @@
         <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>152</v>
+        <v>218</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>80</v>
+        <v>224</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>80</v>
+        <v>225</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>153</v>
+        <v>226</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>80</v>
+        <v>227</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>80</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>80</v>
@@ -5398,17 +5407,15 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>231</v>
+        <v>150</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>80</v>
@@ -5445,31 +5452,31 @@
         <v>80</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>80</v>
@@ -5489,43 +5496,41 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L30" t="s" s="2">
-        <v>235</v>
-      </c>
       <c r="M30" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>80</v>
       </c>
@@ -5549,52 +5554,52 @@
         <v>80</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>238</v>
+        <v>80</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>241</v>
+        <v>156</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>242</v>
+        <v>153</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>80</v>
@@ -5605,7 +5610,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5622,25 +5627,25 @@
         <v>80</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>80</v>
@@ -5665,13 +5670,13 @@
         <v>80</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>173</v>
+        <v>240</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>80</v>
@@ -5689,7 +5694,7 @@
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5707,10 +5712,10 @@
         <v>80</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>251</v>
+        <v>131</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>80</v>
@@ -5721,7 +5726,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5729,7 +5734,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>88</v>
@@ -5744,32 +5749,32 @@
         <v>89</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>102</v>
+        <v>164</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>257</v>
+        <v>80</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>258</v>
+        <v>80</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>80</v>
@@ -5781,13 +5786,13 @@
         <v>80</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>80</v>
+        <v>251</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>80</v>
@@ -5805,7 +5810,7 @@
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5823,10 +5828,10 @@
         <v>80</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
@@ -5837,7 +5842,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5860,30 +5865,32 @@
         <v>89</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>80</v>
+        <v>259</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>80</v>
@@ -5919,7 +5926,7 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5937,10 +5944,10 @@
         <v>80</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>80</v>
@@ -5951,7 +5958,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5959,7 +5966,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>88</v>
@@ -5974,15 +5981,17 @@
         <v>89</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>271</v>
+        <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>80</v>
@@ -5995,7 +6004,7 @@
         <v>80</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>80</v>
+        <v>268</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>80</v>
@@ -6031,7 +6040,7 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -6049,10 +6058,10 @@
         <v>80</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>80</v>
@@ -6063,7 +6072,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6086,17 +6095,15 @@
         <v>89</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>80</v>
@@ -6145,7 +6152,7 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -6163,10 +6170,10 @@
         <v>80</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>80</v>
@@ -6177,7 +6184,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6188,7 +6195,7 @@
         <v>78</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>80</v>
@@ -6200,16 +6207,16 @@
         <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6259,13 +6266,13 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>80</v>
@@ -6274,13 +6281,13 @@
         <v>100</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>290</v>
+        <v>80</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>147</v>
+        <v>285</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
@@ -6291,7 +6298,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6314,16 +6321,16 @@
         <v>89</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>102</v>
+        <v>288</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6373,7 +6380,7 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6388,13 +6395,13 @@
         <v>100</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>147</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
@@ -6403,13 +6410,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>298</v>
+        <v>80</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6419,7 +6426,7 @@
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>80</v>
@@ -6428,15 +6435,17 @@
         <v>89</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>299</v>
+        <v>102</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>80</v>
@@ -6485,7 +6494,7 @@
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6500,13 +6509,13 @@
         <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>303</v>
+        <v>147</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>80</v>
@@ -6517,11 +6526,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6540,13 +6549,13 @@
         <v>89</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6597,7 +6606,7 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6612,13 +6621,13 @@
         <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>80</v>
@@ -6629,18 +6638,18 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>89</v>
@@ -6652,20 +6661,16 @@
         <v>89</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>217</v>
+        <v>309</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>80</v>
       </c>
@@ -6713,13 +6718,13 @@
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>80</v>
@@ -6728,13 +6733,13 @@
         <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>80</v>
@@ -6745,15 +6750,15 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>80</v>
+        <v>316</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>88</v>
@@ -6762,24 +6767,26 @@
         <v>89</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>108</v>
+        <v>219</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>80</v>
       </c>
@@ -6803,13 +6810,13 @@
         <v>80</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>238</v>
+        <v>80</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>326</v>
+        <v>80</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>327</v>
+        <v>80</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>80</v>
@@ -6827,10 +6834,10 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>88</v>
@@ -6842,24 +6849,24 @@
         <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>331</v>
+        <v>80</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>332</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6885,13 +6892,13 @@
         <v>108</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6917,13 +6924,13 @@
         <v>80</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>80</v>
@@ -6941,7 +6948,7 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>88</v>
@@ -6956,24 +6963,24 @@
         <v>100</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>131</v>
+        <v>331</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>80</v>
+        <v>334</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6990,26 +6997,24 @@
         <v>89</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>80</v>
       </c>
@@ -7033,11 +7038,13 @@
         <v>80</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="X43" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="Y43" t="s" s="2">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>80</v>
@@ -7055,13 +7062,13 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>80</v>
@@ -7070,16 +7077,16 @@
         <v>100</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>80</v>
+        <v>341</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>348</v>
+        <v>131</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
@@ -7087,7 +7094,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7095,7 +7102,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>88</v>
@@ -7110,22 +7117,24 @@
         <v>89</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P44" t="s" s="2">
-        <v>353</v>
-      </c>
+      <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
         <v>80</v>
       </c>
@@ -7145,13 +7154,11 @@
         <v>80</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="X44" s="2"/>
       <c r="Y44" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>80</v>
@@ -7169,13 +7176,13 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>80</v>
@@ -7184,24 +7191,24 @@
         <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>356</v>
+        <v>80</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7215,34 +7222,30 @@
         <v>88</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>361</v>
+        <v>108</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P45" t="s" s="2">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="Q45" t="s" s="2">
         <v>80</v>
@@ -7263,13 +7266,13 @@
         <v>80</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>80</v>
+        <v>356</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>80</v>
+        <v>357</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>80</v>
@@ -7287,7 +7290,7 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7302,24 +7305,24 @@
         <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>80</v>
+        <v>359</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>80</v>
+        <v>361</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7333,31 +7336,35 @@
         <v>88</v>
       </c>
       <c r="G46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H46" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H46" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="I46" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="Q46" t="s" s="2">
         <v>80</v>
       </c>
@@ -7377,13 +7384,13 @@
         <v>80</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>374</v>
+        <v>80</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>375</v>
+        <v>80</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>80</v>
@@ -7401,7 +7408,7 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7410,19 +7417,19 @@
         <v>88</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>80</v>
+        <v>369</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>376</v>
+        <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
@@ -7433,7 +7440,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7444,7 +7451,7 @@
         <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>89</v>
@@ -7456,16 +7463,16 @@
         <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7494,10 +7501,10 @@
         <v>167</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>80</v>
@@ -7515,13 +7522,13 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>146</v>
@@ -7533,10 +7540,10 @@
         <v>80</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>80</v>
@@ -7545,9 +7552,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7558,30 +7565,30 @@
         <v>78</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>80</v>
       </c>
@@ -7605,13 +7612,13 @@
         <v>80</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>80</v>
+        <v>383</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>80</v>
+        <v>384</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>80</v>
@@ -7629,16 +7636,16 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>100</v>
@@ -7647,10 +7654,10 @@
         <v>80</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>80</v>
@@ -7659,9 +7666,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7669,13 +7676,13 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>80</v>
@@ -7684,16 +7691,18 @@
         <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+      <c r="N49" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>80</v>
       </c>
@@ -7741,10 +7750,10 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>88</v>
@@ -7756,38 +7765,38 @@
         <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>394</v>
+        <v>80</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>397</v>
+        <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>398</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>80</v>
@@ -7796,13 +7805,13 @@
         <v>89</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7853,10 +7862,10 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>88</v>
@@ -7868,38 +7877,38 @@
         <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>408</v>
+        <v>400</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>80</v>
@@ -7908,13 +7917,13 @@
         <v>89</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7965,7 +7974,7 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7980,38 +7989,38 @@
         <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>418</v>
+        <v>410</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>80</v>
+        <v>412</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>80</v>
@@ -8020,13 +8029,13 @@
         <v>89</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -8053,13 +8062,13 @@
         <v>80</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>423</v>
+        <v>80</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>424</v>
+        <v>80</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>80</v>
@@ -8077,7 +8086,7 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -8092,38 +8101,38 @@
         <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>80</v>
+        <v>416</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>80</v>
+        <v>417</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>80</v>
+        <v>419</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>428</v>
+        <v>80</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>80</v>
@@ -8132,13 +8141,13 @@
         <v>89</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8165,13 +8174,13 @@
         <v>80</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>80</v>
+        <v>425</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>80</v>
+        <v>426</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>80</v>
@@ -8189,7 +8198,7 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8204,28 +8213,28 @@
         <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>432</v>
+        <v>80</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>433</v>
+        <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>435</v>
+        <v>80</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>436</v>
+        <v>428</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8244,17 +8253,15 @@
         <v>89</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>442</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>80</v>
@@ -8303,7 +8310,7 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8318,35 +8325,35 @@
         <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>447</v>
+        <v>438</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>89</v>
@@ -8358,16 +8365,16 @@
         <v>89</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>164</v>
+        <v>441</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8393,13 +8400,13 @@
         <v>80</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>453</v>
+        <v>80</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>454</v>
+        <v>80</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>80</v>
@@ -8417,7 +8424,7 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8432,28 +8439,28 @@
         <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>80</v>
+        <v>449</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8472,16 +8479,16 @@
         <v>89</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>461</v>
+        <v>164</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8507,13 +8514,13 @@
         <v>80</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>80</v>
+        <v>455</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>80</v>
+        <v>456</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>80</v>
@@ -8531,13 +8538,13 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>80</v>
@@ -8546,38 +8553,38 @@
         <v>100</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>80</v>
+        <v>462</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>80</v>
@@ -8586,15 +8593,17 @@
         <v>89</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>164</v>
+        <v>463</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>465</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>466</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>80</v>
@@ -8619,13 +8628,13 @@
         <v>80</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>471</v>
+        <v>80</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>472</v>
+        <v>80</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>80</v>
@@ -8643,7 +8652,7 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8658,16 +8667,16 @@
         <v>100</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>80</v>
+        <v>467</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>80</v>
+        <v>468</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
@@ -8675,7 +8684,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8698,13 +8707,13 @@
         <v>89</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>475</v>
+        <v>164</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8731,13 +8740,13 @@
         <v>80</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>80</v>
+        <v>473</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>80</v>
+        <v>474</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>80</v>
@@ -8755,7 +8764,7 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8776,18 +8785,18 @@
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8795,13 +8804,13 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>80</v>
@@ -8810,17 +8819,15 @@
         <v>89</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>164</v>
+        <v>477</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>481</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>80</v>
@@ -8845,13 +8852,13 @@
         <v>80</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>482</v>
+        <v>80</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>483</v>
+        <v>80</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>80</v>
@@ -8869,7 +8876,7 @@
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8884,24 +8891,24 @@
         <v>100</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>484</v>
+        <v>80</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>485</v>
+        <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8909,13 +8916,13 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>80</v>
@@ -8924,16 +8931,16 @@
         <v>89</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>489</v>
+        <v>164</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8959,13 +8966,13 @@
         <v>80</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>80</v>
+        <v>484</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>80</v>
+        <v>485</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>80</v>
@@ -8983,7 +8990,7 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8998,16 +9005,16 @@
         <v>100</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>80</v>
@@ -9015,7 +9022,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9035,18 +9042,20 @@
         <v>80</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>493</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>494</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>80</v>
@@ -9095,7 +9104,7 @@
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -9110,28 +9119,28 @@
         <v>100</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>80</v>
+        <v>489</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>504</v>
+        <v>80</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9141,7 +9150,7 @@
         <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>80</v>
@@ -9150,17 +9159,15 @@
         <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>508</v>
-      </c>
+        <v>501</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>80</v>
@@ -9209,7 +9216,7 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9224,13 +9231,13 @@
         <v>100</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
@@ -9241,11 +9248,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>80</v>
+        <v>506</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9261,19 +9268,19 @@
         <v>80</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9323,7 +9330,7 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9338,13 +9345,13 @@
         <v>100</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>80</v>
+        <v>511</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
@@ -9353,23 +9360,23 @@
         <v>80</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>520</v>
+        <v>80</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>80</v>
@@ -9378,20 +9385,18 @@
         <v>89</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>164</v>
+        <v>515</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>524</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>80</v>
       </c>
@@ -9415,13 +9420,13 @@
         <v>80</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>525</v>
+        <v>80</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>526</v>
+        <v>80</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>80</v>
@@ -9439,7 +9444,7 @@
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9457,32 +9462,32 @@
         <v>80</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>528</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>80</v>
+        <v>522</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>80</v>
@@ -9491,19 +9496,23 @@
         <v>80</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>90</v>
+        <v>164</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>150</v>
+        <v>523</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
+        <v>524</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>526</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>80</v>
       </c>
@@ -9527,13 +9536,13 @@
         <v>80</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>80</v>
+        <v>527</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>80</v>
+        <v>528</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>80</v>
@@ -9551,50 +9560,50 @@
         <v>80</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>152</v>
+        <v>521</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>80</v>
+        <v>519</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>153</v>
+        <v>529</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>80</v>
+        <v>530</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>80</v>
@@ -9606,17 +9615,15 @@
         <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>231</v>
+        <v>150</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>80</v>
@@ -9653,31 +9660,31 @@
         <v>80</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="AC66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>80</v>
@@ -9697,20 +9704,18 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>531</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>80</v>
@@ -9722,15 +9727,17 @@
         <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>532</v>
+        <v>134</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>533</v>
+        <v>233</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="M67" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>80</v>
@@ -9767,16 +9774,16 @@
         <v>80</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="AC67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AE67" t="s" s="2">
         <v>156</v>
@@ -9800,7 +9807,7 @@
         <v>80</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>80</v>
+        <v>153</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>80</v>
@@ -9811,9 +9818,11 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="B68" s="2"/>
+        <v>532</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>533</v>
+      </c>
       <c r="C68" t="s" s="2">
         <v>80</v>
       </c>
@@ -9822,7 +9831,7 @@
         <v>78</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>80</v>
@@ -9831,23 +9840,19 @@
         <v>80</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="K68" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>540</v>
-      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>80</v>
       </c>
@@ -9895,7 +9900,7 @@
         <v>80</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>541</v>
+        <v>156</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -9907,16 +9912,16 @@
         <v>80</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>542</v>
+        <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>543</v>
+        <v>80</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>80</v>
@@ -9927,7 +9932,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9938,7 +9943,7 @@
         <v>78</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>80</v>
@@ -9950,19 +9955,19 @@
         <v>89</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>90</v>
+        <v>538</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>80</v>
@@ -10011,13 +10016,13 @@
         <v>80</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>80</v>
@@ -10029,10 +10034,10 @@
         <v>80</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>80</v>
@@ -10041,9 +10046,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10054,28 +10059,32 @@
         <v>78</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I70" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J70" t="s" s="2">
-        <v>553</v>
+        <v>90</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>49</v>
+        <v>547</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
+        <v>548</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>550</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>80</v>
       </c>
@@ -10123,13 +10132,13 @@
         <v>80</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>80</v>
@@ -10138,24 +10147,24 @@
         <v>100</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>555</v>
+        <v>80</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>388</v>
+        <v>552</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>557</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10166,7 +10175,7 @@
         <v>78</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>89</v>
@@ -10175,16 +10184,16 @@
         <v>80</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>90</v>
+        <v>555</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>559</v>
+        <v>49</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10235,13 +10244,13 @@
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>80</v>
@@ -10250,24 +10259,24 @@
         <v>100</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>80</v>
+        <v>557</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>80</v>
+        <v>559</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10278,29 +10287,27 @@
         <v>78</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>563</v>
+        <v>90</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>566</v>
-      </c>
+        <v>562</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>80</v>
@@ -10349,13 +10356,13 @@
         <v>80</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>80</v>
@@ -10364,23 +10371,137 @@
         <v>100</v>
       </c>
       <c r="AJ72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="AK72" t="s" s="2">
+      <c r="M73" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AK73" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="AL72" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN72" t="s" s="2">
+      <c r="AL73" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN73" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN72">
+  <autoFilter ref="A1:AN73">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10390,7 +10511,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI71">
+  <conditionalFormatting sqref="A2:AI72">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-lab-prescription.xlsx
+++ b/StructureDefinition-be-lab-prescription.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$74</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2658" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2694" uniqueCount="573">
   <si>
     <t>Property</t>
   </si>
@@ -667,6 +667,13 @@
   </si>
   <si>
     <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-pps-info}
+</t>
+  </si>
+  <si>
+    <t>recorder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-ext-recorder}
 </t>
   </si>
   <si>
@@ -2145,7 +2152,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN73"/>
+  <dimension ref="A1:AN74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4924,7 +4931,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>132</v>
       </c>
@@ -4942,7 +4949,7 @@
         <v>88</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>80</v>
@@ -4954,7 +4961,7 @@
         <v>209</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>210</v>
+        <v>135</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>136</v>
@@ -5017,7 +5024,7 @@
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>140</v>
@@ -5040,43 +5047,41 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="C26" t="s" s="2">
-        <v>212</v>
+        <v>80</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>134</v>
+        <v>211</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>80</v>
       </c>
@@ -5124,7 +5129,7 @@
         <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>217</v>
+        <v>139</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -5145,7 +5150,7 @@
         <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>80</v>
@@ -5156,11 +5161,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>80</v>
+        <v>214</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -5170,27 +5175,29 @@
         <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H27" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H27" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="I27" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>219</v>
+        <v>134</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>80</v>
       </c>
@@ -5226,17 +5233,19 @@
         <v>80</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AB27" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AC27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5248,31 +5257,29 @@
         <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>224</v>
+        <v>80</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>225</v>
+        <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>226</v>
+        <v>131</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>227</v>
+        <v>80</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>228</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
         <v>80</v>
       </c>
@@ -5281,10 +5288,10 @@
         <v>78</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>80</v>
@@ -5293,16 +5300,16 @@
         <v>89</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5340,19 +5347,17 @@
         <v>80</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="AB28" s="2"/>
       <c r="AC28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5367,26 +5372,28 @@
         <v>100</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="B29" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
         <v>80</v>
       </c>
@@ -5404,18 +5411,20 @@
         <v>80</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>90</v>
+        <v>221</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>150</v>
+        <v>232</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>80</v>
@@ -5464,50 +5473,50 @@
         <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>152</v>
+        <v>220</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>80</v>
+        <v>226</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>80</v>
+        <v>227</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>153</v>
+        <v>228</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>80</v>
+        <v>229</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>80</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>212</v>
+        <v>80</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>80</v>
@@ -5519,17 +5528,15 @@
         <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>233</v>
+        <v>150</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>80</v>
@@ -5566,31 +5573,31 @@
         <v>80</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>80</v>
@@ -5610,43 +5617,41 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>80</v>
+        <v>214</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="L31" t="s" s="2">
-        <v>237</v>
-      </c>
       <c r="M31" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>80</v>
       </c>
@@ -5670,52 +5675,52 @@
         <v>80</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>241</v>
+        <v>80</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>242</v>
+        <v>80</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>243</v>
+        <v>156</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>244</v>
+        <v>153</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>80</v>
@@ -5726,7 +5731,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5743,25 +5748,25 @@
         <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>80</v>
@@ -5786,13 +5791,13 @@
         <v>80</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>173</v>
+        <v>242</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>80</v>
@@ -5810,7 +5815,7 @@
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5828,10 +5833,10 @@
         <v>80</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>253</v>
+        <v>131</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
@@ -5842,7 +5847,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5850,7 +5855,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>88</v>
@@ -5865,32 +5870,32 @@
         <v>89</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>102</v>
+        <v>164</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>259</v>
+        <v>80</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>260</v>
+        <v>80</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>80</v>
@@ -5902,13 +5907,13 @@
         <v>80</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>80</v>
+        <v>252</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>80</v>
+        <v>253</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>80</v>
@@ -5926,7 +5931,7 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5944,10 +5949,10 @@
         <v>80</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>80</v>
@@ -5958,7 +5963,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5981,30 +5986,32 @@
         <v>89</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>80</v>
+        <v>261</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>80</v>
@@ -6040,7 +6047,7 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -6058,10 +6065,10 @@
         <v>80</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>80</v>
@@ -6072,7 +6079,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6080,7 +6087,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>88</v>
@@ -6095,15 +6102,17 @@
         <v>89</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>273</v>
+        <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>80</v>
@@ -6116,7 +6125,7 @@
         <v>80</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>80</v>
+        <v>270</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>80</v>
@@ -6152,7 +6161,7 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -6170,10 +6179,10 @@
         <v>80</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>80</v>
@@ -6184,7 +6193,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6207,17 +6216,15 @@
         <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>80</v>
@@ -6266,7 +6273,7 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6284,10 +6291,10 @@
         <v>80</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
@@ -6298,7 +6305,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6309,7 +6316,7 @@
         <v>78</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>80</v>
@@ -6321,16 +6328,16 @@
         <v>89</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6380,13 +6387,13 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>80</v>
@@ -6395,13 +6402,13 @@
         <v>100</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>292</v>
+        <v>80</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>147</v>
+        <v>287</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
@@ -6412,7 +6419,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6435,16 +6442,16 @@
         <v>89</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>102</v>
+        <v>290</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6494,7 +6501,7 @@
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6509,13 +6516,13 @@
         <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>147</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>80</v>
@@ -6524,13 +6531,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6540,7 +6547,7 @@
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>80</v>
@@ -6549,15 +6556,17 @@
         <v>89</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>301</v>
+        <v>102</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>80</v>
@@ -6606,7 +6615,7 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6621,13 +6630,13 @@
         <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>305</v>
+        <v>147</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>80</v>
@@ -6638,11 +6647,11 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6661,13 +6670,13 @@
         <v>89</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6718,7 +6727,7 @@
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6733,13 +6742,13 @@
         <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>80</v>
@@ -6750,18 +6759,18 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>89</v>
@@ -6773,20 +6782,16 @@
         <v>89</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>219</v>
+        <v>311</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>80</v>
       </c>
@@ -6834,13 +6839,13 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>80</v>
@@ -6849,13 +6854,13 @@
         <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>80</v>
@@ -6866,15 +6871,15 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>80</v>
+        <v>318</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>88</v>
@@ -6883,24 +6888,26 @@
         <v>89</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>108</v>
+        <v>221</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>80</v>
       </c>
@@ -6924,13 +6931,13 @@
         <v>80</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>328</v>
+        <v>80</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>329</v>
+        <v>80</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>80</v>
@@ -6948,10 +6955,10 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>88</v>
@@ -6963,24 +6970,24 @@
         <v>100</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>333</v>
+        <v>80</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>334</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7006,13 +7013,13 @@
         <v>108</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7038,13 +7045,13 @@
         <v>80</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>80</v>
@@ -7062,7 +7069,7 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>88</v>
@@ -7077,24 +7084,24 @@
         <v>100</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>131</v>
+        <v>333</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>80</v>
+        <v>336</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7111,26 +7118,24 @@
         <v>89</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>80</v>
       </c>
@@ -7154,11 +7159,13 @@
         <v>80</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="X44" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="Y44" t="s" s="2">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>80</v>
@@ -7176,13 +7183,13 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>80</v>
@@ -7191,16 +7198,16 @@
         <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>80</v>
+        <v>343</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>350</v>
+        <v>131</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
@@ -7208,7 +7215,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7216,7 +7223,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>88</v>
@@ -7231,22 +7238,24 @@
         <v>89</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P45" t="s" s="2">
-        <v>355</v>
-      </c>
+      <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7266,13 +7275,11 @@
         <v>80</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="X45" s="2"/>
       <c r="Y45" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>80</v>
@@ -7290,13 +7297,13 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>80</v>
@@ -7305,24 +7312,24 @@
         <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>358</v>
+        <v>80</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7336,34 +7343,30 @@
         <v>88</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>363</v>
+        <v>108</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P46" t="s" s="2">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="Q46" t="s" s="2">
         <v>80</v>
@@ -7384,13 +7387,13 @@
         <v>80</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>80</v>
+        <v>242</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>80</v>
+        <v>358</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>80</v>
+        <v>359</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>80</v>
@@ -7408,7 +7411,7 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7423,24 +7426,24 @@
         <v>100</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>80</v>
+        <v>361</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>80</v>
+        <v>363</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7454,31 +7457,35 @@
         <v>88</v>
       </c>
       <c r="G47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H47" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H47" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="I47" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P47" s="2"/>
+      <c r="P47" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="Q47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7498,13 +7505,13 @@
         <v>80</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>376</v>
+        <v>80</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>377</v>
+        <v>80</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>80</v>
@@ -7522,7 +7529,7 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7531,19 +7538,19 @@
         <v>88</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>80</v>
+        <v>371</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>378</v>
+        <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>80</v>
@@ -7554,7 +7561,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7565,7 +7572,7 @@
         <v>78</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>89</v>
@@ -7577,16 +7584,16 @@
         <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7615,10 +7622,10 @@
         <v>167</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>80</v>
@@ -7636,13 +7643,13 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>146</v>
@@ -7654,10 +7661,10 @@
         <v>80</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>80</v>
@@ -7666,9 +7673,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7679,30 +7686,30 @@
         <v>78</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" t="s" s="2">
-        <v>389</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>80</v>
       </c>
@@ -7726,13 +7733,13 @@
         <v>80</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>80</v>
+        <v>385</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>80</v>
+        <v>386</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>80</v>
@@ -7750,16 +7757,16 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>100</v>
@@ -7768,10 +7775,10 @@
         <v>80</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>80</v>
@@ -7780,9 +7787,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7790,13 +7797,13 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>80</v>
@@ -7805,16 +7812,18 @@
         <v>89</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+      <c r="N50" t="s" s="2">
+        <v>391</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>80</v>
       </c>
@@ -7862,10 +7871,10 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>88</v>
@@ -7877,38 +7886,38 @@
         <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>396</v>
+        <v>80</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>399</v>
+        <v>80</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>400</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>402</v>
+        <v>80</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>80</v>
@@ -7917,13 +7926,13 @@
         <v>89</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7974,10 +7983,10 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>88</v>
@@ -7989,38 +7998,38 @@
         <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>80</v>
@@ -8029,13 +8038,13 @@
         <v>89</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -8086,7 +8095,7 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -8101,38 +8110,38 @@
         <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>420</v>
+        <v>412</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>80</v>
+        <v>414</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>80</v>
@@ -8141,13 +8150,13 @@
         <v>89</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8174,13 +8183,13 @@
         <v>80</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>425</v>
+        <v>80</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>426</v>
+        <v>80</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>80</v>
@@ -8198,7 +8207,7 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8213,38 +8222,38 @@
         <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>80</v>
+        <v>418</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>80</v>
+        <v>419</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>80</v>
+        <v>421</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>430</v>
+        <v>80</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>80</v>
@@ -8253,13 +8262,13 @@
         <v>89</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8286,13 +8295,13 @@
         <v>80</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>80</v>
+        <v>427</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>80</v>
+        <v>428</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>80</v>
@@ -8310,7 +8319,7 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8325,28 +8334,28 @@
         <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>434</v>
+        <v>80</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>435</v>
+        <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>437</v>
+        <v>80</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8365,17 +8374,15 @@
         <v>89</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>444</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>80</v>
@@ -8424,7 +8431,7 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8439,35 +8446,35 @@
         <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>89</v>
@@ -8479,16 +8486,16 @@
         <v>89</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>164</v>
+        <v>443</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8514,13 +8521,13 @@
         <v>80</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>455</v>
+        <v>80</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>456</v>
+        <v>80</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>80</v>
@@ -8538,7 +8545,7 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8553,28 +8560,28 @@
         <v>100</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>80</v>
+        <v>451</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8593,16 +8600,16 @@
         <v>89</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>463</v>
+        <v>164</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8628,13 +8635,13 @@
         <v>80</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>80</v>
+        <v>457</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>80</v>
+        <v>458</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>80</v>
@@ -8652,13 +8659,13 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>80</v>
@@ -8667,38 +8674,38 @@
         <v>100</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>80</v>
+        <v>464</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>80</v>
@@ -8707,15 +8714,17 @@
         <v>89</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>164</v>
+        <v>465</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>467</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>468</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>80</v>
@@ -8740,13 +8749,13 @@
         <v>80</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>473</v>
+        <v>80</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>474</v>
+        <v>80</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>80</v>
@@ -8764,7 +8773,7 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8779,16 +8788,16 @@
         <v>100</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>80</v>
+        <v>469</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>80</v>
+        <v>470</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>
@@ -8796,7 +8805,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8819,13 +8828,13 @@
         <v>89</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>477</v>
+        <v>164</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8852,13 +8861,13 @@
         <v>80</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>80</v>
+        <v>475</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>80</v>
+        <v>476</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>80</v>
@@ -8876,7 +8885,7 @@
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8897,18 +8906,18 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8916,13 +8925,13 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>80</v>
@@ -8931,17 +8940,15 @@
         <v>89</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>164</v>
+        <v>479</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>483</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>80</v>
@@ -8966,13 +8973,13 @@
         <v>80</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>484</v>
+        <v>80</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>485</v>
+        <v>80</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>80</v>
@@ -8990,7 +8997,7 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -9005,24 +9012,24 @@
         <v>100</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>486</v>
+        <v>80</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>487</v>
+        <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>489</v>
+        <v>462</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9030,13 +9037,13 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>80</v>
@@ -9045,16 +9052,16 @@
         <v>89</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>491</v>
+        <v>164</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9080,13 +9087,13 @@
         <v>80</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>80</v>
+        <v>486</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>80</v>
+        <v>487</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>80</v>
@@ -9104,7 +9111,7 @@
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -9119,16 +9126,16 @@
         <v>100</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>80</v>
@@ -9136,7 +9143,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9156,18 +9163,20 @@
         <v>80</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>495</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>496</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>80</v>
@@ -9216,7 +9225,7 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9231,28 +9240,28 @@
         <v>100</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>80</v>
+        <v>491</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>506</v>
+        <v>80</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9262,7 +9271,7 @@
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>80</v>
@@ -9271,17 +9280,15 @@
         <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>510</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>80</v>
@@ -9330,7 +9337,7 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9345,13 +9352,13 @@
         <v>100</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
@@ -9362,11 +9369,11 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>80</v>
+        <v>508</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9382,19 +9389,19 @@
         <v>80</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9444,7 +9451,7 @@
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9459,13 +9466,13 @@
         <v>100</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>80</v>
+        <v>513</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
@@ -9474,23 +9481,23 @@
         <v>80</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>522</v>
+        <v>80</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>80</v>
@@ -9499,20 +9506,18 @@
         <v>89</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>164</v>
+        <v>517</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>526</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>80</v>
       </c>
@@ -9536,13 +9541,13 @@
         <v>80</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>527</v>
+        <v>80</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>528</v>
+        <v>80</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>80</v>
@@ -9560,7 +9565,7 @@
         <v>80</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9578,32 +9583,32 @@
         <v>80</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>530</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>80</v>
+        <v>524</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>80</v>
@@ -9612,19 +9617,23 @@
         <v>80</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>90</v>
+        <v>164</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>150</v>
+        <v>525</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
+        <v>526</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>528</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>80</v>
       </c>
@@ -9648,13 +9657,13 @@
         <v>80</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>80</v>
+        <v>529</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>80</v>
+        <v>530</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>80</v>
@@ -9672,50 +9681,50 @@
         <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>152</v>
+        <v>523</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>80</v>
+        <v>521</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>153</v>
+        <v>531</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>80</v>
+        <v>532</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>212</v>
+        <v>80</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>80</v>
@@ -9727,17 +9736,15 @@
         <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>233</v>
+        <v>150</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>80</v>
@@ -9774,31 +9781,31 @@
         <v>80</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="AC67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>80</v>
@@ -9818,20 +9825,18 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>533</v>
-      </c>
+        <v>534</v>
+      </c>
+      <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>80</v>
+        <v>214</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>80</v>
@@ -9843,15 +9848,17 @@
         <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>534</v>
+        <v>134</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>535</v>
+        <v>235</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="M68" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>80</v>
@@ -9888,16 +9895,16 @@
         <v>80</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="AC68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AE68" t="s" s="2">
         <v>156</v>
@@ -9921,7 +9928,7 @@
         <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>80</v>
+        <v>153</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>80</v>
@@ -9932,9 +9939,11 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="B69" s="2"/>
+        <v>534</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>535</v>
+      </c>
       <c r="C69" t="s" s="2">
         <v>80</v>
       </c>
@@ -9943,7 +9952,7 @@
         <v>78</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>80</v>
@@ -9952,23 +9961,19 @@
         <v>80</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="K69" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>542</v>
-      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>80</v>
       </c>
@@ -10016,7 +10021,7 @@
         <v>80</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>543</v>
+        <v>156</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -10028,16 +10033,16 @@
         <v>80</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>544</v>
+        <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>545</v>
+        <v>80</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>80</v>
@@ -10048,7 +10053,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10059,7 +10064,7 @@
         <v>78</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>80</v>
@@ -10071,19 +10076,19 @@
         <v>89</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>90</v>
+        <v>540</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>80</v>
@@ -10132,13 +10137,13 @@
         <v>80</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>80</v>
@@ -10150,10 +10155,10 @@
         <v>80</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>80</v>
@@ -10162,9 +10167,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10175,28 +10180,32 @@
         <v>78</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I71" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J71" t="s" s="2">
-        <v>555</v>
+        <v>90</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>49</v>
+        <v>549</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
+        <v>550</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>552</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>80</v>
       </c>
@@ -10244,13 +10253,13 @@
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>80</v>
@@ -10259,24 +10268,24 @@
         <v>100</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>557</v>
+        <v>80</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>390</v>
+        <v>554</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>559</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10287,7 +10296,7 @@
         <v>78</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>89</v>
@@ -10296,16 +10305,16 @@
         <v>80</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>90</v>
+        <v>557</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>561</v>
+        <v>49</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10356,13 +10365,13 @@
         <v>80</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>80</v>
@@ -10371,24 +10380,24 @@
         <v>100</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>80</v>
+        <v>559</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>80</v>
+        <v>561</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10399,29 +10408,27 @@
         <v>78</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>565</v>
+        <v>90</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>568</v>
-      </c>
+        <v>564</v>
+      </c>
+      <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>80</v>
@@ -10470,13 +10477,13 @@
         <v>80</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>80</v>
@@ -10485,23 +10492,137 @@
         <v>100</v>
       </c>
       <c r="AJ73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="AK73" t="s" s="2">
+      <c r="M74" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AK74" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="AL73" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN73" t="s" s="2">
+      <c r="AL74" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN73">
+  <autoFilter ref="A1:AN74">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10511,7 +10632,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI72">
+  <conditionalFormatting sqref="A2:AI73">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-lab-prescription.xlsx
+++ b/StructureDefinition-be-lab-prescription.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$75</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2694" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2730" uniqueCount="578">
   <si>
     <t>Property</t>
   </si>
@@ -627,6 +627,19 @@
     <t>Request must be performed before</t>
   </si>
   <si>
+    <t>latestDraft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-latest-draft-date}
+</t>
+  </si>
+  <si>
+    <t>The prescription must have left the draft status befor this moment</t>
+  </si>
+  <si>
+    <t>Request must leave draft status before</t>
+  </si>
+  <si>
     <t>performer</t>
   </si>
   <si>
@@ -675,6 +688,9 @@
   <si>
     <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-ext-recorder}
 </t>
+  </si>
+  <si>
+    <t>The person responsable for this information, not necessarily the person who recorded the information</t>
   </si>
   <si>
     <t>urgentCommunication</t>
@@ -2152,7 +2168,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN74"/>
+  <dimension ref="A1:AN75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4487,7 +4503,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>88</v>
@@ -4601,7 +4617,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>88</v>
@@ -4736,7 +4752,7 @@
         <v>205</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4822,7 +4838,7 @@
         <v>132</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>80</v>
@@ -4844,13 +4860,13 @@
         <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4936,7 +4952,7 @@
         <v>132</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>80</v>
@@ -4958,13 +4974,13 @@
         <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>135</v>
+        <v>205</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>136</v>
+        <v>206</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -5045,12 +5061,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>132</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>80</v>
@@ -5063,7 +5079,7 @@
         <v>88</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>80</v>
@@ -5072,10 +5088,10 @@
         <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>136</v>
@@ -5138,7 +5154,7 @@
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>140</v>
@@ -5161,43 +5177,41 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="C27" t="s" s="2">
-        <v>214</v>
+        <v>80</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>134</v>
+        <v>216</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>80</v>
       </c>
@@ -5245,7 +5259,7 @@
         <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>219</v>
+        <v>139</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5266,7 +5280,7 @@
         <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>80</v>
@@ -5277,11 +5291,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -5291,27 +5305,29 @@
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H28" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H28" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="I28" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="M28" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>80</v>
       </c>
@@ -5347,17 +5363,19 @@
         <v>80</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AB28" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AC28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5369,31 +5387,29 @@
         <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>226</v>
+        <v>80</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>227</v>
+        <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>228</v>
+        <v>131</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>230</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
         <v>80</v>
       </c>
@@ -5402,10 +5418,10 @@
         <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>80</v>
@@ -5414,16 +5430,16 @@
         <v>89</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5461,19 +5477,17 @@
         <v>80</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="AB29" s="2"/>
       <c r="AC29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5488,26 +5502,28 @@
         <v>100</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="B30" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="C30" t="s" s="2">
         <v>80</v>
       </c>
@@ -5525,18 +5541,20 @@
         <v>80</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>90</v>
+        <v>226</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>150</v>
+        <v>237</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>80</v>
@@ -5585,50 +5603,50 @@
         <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>152</v>
+        <v>225</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>80</v>
+        <v>231</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>80</v>
+        <v>232</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>153</v>
+        <v>233</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>80</v>
+        <v>234</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>80</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>214</v>
+        <v>80</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>80</v>
@@ -5640,17 +5658,15 @@
         <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>235</v>
+        <v>150</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>80</v>
@@ -5687,31 +5703,31 @@
         <v>80</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>80</v>
@@ -5731,43 +5747,41 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>80</v>
       </c>
@@ -5791,52 +5805,52 @@
         <v>80</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>242</v>
+        <v>80</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>243</v>
+        <v>80</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>244</v>
+        <v>80</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>245</v>
+        <v>156</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>246</v>
+        <v>153</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
@@ -5847,7 +5861,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5864,25 +5878,25 @@
         <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>80</v>
@@ -5907,13 +5921,13 @@
         <v>80</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>173</v>
+        <v>247</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>80</v>
@@ -5931,7 +5945,7 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5949,10 +5963,10 @@
         <v>80</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>255</v>
+        <v>131</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>80</v>
@@ -5963,7 +5977,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5971,7 +5985,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>88</v>
@@ -5986,32 +6000,32 @@
         <v>89</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>102</v>
+        <v>164</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>261</v>
+        <v>80</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>262</v>
+        <v>80</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>80</v>
@@ -6023,13 +6037,13 @@
         <v>80</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>80</v>
+        <v>257</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>80</v>
+        <v>258</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>80</v>
@@ -6047,7 +6061,7 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -6065,10 +6079,10 @@
         <v>80</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>80</v>
@@ -6079,7 +6093,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6102,30 +6116,32 @@
         <v>89</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>80</v>
+        <v>266</v>
       </c>
       <c r="R35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>80</v>
@@ -6161,7 +6177,7 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -6179,10 +6195,10 @@
         <v>80</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>80</v>
@@ -6193,7 +6209,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6201,7 +6217,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>88</v>
@@ -6216,15 +6232,17 @@
         <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>275</v>
+        <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>80</v>
@@ -6237,7 +6255,7 @@
         <v>80</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>80</v>
+        <v>275</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>80</v>
@@ -6273,7 +6291,7 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6291,10 +6309,10 @@
         <v>80</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
@@ -6305,7 +6323,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6328,17 +6346,15 @@
         <v>89</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="K37" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>285</v>
-      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>80</v>
@@ -6387,7 +6403,7 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6405,10 +6421,10 @@
         <v>80</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
@@ -6419,7 +6435,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6430,7 +6446,7 @@
         <v>78</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>80</v>
@@ -6442,16 +6458,16 @@
         <v>89</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6501,13 +6517,13 @@
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>80</v>
@@ -6516,13 +6532,13 @@
         <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>294</v>
+        <v>80</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>147</v>
+        <v>292</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>80</v>
@@ -6533,7 +6549,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6556,16 +6572,16 @@
         <v>89</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>102</v>
+        <v>295</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6615,7 +6631,7 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6630,13 +6646,13 @@
         <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>147</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>80</v>
@@ -6645,13 +6661,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
         <v>301</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>302</v>
+        <v>80</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6661,7 +6677,7 @@
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>80</v>
@@ -6670,15 +6686,17 @@
         <v>89</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="L40" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>80</v>
@@ -6742,13 +6760,13 @@
         <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>307</v>
+        <v>147</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>80</v>
@@ -6759,11 +6777,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6782,13 +6800,13 @@
         <v>89</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6839,7 +6857,7 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6854,13 +6872,13 @@
         <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>80</v>
@@ -6871,18 +6889,18 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>89</v>
@@ -6894,20 +6912,16 @@
         <v>89</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>221</v>
+        <v>316</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>80</v>
       </c>
@@ -6955,13 +6969,13 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>80</v>
@@ -6970,13 +6984,13 @@
         <v>100</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>80</v>
@@ -6987,15 +7001,15 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>80</v>
+        <v>323</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>88</v>
@@ -7004,24 +7018,26 @@
         <v>89</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>108</v>
+        <v>226</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>80</v>
       </c>
@@ -7045,13 +7061,13 @@
         <v>80</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>242</v>
+        <v>80</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>331</v>
+        <v>80</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>80</v>
@@ -7069,10 +7085,10 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>88</v>
@@ -7084,24 +7100,24 @@
         <v>100</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>335</v>
+        <v>80</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>336</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7127,13 +7143,13 @@
         <v>108</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7159,13 +7175,13 @@
         <v>80</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>80</v>
@@ -7183,7 +7199,7 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>88</v>
@@ -7198,24 +7214,24 @@
         <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>131</v>
+        <v>338</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>80</v>
+        <v>341</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7232,26 +7248,24 @@
         <v>89</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7275,11 +7289,13 @@
         <v>80</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="X45" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="Y45" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>80</v>
@@ -7297,13 +7313,13 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>80</v>
@@ -7312,16 +7328,16 @@
         <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>80</v>
+        <v>348</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>352</v>
+        <v>131</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>80</v>
@@ -7329,7 +7345,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7337,7 +7353,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>88</v>
@@ -7352,49 +7368,49 @@
         <v>89</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="N46" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="O46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="X46" s="2"/>
+      <c r="Y46" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P46" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="Q46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>359</v>
-      </c>
       <c r="Z46" t="s" s="2">
         <v>80</v>
       </c>
@@ -7411,13 +7427,13 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>80</v>
@@ -7426,24 +7442,24 @@
         <v>100</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>360</v>
+        <v>80</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7457,34 +7473,30 @@
         <v>88</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>365</v>
+        <v>108</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P47" t="s" s="2">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="Q47" t="s" s="2">
         <v>80</v>
@@ -7505,13 +7517,13 @@
         <v>80</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>80</v>
+        <v>247</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>80</v>
+        <v>363</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>80</v>
+        <v>364</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>80</v>
@@ -7529,7 +7541,7 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7544,24 +7556,24 @@
         <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>80</v>
+        <v>366</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>80</v>
+        <v>368</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7575,31 +7587,35 @@
         <v>88</v>
       </c>
       <c r="G48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H48" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H48" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="I48" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="N48" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="O48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P48" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="L48" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
         <v>80</v>
       </c>
@@ -7619,13 +7635,13 @@
         <v>80</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>378</v>
+        <v>80</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>379</v>
+        <v>80</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>80</v>
@@ -7643,7 +7659,7 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7652,19 +7668,19 @@
         <v>88</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>80</v>
+        <v>376</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>380</v>
+        <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>80</v>
@@ -7675,7 +7691,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7686,7 +7702,7 @@
         <v>78</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>89</v>
@@ -7698,16 +7714,16 @@
         <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7736,10 +7752,10 @@
         <v>167</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>80</v>
@@ -7757,13 +7773,13 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>146</v>
@@ -7775,10 +7791,10 @@
         <v>80</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>80</v>
@@ -7787,7 +7803,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
         <v>387</v>
       </c>
@@ -7800,30 +7816,30 @@
         <v>78</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="L50" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" t="s" s="2">
-        <v>391</v>
-      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>80</v>
       </c>
@@ -7847,13 +7863,13 @@
         <v>80</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>80</v>
+        <v>390</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>80</v>
+        <v>391</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>80</v>
@@ -7877,10 +7893,10 @@
         <v>78</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>100</v>
@@ -7889,21 +7905,21 @@
         <v>80</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7911,13 +7927,13 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>80</v>
@@ -7926,16 +7942,18 @@
         <v>89</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="M51" s="2"/>
+      <c r="N51" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="L51" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>80</v>
       </c>
@@ -7983,10 +8001,10 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>88</v>
@@ -7998,38 +8016,38 @@
         <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="AK51" t="s" s="2">
+      <c r="AM51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="52" hidden="true">
-      <c r="A52" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>404</v>
+        <v>80</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>80</v>
@@ -8038,13 +8056,13 @@
         <v>89</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -8095,10 +8113,10 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>88</v>
@@ -8110,38 +8128,38 @@
         <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>80</v>
@@ -8150,13 +8168,13 @@
         <v>89</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8207,7 +8225,7 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8222,38 +8240,38 @@
         <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="54" hidden="true">
-      <c r="A54" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>80</v>
+        <v>419</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>80</v>
@@ -8262,13 +8280,13 @@
         <v>89</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8295,13 +8313,13 @@
         <v>80</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>427</v>
+        <v>80</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>428</v>
+        <v>80</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>80</v>
@@ -8319,7 +8337,7 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8334,38 +8352,38 @@
         <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>80</v>
+        <v>423</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>80</v>
+        <v>424</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>80</v>
+        <v>426</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>432</v>
+        <v>80</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>80</v>
@@ -8374,13 +8392,13 @@
         <v>89</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8407,13 +8425,13 @@
         <v>80</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>80</v>
+        <v>432</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>80</v>
+        <v>433</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>80</v>
@@ -8431,7 +8449,7 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8446,28 +8464,28 @@
         <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>436</v>
+        <v>80</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>437</v>
+        <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>439</v>
+        <v>80</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8486,17 +8504,15 @@
         <v>89</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>446</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>80</v>
@@ -8545,7 +8561,7 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8560,35 +8576,35 @@
         <v>100</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>89</v>
@@ -8600,16 +8616,16 @@
         <v>89</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>164</v>
+        <v>448</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8635,13 +8651,13 @@
         <v>80</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>457</v>
+        <v>80</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>458</v>
+        <v>80</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>80</v>
@@ -8659,7 +8675,7 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8674,28 +8690,28 @@
         <v>100</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>80</v>
+        <v>456</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8714,16 +8730,16 @@
         <v>89</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>465</v>
+        <v>164</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8749,13 +8765,13 @@
         <v>80</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>80</v>
+        <v>462</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>80</v>
+        <v>463</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>80</v>
@@ -8773,13 +8789,13 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>80</v>
@@ -8788,38 +8804,38 @@
         <v>100</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>80</v>
+        <v>469</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>80</v>
@@ -8828,15 +8844,17 @@
         <v>89</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>164</v>
+        <v>470</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="L59" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>80</v>
@@ -8861,13 +8879,13 @@
         <v>80</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>475</v>
+        <v>80</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>476</v>
+        <v>80</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>80</v>
@@ -8885,7 +8903,7 @@
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8900,16 +8918,16 @@
         <v>100</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>80</v>
+        <v>474</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>80</v>
+        <v>475</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
@@ -8917,7 +8935,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8940,13 +8958,13 @@
         <v>89</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8973,13 +8991,13 @@
         <v>80</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>80</v>
+        <v>480</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>80</v>
+        <v>481</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>80</v>
@@ -8997,7 +9015,7 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -9018,18 +9036,18 @@
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9037,13 +9055,13 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>80</v>
@@ -9052,17 +9070,15 @@
         <v>89</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>164</v>
+        <v>484</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="M61" t="s" s="2">
         <v>485</v>
       </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>80</v>
@@ -9087,13 +9103,13 @@
         <v>80</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>486</v>
+        <v>80</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>487</v>
+        <v>80</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>80</v>
@@ -9111,7 +9127,7 @@
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -9126,24 +9142,24 @@
         <v>100</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>488</v>
+        <v>80</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>489</v>
+        <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9151,13 +9167,13 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>80</v>
@@ -9166,16 +9182,16 @@
         <v>89</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>493</v>
+        <v>164</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9201,13 +9217,13 @@
         <v>80</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>80</v>
+        <v>491</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>80</v>
+        <v>492</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>80</v>
@@ -9225,7 +9241,7 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9240,16 +9256,16 @@
         <v>100</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>80</v>
@@ -9257,7 +9273,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9277,18 +9293,20 @@
         <v>80</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="K63" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>80</v>
@@ -9337,7 +9355,7 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9352,28 +9370,28 @@
         <v>100</v>
       </c>
       <c r="AJ63" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="AK63" t="s" s="2">
+      <c r="AM63" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>508</v>
+        <v>80</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9383,7 +9401,7 @@
         <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>80</v>
@@ -9392,17 +9410,15 @@
         <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>512</v>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>80</v>
@@ -9451,7 +9467,7 @@
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9466,13 +9482,13 @@
         <v>100</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
@@ -9483,11 +9499,11 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>80</v>
+        <v>513</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9503,19 +9519,19 @@
         <v>80</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9565,7 +9581,7 @@
         <v>80</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9580,38 +9596,38 @@
         <v>100</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>80</v>
+        <v>518</v>
       </c>
       <c r="AK65" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" hidden="true">
-      <c r="A66" t="s" s="2">
-        <v>523</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>524</v>
+        <v>80</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>80</v>
@@ -9620,20 +9636,18 @@
         <v>89</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>164</v>
+        <v>522</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="L66" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>528</v>
-      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>80</v>
       </c>
@@ -9657,13 +9671,13 @@
         <v>80</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>529</v>
+        <v>80</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>530</v>
+        <v>80</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>80</v>
@@ -9681,7 +9695,7 @@
         <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9699,32 +9713,32 @@
         <v>80</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>532</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>80</v>
+        <v>529</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>80</v>
@@ -9733,19 +9747,23 @@
         <v>80</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>90</v>
+        <v>164</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>150</v>
+        <v>530</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
+        <v>531</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>533</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>80</v>
       </c>
@@ -9769,13 +9787,13 @@
         <v>80</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>80</v>
+        <v>534</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>80</v>
+        <v>535</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>80</v>
@@ -9793,50 +9811,50 @@
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>152</v>
+        <v>528</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>80</v>
+        <v>526</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>153</v>
+        <v>536</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>80</v>
+        <v>537</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>214</v>
+        <v>80</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>80</v>
@@ -9848,17 +9866,15 @@
         <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>235</v>
+        <v>150</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>80</v>
@@ -9895,31 +9911,31 @@
         <v>80</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="AC68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>80</v>
@@ -9939,20 +9955,18 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>535</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>80</v>
@@ -9964,15 +9978,17 @@
         <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>536</v>
+        <v>134</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>537</v>
+        <v>240</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="M69" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>80</v>
@@ -10009,16 +10025,16 @@
         <v>80</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="AC69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AE69" t="s" s="2">
         <v>156</v>
@@ -10042,7 +10058,7 @@
         <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>80</v>
+        <v>153</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>80</v>
@@ -10055,7 +10071,9 @@
       <c r="A70" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="B70" s="2"/>
+      <c r="B70" t="s" s="2">
+        <v>540</v>
+      </c>
       <c r="C70" t="s" s="2">
         <v>80</v>
       </c>
@@ -10064,7 +10082,7 @@
         <v>78</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>80</v>
@@ -10073,23 +10091,19 @@
         <v>80</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="M70" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="N70" t="s" s="2">
-        <v>544</v>
-      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>80</v>
       </c>
@@ -10137,7 +10151,7 @@
         <v>80</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>545</v>
+        <v>156</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10149,16 +10163,16 @@
         <v>80</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>546</v>
+        <v>80</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>547</v>
+        <v>80</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>80</v>
@@ -10169,7 +10183,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10180,7 +10194,7 @@
         <v>78</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>80</v>
@@ -10192,19 +10206,19 @@
         <v>89</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>90</v>
+        <v>545</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="N71" t="s" s="2">
         <v>549</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>552</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>80</v>
@@ -10253,13 +10267,13 @@
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>80</v>
@@ -10271,10 +10285,10 @@
         <v>80</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>80</v>
@@ -10283,9 +10297,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10296,28 +10310,32 @@
         <v>78</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I72" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J72" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="N72" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="K72" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>80</v>
       </c>
@@ -10365,13 +10383,13 @@
         <v>80</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>80</v>
@@ -10380,10 +10398,10 @@
         <v>100</v>
       </c>
       <c r="AJ72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK72" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>560</v>
@@ -10392,12 +10410,12 @@
         <v>80</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>561</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10408,7 +10426,7 @@
         <v>78</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>89</v>
@@ -10417,16 +10435,16 @@
         <v>80</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>90</v>
+        <v>562</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>563</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>564</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10477,13 +10495,13 @@
         <v>80</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>80</v>
@@ -10492,10 +10510,10 @@
         <v>100</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>80</v>
+        <v>564</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>565</v>
@@ -10504,12 +10522,12 @@
         <v>80</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>80</v>
+        <v>566</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10520,19 +10538,19 @@
         <v>78</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>567</v>
+        <v>90</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>568</v>
@@ -10540,9 +10558,7 @@
       <c r="L74" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="M74" t="s" s="2">
-        <v>570</v>
-      </c>
+      <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>80</v>
@@ -10591,13 +10607,13 @@
         <v>80</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>80</v>
@@ -10606,23 +10622,137 @@
         <v>100</v>
       </c>
       <c r="AJ74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="AK74" t="s" s="2">
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AK75" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="AL74" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN74" t="s" s="2">
+      <c r="AL75" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN75" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN74">
+  <autoFilter ref="A1:AN75">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10632,7 +10762,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI73">
+  <conditionalFormatting sqref="A2:AI74">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-lab-prescription.xlsx
+++ b/StructureDefinition-be-lab-prescription.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2730" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2730" uniqueCount="580">
   <si>
     <t>Property</t>
   </si>
@@ -676,11 +676,17 @@
     <t>BeTaskReference</t>
   </si>
   <si>
-    <t>pps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-pps-info}
+    <t>pss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-pss-info}
 </t>
+  </si>
+  <si>
+    <t>BePSSInfo</t>
+  </si>
+  <si>
+    <t>Prescription Search Support Info</t>
   </si>
   <si>
     <t>recorder</t>
@@ -4977,10 +4983,10 @@
         <v>211</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -5066,7 +5072,7 @@
         <v>132</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>80</v>
@@ -5088,10 +5094,10 @@
         <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>136</v>
@@ -5180,7 +5186,7 @@
         <v>132</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>80</v>
@@ -5202,10 +5208,10 @@
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L27" t="s" s="2">
         <v>136</v>
@@ -5291,11 +5297,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -5317,16 +5323,16 @@
         <v>134</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>80</v>
@@ -5375,7 +5381,7 @@
         <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5407,7 +5413,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5430,16 +5436,16 @@
         <v>89</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5477,7 +5483,7 @@
         <v>80</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AB29" s="2"/>
       <c r="AC29" t="s" s="2">
@@ -5487,7 +5493,7 @@
         <v>138</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5502,27 +5508,27 @@
         <v>100</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>80</v>
@@ -5544,16 +5550,16 @@
         <v>89</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5603,7 +5609,7 @@
         <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5618,24 +5624,24 @@
         <v>100</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5747,11 +5753,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5773,13 +5779,13 @@
         <v>134</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5861,7 +5867,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5887,16 +5893,16 @@
         <v>108</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>80</v>
@@ -5921,13 +5927,13 @@
         <v>80</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>80</v>
@@ -5945,7 +5951,7 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5966,7 +5972,7 @@
         <v>131</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>80</v>
@@ -5977,7 +5983,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6003,16 +6009,16 @@
         <v>164</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>80</v>
@@ -6040,10 +6046,10 @@
         <v>173</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>80</v>
@@ -6061,7 +6067,7 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -6079,10 +6085,10 @@
         <v>80</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>80</v>
@@ -6093,7 +6099,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6119,29 +6125,29 @@
         <v>102</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="R35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>80</v>
@@ -6177,7 +6183,7 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -6195,10 +6201,10 @@
         <v>80</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>80</v>
@@ -6209,7 +6215,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6235,13 +6241,13 @@
         <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6255,7 +6261,7 @@
         <v>80</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>80</v>
@@ -6291,7 +6297,7 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6309,10 +6315,10 @@
         <v>80</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
@@ -6323,7 +6329,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6346,13 +6352,13 @@
         <v>89</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6403,7 +6409,7 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6421,10 +6427,10 @@
         <v>80</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
@@ -6435,7 +6441,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6458,16 +6464,16 @@
         <v>89</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6517,7 +6523,7 @@
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6535,10 +6541,10 @@
         <v>80</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>80</v>
@@ -6549,7 +6555,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6572,16 +6578,16 @@
         <v>89</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6631,7 +6637,7 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6646,13 +6652,13 @@
         <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>147</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>80</v>
@@ -6663,7 +6669,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6689,13 +6695,13 @@
         <v>102</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6745,7 +6751,7 @@
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6760,13 +6766,13 @@
         <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>147</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>80</v>
@@ -6777,11 +6783,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6800,13 +6806,13 @@
         <v>89</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6857,7 +6863,7 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6872,13 +6878,13 @@
         <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>80</v>
@@ -6889,11 +6895,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6912,13 +6918,13 @@
         <v>89</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6969,7 +6975,7 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6984,13 +6990,13 @@
         <v>100</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>80</v>
@@ -7001,11 +7007,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -7024,19 +7030,19 @@
         <v>89</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>80</v>
@@ -7085,7 +7091,7 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -7100,13 +7106,13 @@
         <v>100</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>80</v>
@@ -7117,7 +7123,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7143,13 +7149,13 @@
         <v>108</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7175,13 +7181,13 @@
         <v>80</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>80</v>
@@ -7199,7 +7205,7 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>88</v>
@@ -7214,24 +7220,24 @@
         <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7257,13 +7263,13 @@
         <v>108</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7289,13 +7295,13 @@
         <v>80</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>80</v>
@@ -7313,7 +7319,7 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>88</v>
@@ -7328,16 +7334,16 @@
         <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>131</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>80</v>
@@ -7345,7 +7351,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7371,16 +7377,16 @@
         <v>164</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>80</v>
@@ -7409,7 +7415,7 @@
       </c>
       <c r="X46" s="2"/>
       <c r="Y46" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>80</v>
@@ -7427,7 +7433,7 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7445,13 +7451,13 @@
         <v>80</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>80</v>
@@ -7459,7 +7465,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7485,10 +7491,10 @@
         <v>108</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7496,7 +7502,7 @@
         <v>80</v>
       </c>
       <c r="P47" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q47" t="s" s="2">
         <v>80</v>
@@ -7517,13 +7523,13 @@
         <v>80</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>80</v>
@@ -7541,7 +7547,7 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7556,16 +7562,16 @@
         <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>80</v>
@@ -7573,7 +7579,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7596,70 +7602,70 @@
         <v>89</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P48" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="Q48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE48" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P48" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="Q48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7674,13 +7680,13 @@
         <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>80</v>
@@ -7691,7 +7697,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7714,16 +7720,16 @@
         <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7752,10 +7758,10 @@
         <v>167</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>80</v>
@@ -7773,7 +7779,7 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7791,10 +7797,10 @@
         <v>80</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>80</v>
@@ -7805,7 +7811,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7828,16 +7834,16 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7866,10 +7872,10 @@
         <v>167</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>80</v>
@@ -7887,7 +7893,7 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7905,10 +7911,10 @@
         <v>80</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>80</v>
@@ -7919,7 +7925,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7942,17 +7948,17 @@
         <v>89</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>80</v>
@@ -8001,7 +8007,7 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -8019,10 +8025,10 @@
         <v>80</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>80</v>
@@ -8033,7 +8039,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8056,13 +8062,13 @@
         <v>89</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -8113,7 +8119,7 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>88</v>
@@ -8128,28 +8134,28 @@
         <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -8168,13 +8174,13 @@
         <v>89</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8225,7 +8231,7 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8240,28 +8246,28 @@
         <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8280,13 +8286,13 @@
         <v>89</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8337,7 +8343,7 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8352,24 +8358,24 @@
         <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8392,13 +8398,13 @@
         <v>89</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8428,10 +8434,10 @@
         <v>167</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>80</v>
@@ -8449,7 +8455,7 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8470,22 +8476,22 @@
         <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8504,13 +8510,13 @@
         <v>89</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8561,7 +8567,7 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8576,28 +8582,28 @@
         <v>100</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8616,16 +8622,16 @@
         <v>89</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8675,7 +8681,7 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8690,28 +8696,28 @@
         <v>100</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8733,13 +8739,13 @@
         <v>164</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8768,10 +8774,10 @@
         <v>167</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>80</v>
@@ -8789,7 +8795,7 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8804,16 +8810,16 @@
         <v>100</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>
@@ -8821,11 +8827,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8844,16 +8850,16 @@
         <v>89</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8903,7 +8909,7 @@
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8918,16 +8924,16 @@
         <v>100</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
@@ -8935,7 +8941,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8961,10 +8967,10 @@
         <v>164</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8994,10 +9000,10 @@
         <v>167</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>80</v>
@@ -9015,7 +9021,7 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -9036,10 +9042,10 @@
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>80</v>
@@ -9047,7 +9053,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9070,13 +9076,13 @@
         <v>89</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9127,7 +9133,7 @@
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -9148,10 +9154,10 @@
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>80</v>
@@ -9159,7 +9165,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9185,13 +9191,13 @@
         <v>164</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9220,10 +9226,10 @@
         <v>167</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>80</v>
@@ -9241,7 +9247,7 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9256,16 +9262,16 @@
         <v>100</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>80</v>
@@ -9273,7 +9279,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9296,16 +9302,16 @@
         <v>89</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9355,7 +9361,7 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9370,16 +9376,16 @@
         <v>100</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>80</v>
@@ -9387,7 +9393,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9410,13 +9416,13 @@
         <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9467,7 +9473,7 @@
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9482,13 +9488,13 @@
         <v>100</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
@@ -9499,11 +9505,11 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9522,16 +9528,16 @@
         <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9581,7 +9587,7 @@
         <v>80</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9596,13 +9602,13 @@
         <v>100</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>80</v>
@@ -9613,7 +9619,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9636,16 +9642,16 @@
         <v>89</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9695,7 +9701,7 @@
         <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9713,10 +9719,10 @@
         <v>80</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
@@ -9727,11 +9733,11 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9753,16 +9759,16 @@
         <v>164</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>80</v>
@@ -9790,10 +9796,10 @@
         <v>167</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>80</v>
@@ -9811,7 +9817,7 @@
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -9829,21 +9835,21 @@
         <v>80</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9955,11 +9961,11 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9981,13 +9987,13 @@
         <v>134</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10069,10 +10075,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C70" t="s" s="2">
         <v>80</v>
@@ -10094,13 +10100,13 @@
         <v>80</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10183,7 +10189,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10206,19 +10212,19 @@
         <v>89</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>80</v>
@@ -10267,7 +10273,7 @@
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10285,10 +10291,10 @@
         <v>80</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>80</v>
@@ -10299,7 +10305,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10325,16 +10331,16 @@
         <v>90</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>80</v>
@@ -10383,7 +10389,7 @@
         <v>80</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -10401,10 +10407,10 @@
         <v>80</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>80</v>
@@ -10415,7 +10421,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10438,13 +10444,13 @@
         <v>80</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>49</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10495,7 +10501,7 @@
         <v>80</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -10510,24 +10516,24 @@
         <v>100</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10553,10 +10559,10 @@
         <v>90</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10607,7 +10613,7 @@
         <v>80</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
@@ -10625,10 +10631,10 @@
         <v>80</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>80</v>
@@ -10639,7 +10645,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10662,16 +10668,16 @@
         <v>80</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10721,7 +10727,7 @@
         <v>80</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
@@ -10736,13 +10742,13 @@
         <v>100</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>131</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>80</v>

--- a/StructureDefinition-be-lab-prescription.xlsx
+++ b/StructureDefinition-be-lab-prescription.xlsx
@@ -578,11 +578,11 @@
     <t>coprescriber</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-co-prescriber}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-co-prescriber-info}
 </t>
   </si>
   <si>
-    <t>Other parties that have to take part in the prescription.</t>
+    <t>Info about the other parties that have to take part in the prescription.</t>
   </si>
   <si>
     <t>Other practitioners that must take part in this prescripiton</t>
@@ -4056,7 +4056,7 @@
         <v>78</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>89</v>
@@ -4626,7 +4626,7 @@
         <v>88</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>89</v>

--- a/StructureDefinition-be-lab-prescription.xlsx
+++ b/StructureDefinition-be-lab-prescription.xlsx
@@ -429,7 +429,7 @@
     <t>ServiceRequest.extension</t>
   </si>
   <si>
-    <t>3</t>
+    <t>2</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
@@ -640,17 +640,17 @@
     <t>Request must leave draft status before</t>
   </si>
   <si>
-    <t>performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-intended-performer}
+    <t>performertasks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-performer-task-reference}
 </t>
   </si>
   <si>
-    <t>Takes the place of performer and performerType</t>
-  </si>
-  <si>
-    <t>Intended performers for this request</t>
+    <t>BePerformerTaskReference</t>
+  </si>
+  <si>
+    <t>List of references to the tasks performed by each performer</t>
   </si>
   <si>
     <t>proposalType</t>
@@ -1506,11 +1506,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CareTeam|HealthcareService|Device|RelatedPerson|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitioner|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitionerrole|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-patient|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-organization)
+    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitionerrole)
 </t>
   </si>
   <si>
-    <t>Requested performer - typically reference to practitioner but could also be reference to related person by business identifier or Reference.display</t>
+    <t>Requested performer - typically reference to practitionerroles</t>
   </si>
   <si>
     <t>The desired performer for doing the requested service.  For example, the surgeon, dermatopathologist, endoscopist, etc.</t>
@@ -2193,7 +2193,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="135.171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="102.86328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4623,7 +4623,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>79</v>
@@ -8838,7 +8838,7 @@
         <v>78</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>89</v>

--- a/StructureDefinition-be-lab-prescription.xlsx
+++ b/StructureDefinition-be-lab-prescription.xlsx
@@ -2184,43 +2184,43 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="35.71484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.25" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.25390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="102.86328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="126.34765625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="83.01171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="35.71484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="85.41796875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="163.44140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="163.4453125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="66.88671875" customWidth="true" bestFit="true"/>
   </cols>

--- a/StructureDefinition-be-lab-prescription.xlsx
+++ b/StructureDefinition-be-lab-prescription.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$67</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2730" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2441" uniqueCount="546">
   <si>
     <t>Property</t>
   </si>
@@ -291,200 +291,204 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>ServiceRequest.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>ServiceRequest.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>ServiceRequest.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>ServiceRequest.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>ServiceRequest.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>statusReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {request-statusReason}
+</t>
+  </si>
+  <si>
+    <t>Reason for current status</t>
+  </si>
+  <si>
+    <t>Captures the reason for the current state of the resource.</t>
+  </si>
+  <si>
+    <t>This is generally only used for "exception" statuses such as "suspended" or "cancelled".  The reason for performing the request at all is captured in reasonCode, not here.  (Distinct reason codes for different statuses can be enforced using invariants if they are universal bindings).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Varies by domain</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN].reasonCOde</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>ServiceRequest.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>ServiceRequest.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>ServiceRequest.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>ServiceRequest.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>ServiceRequest.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>ServiceRequest.extension</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>statusReason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {request-statusReason}
-</t>
-  </si>
-  <si>
-    <t>Reason for current status</t>
-  </si>
-  <si>
-    <t>Captures the reason for the current state of the resource.</t>
-  </si>
-  <si>
-    <t>This is generally only used for "exception" statuses such as "suspended" or "cancelled".  The reason for performing the request at all is captured in reasonCode, not here.  (Distinct reason codes for different statuses can be enforced using invariants if they are universal bindings).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>Varies by domain</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN].reasonCOde</t>
-  </si>
-  <si>
-    <t>ServiceRequest.extension.id</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -562,27 +566,24 @@
     <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-reason-referral-status</t>
   </si>
   <si>
-    <t>feedback</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-feedback-to-prescriber}
+    <t>informParty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-inform-party}
 </t>
   </si>
   <si>
-    <t>Give feedback to the prescriber</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
+    <t>Parties to inform of fulfillment of the prescription, besides the prescriber.</t>
   </si>
   <si>
     <t>coprescriber</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-co-prescriber-info}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-co-prescriber}
 </t>
   </si>
   <si>
-    <t>Info about the other parties that have to take part in the prescription.</t>
+    <t>Other parties that have to take part in the prescription.</t>
   </si>
   <si>
     <t>Other practitioners that must take part in this prescripiton</t>
@@ -617,7 +618,7 @@
     <t>latest</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-latest-end-date}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-lastest-end-date}
 </t>
   </si>
   <si>
@@ -627,30 +628,17 @@
     <t>Request must be performed before</t>
   </si>
   <si>
-    <t>latestDraft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-latest-draft-date}
+    <t>performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-intended-performer}
 </t>
   </si>
   <si>
-    <t>The prescription must have left the draft status befor this moment</t>
-  </si>
-  <si>
-    <t>Request must leave draft status before</t>
-  </si>
-  <si>
-    <t>performertasks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-performer-task-reference}
-</t>
-  </si>
-  <si>
-    <t>BePerformerTaskReference</t>
-  </si>
-  <si>
-    <t>List of references to the tasks performed by each performer</t>
+    <t>Takes the place of performer and performerType</t>
+  </si>
+  <si>
+    <t>Intended performers for this request</t>
   </si>
   <si>
     <t>proposalType</t>
@@ -674,29 +662,6 @@
   </si>
   <si>
     <t>BeTaskReference</t>
-  </si>
-  <si>
-    <t>pss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-pss-info}
-</t>
-  </si>
-  <si>
-    <t>BePSSInfo</t>
-  </si>
-  <si>
-    <t>Prescription Search Support Info</t>
-  </si>
-  <si>
-    <t>recorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-ext-recorder}
-</t>
-  </si>
-  <si>
-    <t>The person responsable for this information, not necessarily the person who recorded the information</t>
   </si>
   <si>
     <t>urgentCommunication</t>
@@ -1506,11 +1471,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitionerrole)
+    <t xml:space="preserve">Reference(CareTeam|HealthcareService|Device|RelatedPerson|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitioner|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitionerrole|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-patient|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-organization)
 </t>
   </si>
   <si>
-    <t>Requested performer - typically reference to practitionerroles</t>
+    <t>Requested performer - typically reference to practitioner but could also be reference to related person by business identifier or Reference.display</t>
   </si>
   <si>
     <t>The desired performer for doing the requested service.  For example, the surgeon, dermatopathologist, endoscopist, etc.</t>
@@ -1721,77 +1686,6 @@
   </si>
   <si>
     <t>Procedure.targetBodySite</t>
-  </si>
-  <si>
-    <t>ServiceRequest.bodySite.id</t>
-  </si>
-  <si>
-    <t>ServiceRequest.bodySite.extension</t>
-  </si>
-  <si>
-    <t>bodyLaterality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/core-clinical/StructureDefinition/be-ext-laterality}
-</t>
-  </si>
-  <si>
-    <t>BeExtLaterality</t>
-  </si>
-  <si>
-    <t>An explicit statement of laterality of a lesion, or a treatment, etc.</t>
-  </si>
-  <si>
-    <t>ServiceRequest.bodySite.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>ServiceRequest.bodySite.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>ServiceRequest.note</t>
@@ -2174,7 +2068,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN75"/>
+  <dimension ref="A1:AN67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2193,7 +2087,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="102.86328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="135.17578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3392,13 +3286,13 @@
         <v>80</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3449,7 +3343,7 @@
         <v>80</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>78</v>
@@ -3470,7 +3364,7 @@
         <v>80</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>80</v>
@@ -3481,7 +3375,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3552,7 +3446,7 @@
         <v>137</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>80</v>
@@ -3561,7 +3455,7 @@
         <v>138</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>78</v>
@@ -3593,7 +3487,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3619,13 +3513,13 @@
         <v>102</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3633,7 +3527,7 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>80</v>
@@ -3675,7 +3569,7 @@
         <v>80</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>88</v>
@@ -3707,7 +3601,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3730,13 +3624,13 @@
         <v>80</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3763,10 +3657,10 @@
         <v>80</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Y14" t="s" s="2">
         <v>80</v>
@@ -3775,17 +3669,17 @@
         <v>80</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>78</v>
@@ -3817,10 +3711,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>80</v>
@@ -3842,13 +3736,13 @@
         <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3875,11 +3769,11 @@
         <v>80</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>80</v>
@@ -3897,7 +3791,7 @@
         <v>80</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>78</v>
@@ -3932,7 +3826,7 @@
         <v>132</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>80</v>
@@ -3942,7 +3836,7 @@
         <v>78</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>89</v>
@@ -3954,13 +3848,13 @@
         <v>80</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>178</v>
+        <v>136</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -4032,7 +3926,7 @@
         <v>80</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>80</v>
@@ -4056,7 +3950,7 @@
         <v>78</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>89</v>
@@ -4509,7 +4403,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>88</v>
@@ -4626,7 +4520,7 @@
         <v>78</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>89</v>
@@ -4758,7 +4652,7 @@
         <v>205</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4839,12 +4733,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
         <v>132</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>80</v>
@@ -4857,7 +4751,7 @@
         <v>88</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>80</v>
@@ -4866,13 +4760,13 @@
         <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="K24" t="s" s="2">
-        <v>209</v>
-      </c>
       <c r="L24" t="s" s="2">
-        <v>209</v>
+        <v>136</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4932,7 +4826,7 @@
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>140</v>
@@ -4953,43 +4847,45 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="B25" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H25" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H25" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="I25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+      <c r="N25" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>80</v>
       </c>
@@ -5037,7 +4933,7 @@
         <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>139</v>
+        <v>215</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -5046,7 +4942,7 @@
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>140</v>
@@ -5058,7 +4954,7 @@
         <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>80</v>
@@ -5067,13 +4963,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
         <v>80</v>
       </c>
@@ -5082,7 +4976,7 @@
         <v>78</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>89</v>
@@ -5091,18 +4985,20 @@
         <v>80</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>80</v>
@@ -5139,19 +5035,17 @@
         <v>80</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="AB26" s="2"/>
       <c r="AC26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>139</v>
+        <v>216</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -5160,33 +5054,33 @@
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>80</v>
+        <v>222</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>80</v>
+        <v>224</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>80</v>
+        <v>225</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>80</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>132</v>
+        <v>216</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>80</v>
@@ -5205,18 +5099,20 @@
         <v>80</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M27" s="2"/>
+      <c r="M27" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>80</v>
@@ -5265,7 +5161,7 @@
         <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>139</v>
+        <v>216</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5277,63 +5173,59 @@
         <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>80</v>
+        <v>222</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>80</v>
+        <v>224</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>80</v>
+        <v>225</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>80</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>221</v>
+        <v>80</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>80</v>
       </c>
@@ -5381,19 +5273,19 @@
         <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>226</v>
+        <v>153</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>80</v>
@@ -5402,7 +5294,7 @@
         <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>80</v>
@@ -5413,11 +5305,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5427,25 +5319,25 @@
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>228</v>
+        <v>134</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5483,9 +5375,11 @@
         <v>80</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AB29" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="AC29" t="s" s="2">
         <v>80</v>
       </c>
@@ -5493,7 +5387,7 @@
         <v>138</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>227</v>
+        <v>157</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5505,31 +5399,29 @@
         <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>233</v>
+        <v>80</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>234</v>
+        <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>235</v>
+        <v>154</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>236</v>
+        <v>80</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>237</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
         <v>80</v>
       </c>
@@ -5544,24 +5436,26 @@
         <v>80</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>228</v>
+        <v>108</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>80</v>
       </c>
@@ -5585,13 +5479,13 @@
         <v>80</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>80</v>
+        <v>238</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>80</v>
+        <v>239</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>80</v>
@@ -5609,13 +5503,13 @@
         <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>80</v>
@@ -5624,24 +5518,24 @@
         <v>100</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>233</v>
+        <v>80</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>234</v>
+        <v>131</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>236</v>
+        <v>80</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>237</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5661,19 +5555,23 @@
         <v>80</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>150</v>
+        <v>244</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>80</v>
       </c>
@@ -5697,13 +5595,13 @@
         <v>80</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>80</v>
+        <v>248</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>80</v>
+        <v>249</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>80</v>
@@ -5721,7 +5619,7 @@
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>152</v>
+        <v>250</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5733,16 +5631,16 @@
         <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>80</v>
+        <v>251</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>153</v>
+        <v>242</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>80</v>
@@ -5753,18 +5651,18 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>221</v>
+        <v>80</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>80</v>
@@ -5773,33 +5671,35 @@
         <v>80</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>80</v>
+        <v>257</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>80</v>
+        <v>258</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>80</v>
@@ -5823,40 +5723,40 @@
         <v>80</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>156</v>
+        <v>259</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>80</v>
+        <v>260</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>153</v>
+        <v>261</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
@@ -5867,7 +5767,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5875,7 +5775,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>88</v>
@@ -5884,26 +5784,24 @@
         <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>80</v>
       </c>
@@ -5915,7 +5813,7 @@
         <v>80</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>80</v>
+        <v>266</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>80</v>
@@ -5927,13 +5825,13 @@
         <v>80</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>249</v>
+        <v>80</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>251</v>
+        <v>80</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>80</v>
@@ -5951,7 +5849,7 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5969,10 +5867,10 @@
         <v>80</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>131</v>
+        <v>268</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>80</v>
@@ -5983,7 +5881,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6006,20 +5904,16 @@
         <v>89</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>164</v>
+        <v>271</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>80</v>
       </c>
@@ -6043,13 +5937,13 @@
         <v>80</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>259</v>
+        <v>80</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>260</v>
+        <v>80</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>80</v>
@@ -6067,7 +5961,7 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -6085,10 +5979,10 @@
         <v>80</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>80</v>
@@ -6099,7 +5993,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6107,7 +6001,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>88</v>
@@ -6122,32 +6016,30 @@
         <v>89</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>102</v>
+        <v>278</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>268</v>
+        <v>80</v>
       </c>
       <c r="R35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>269</v>
+        <v>80</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>80</v>
@@ -6183,7 +6075,7 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -6201,10 +6093,10 @@
         <v>80</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>80</v>
@@ -6215,7 +6107,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6223,10 +6115,10 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>80</v>
@@ -6238,16 +6130,16 @@
         <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>90</v>
+        <v>286</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6261,7 +6153,7 @@
         <v>80</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>277</v>
+        <v>80</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>80</v>
@@ -6297,13 +6189,13 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>80</v>
@@ -6312,13 +6204,13 @@
         <v>100</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>80</v>
+        <v>290</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>279</v>
+        <v>147</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
@@ -6329,7 +6221,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6340,7 +6232,7 @@
         <v>78</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>80</v>
@@ -6352,15 +6244,17 @@
         <v>89</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>282</v>
+        <v>102</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>80</v>
@@ -6409,13 +6303,13 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>80</v>
@@ -6424,13 +6318,13 @@
         <v>100</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>80</v>
+        <v>296</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>286</v>
+        <v>147</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
@@ -6439,23 +6333,23 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>80</v>
+        <v>298</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>80</v>
@@ -6464,17 +6358,15 @@
         <v>89</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>80</v>
@@ -6523,13 +6415,13 @@
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>80</v>
@@ -6538,13 +6430,13 @@
         <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>80</v>
+        <v>302</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>80</v>
@@ -6553,13 +6445,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>80</v>
+        <v>306</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6569,7 +6461,7 @@
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>80</v>
@@ -6578,17 +6470,15 @@
         <v>89</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>80</v>
@@ -6637,7 +6527,7 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6652,13 +6542,13 @@
         <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>147</v>
+        <v>311</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>80</v>
@@ -6667,23 +6557,23 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>80</v>
+        <v>314</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>80</v>
@@ -6692,18 +6582,20 @@
         <v>89</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>102</v>
+        <v>217</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>80</v>
       </c>
@@ -6751,13 +6643,13 @@
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>80</v>
@@ -6766,13 +6658,13 @@
         <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>147</v>
+        <v>320</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>80</v>
@@ -6783,38 +6675,40 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>309</v>
+        <v>80</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>310</v>
+        <v>108</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>80</v>
@@ -6839,13 +6733,13 @@
         <v>80</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>80</v>
+        <v>238</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>80</v>
+        <v>326</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>80</v>
+        <v>327</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>80</v>
@@ -6863,13 +6757,13 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>80</v>
@@ -6878,55 +6772,57 @@
         <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>80</v>
+        <v>331</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>80</v>
+        <v>332</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>317</v>
+        <v>80</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>318</v>
+        <v>108</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>80</v>
@@ -6951,13 +6847,13 @@
         <v>80</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>80</v>
+        <v>238</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>80</v>
+        <v>337</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>80</v>
+        <v>338</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>80</v>
@@ -6975,13 +6871,13 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>80</v>
@@ -6990,16 +6886,16 @@
         <v>100</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>322</v>
+        <v>131</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>80</v>
+        <v>341</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>80</v>
@@ -7007,15 +6903,15 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>325</v>
+        <v>80</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>88</v>
@@ -7030,19 +6926,19 @@
         <v>89</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>228</v>
+        <v>165</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>80</v>
@@ -7067,13 +6963,11 @@
         <v>80</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X43" s="2"/>
       <c r="Y43" t="s" s="2">
-        <v>80</v>
+        <v>347</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>80</v>
@@ -7091,13 +6985,13 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>80</v>
@@ -7106,16 +7000,16 @@
         <v>100</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>80</v>
+        <v>341</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
@@ -7123,7 +7017,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7131,7 +7025,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>88</v>
@@ -7140,7 +7034,7 @@
         <v>89</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>89</v>
@@ -7149,19 +7043,19 @@
         <v>108</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P44" s="2"/>
+      <c r="P44" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="Q44" t="s" s="2">
         <v>80</v>
       </c>
@@ -7181,13 +7075,13 @@
         <v>80</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>80</v>
@@ -7205,10 +7099,10 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>88</v>
@@ -7220,24 +7114,24 @@
         <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>343</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7245,13 +7139,13 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>89</v>
@@ -7260,22 +7154,26 @@
         <v>89</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>108</v>
+        <v>361</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P45" s="2"/>
+      <c r="P45" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="Q45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7295,13 +7193,13 @@
         <v>80</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>249</v>
+        <v>80</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>348</v>
+        <v>80</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>349</v>
+        <v>80</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>80</v>
@@ -7319,10 +7217,10 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>88</v>
@@ -7334,16 +7232,16 @@
         <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>352</v>
+        <v>80</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>80</v>
@@ -7351,7 +7249,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7359,7 +7257,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>88</v>
@@ -7371,23 +7269,21 @@
         <v>80</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>164</v>
+        <v>370</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>80</v>
       </c>
@@ -7411,11 +7307,13 @@
         <v>80</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="X46" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="Y46" t="s" s="2">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>80</v>
@@ -7433,16 +7331,16 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>100</v>
@@ -7451,13 +7349,13 @@
         <v>80</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>352</v>
+        <v>80</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>80</v>
@@ -7465,7 +7363,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7476,7 +7374,7 @@
         <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>89</v>
@@ -7485,25 +7383,25 @@
         <v>80</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>108</v>
+        <v>370</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P47" t="s" s="2">
-        <v>364</v>
-      </c>
+      <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7523,13 +7421,13 @@
         <v>80</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>249</v>
+        <v>168</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>80</v>
@@ -7547,31 +7445,31 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>367</v>
+        <v>80</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>370</v>
+        <v>80</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>80</v>
@@ -7579,7 +7477,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7596,32 +7494,28 @@
         <v>80</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P48" t="s" s="2">
-        <v>377</v>
-      </c>
+      <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
         <v>80</v>
       </c>
@@ -7665,7 +7559,7 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7680,13 +7574,13 @@
         <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>378</v>
+        <v>80</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>80</v>
@@ -7697,7 +7591,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7705,7 +7599,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>88</v>
@@ -7717,20 +7611,18 @@
         <v>80</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>80</v>
@@ -7755,13 +7647,13 @@
         <v>80</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>385</v>
+        <v>80</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>386</v>
+        <v>80</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>80</v>
@@ -7779,72 +7671,70 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>80</v>
+        <v>394</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>80</v>
+        <v>397</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>80</v>
+        <v>398</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I50" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J50" t="s" s="2">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>391</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>80</v>
@@ -7869,13 +7759,13 @@
         <v>80</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>392</v>
+        <v>80</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>393</v>
+        <v>80</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>80</v>
@@ -7893,53 +7783,53 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>80</v>
+        <v>404</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>80</v>
+        <v>407</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>80</v>
+        <v>408</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>80</v>
+        <v>410</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>80</v>
@@ -7948,18 +7838,16 @@
         <v>89</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="M51" s="2"/>
-      <c r="N51" t="s" s="2">
-        <v>398</v>
-      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>80</v>
       </c>
@@ -8007,7 +7895,7 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -8022,24 +7910,24 @@
         <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>80</v>
+        <v>414</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>80</v>
+        <v>417</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>80</v>
+        <v>418</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>401</v>
+        <v>419</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8047,13 +7935,13 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>80</v>
@@ -8062,13 +7950,13 @@
         <v>89</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>402</v>
+        <v>420</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -8095,13 +7983,13 @@
         <v>80</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>80</v>
+        <v>423</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>80</v>
+        <v>424</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>80</v>
@@ -8119,10 +8007,10 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>401</v>
+        <v>419</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>88</v>
@@ -8134,38 +8022,38 @@
         <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>405</v>
+        <v>80</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>406</v>
+        <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>407</v>
+        <v>425</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>408</v>
+        <v>80</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>409</v>
+        <v>426</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>80</v>
@@ -8174,13 +8062,13 @@
         <v>89</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8231,7 +8119,7 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8246,35 +8134,35 @@
         <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>419</v>
+        <v>436</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>89</v>
@@ -8286,15 +8174,17 @@
         <v>89</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>441</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>442</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>80</v>
@@ -8343,7 +8233,7 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8358,38 +8248,38 @@
         <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>425</v>
+        <v>443</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>426</v>
+        <v>444</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>429</v>
+        <v>447</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>430</v>
+        <v>448</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>80</v>
+        <v>449</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>80</v>
@@ -8398,15 +8288,17 @@
         <v>89</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>431</v>
+        <v>165</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>451</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>80</v>
@@ -8431,13 +8323,13 @@
         <v>80</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>435</v>
+        <v>454</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>80</v>
@@ -8455,7 +8347,7 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>430</v>
+        <v>448</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8470,35 +8362,35 @@
         <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>80</v>
+        <v>455</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>80</v>
+        <v>456</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>80</v>
+        <v>458</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>437</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>438</v>
+        <v>459</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>89</v>
@@ -8510,15 +8402,17 @@
         <v>89</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>440</v>
+        <v>461</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>464</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>80</v>
@@ -8567,13 +8461,13 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>438</v>
+        <v>459</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>80</v>
@@ -8582,38 +8476,38 @@
         <v>100</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>443</v>
+        <v>465</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>444</v>
+        <v>466</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>447</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>448</v>
+        <v>468</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>449</v>
+        <v>80</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>80</v>
@@ -8622,17 +8516,15 @@
         <v>89</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>450</v>
+        <v>165</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>453</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>80</v>
@@ -8657,13 +8549,13 @@
         <v>80</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>80</v>
+        <v>471</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>80</v>
+        <v>472</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>80</v>
@@ -8681,13 +8573,13 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>448</v>
+        <v>468</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>80</v>
@@ -8696,38 +8588,38 @@
         <v>100</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>454</v>
+        <v>80</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>455</v>
+        <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>458</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>460</v>
+        <v>80</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>80</v>
@@ -8736,17 +8628,15 @@
         <v>89</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>164</v>
+        <v>475</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>463</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>80</v>
@@ -8771,13 +8661,13 @@
         <v>80</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>464</v>
+        <v>80</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>465</v>
+        <v>80</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>80</v>
@@ -8795,13 +8685,13 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>80</v>
@@ -8810,16 +8700,16 @@
         <v>100</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>466</v>
+        <v>80</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>467</v>
+        <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>
@@ -8827,18 +8717,18 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>471</v>
+        <v>80</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>89</v>
@@ -8850,16 +8740,16 @@
         <v>89</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>472</v>
+        <v>165</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8885,13 +8775,13 @@
         <v>80</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>80</v>
+        <v>482</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>80</v>
+        <v>483</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>80</v>
@@ -8909,7 +8799,7 @@
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8924,16 +8814,16 @@
         <v>100</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>469</v>
+        <v>487</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
@@ -8941,7 +8831,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8964,15 +8854,17 @@
         <v>89</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>164</v>
+        <v>489</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="M60" s="2"/>
+        <v>491</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>492</v>
+      </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>80</v>
@@ -8997,13 +8889,13 @@
         <v>80</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>482</v>
+        <v>80</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>483</v>
+        <v>80</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>80</v>
@@ -9021,7 +8913,7 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -9036,16 +8928,16 @@
         <v>100</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>80</v>
+        <v>493</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>80</v>
+        <v>494</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>469</v>
+        <v>487</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>80</v>
@@ -9053,7 +8945,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9073,16 +8965,16 @@
         <v>80</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>480</v>
+        <v>498</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9133,7 +9025,7 @@
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -9148,16 +9040,16 @@
         <v>100</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>80</v>
+        <v>501</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>469</v>
+        <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>80</v>
@@ -9165,18 +9057,18 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>80</v>
+        <v>504</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>89</v>
@@ -9185,19 +9077,19 @@
         <v>80</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>164</v>
+        <v>505</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>490</v>
+        <v>506</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>491</v>
+        <v>507</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>492</v>
+        <v>508</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9223,13 +9115,13 @@
         <v>80</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>493</v>
+        <v>80</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>494</v>
+        <v>80</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>80</v>
@@ -9247,7 +9139,7 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9262,24 +9154,24 @@
         <v>100</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>495</v>
+        <v>509</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>496</v>
+        <v>510</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>498</v>
+        <v>80</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9293,7 +9185,7 @@
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>80</v>
@@ -9302,16 +9194,16 @@
         <v>89</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>502</v>
+        <v>515</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9361,7 +9253,7 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9376,16 +9268,16 @@
         <v>100</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>504</v>
+        <v>80</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>498</v>
+        <v>80</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>80</v>
@@ -9393,18 +9285,18 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>80</v>
+        <v>520</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>80</v>
@@ -9413,19 +9305,23 @@
         <v>80</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>508</v>
+        <v>165</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
+        <v>522</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>524</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>80</v>
       </c>
@@ -9449,13 +9345,13 @@
         <v>80</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>80</v>
+        <v>525</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>80</v>
+        <v>526</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>80</v>
@@ -9473,7 +9369,7 @@
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9488,28 +9384,28 @@
         <v>100</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>511</v>
+        <v>80</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>80</v>
+        <v>528</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>515</v>
+        <v>80</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9528,17 +9424,15 @@
         <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>517</v>
+        <v>49</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>519</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>80</v>
@@ -9587,7 +9481,7 @@
         <v>80</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9602,24 +9496,24 @@
         <v>100</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>521</v>
+        <v>388</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>80</v>
+        <v>534</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9630,7 +9524,7 @@
         <v>78</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>89</v>
@@ -9642,17 +9536,15 @@
         <v>89</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>524</v>
+        <v>150</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>527</v>
-      </c>
+        <v>537</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>80</v>
@@ -9701,13 +9593,13 @@
         <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>80</v>
@@ -9719,10 +9611,10 @@
         <v>80</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>528</v>
+        <v>388</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
@@ -9733,18 +9625,18 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>531</v>
+        <v>80</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>80</v>
@@ -9753,23 +9645,21 @@
         <v>80</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>164</v>
+        <v>540</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>535</v>
-      </c>
+        <v>543</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>80</v>
       </c>
@@ -9793,13 +9683,13 @@
         <v>80</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>536</v>
+        <v>80</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>537</v>
+        <v>80</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>80</v>
@@ -9817,7 +9707,7 @@
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -9832,933 +9722,23 @@
         <v>100</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>80</v>
+        <v>544</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>528</v>
+        <v>131</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F68" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="O68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="C70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
-      <c r="O70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
-      <c r="O73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
-      <c r="O74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN75" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN75">
+  <autoFilter ref="A1:AN67">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10768,7 +9748,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI74">
+  <conditionalFormatting sqref="A2:AI66">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-lab-prescription.xlsx
+++ b/StructureDefinition-be-lab-prescription.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$75</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2441" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2730" uniqueCount="581">
   <si>
     <t>Property</t>
   </si>
@@ -429,7 +429,7 @@
     <t>ServiceRequest.extension</t>
   </si>
   <si>
-    <t>3</t>
+    <t>2</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
@@ -566,24 +566,27 @@
     <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-reason-referral-status</t>
   </si>
   <si>
-    <t>informParty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-inform-party}
+    <t>feedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-feedback-to-prescriber}
 </t>
   </si>
   <si>
-    <t>Parties to inform of fulfillment of the prescription, besides the prescriber.</t>
+    <t>Give feedback to the prescriber</t>
+  </si>
+  <si>
+    <t>Optional Extension Element - found in all resources.</t>
   </si>
   <si>
     <t>coprescriber</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-co-prescriber}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-co-prescriber-info}
 </t>
   </si>
   <si>
-    <t>Other parties that have to take part in the prescription.</t>
+    <t>Info about the other parties that have to take part in the prescription.</t>
   </si>
   <si>
     <t>Other practitioners that must take part in this prescripiton</t>
@@ -618,7 +621,7 @@
     <t>latest</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-lastest-end-date}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-latest-end-date}
 </t>
   </si>
   <si>
@@ -628,17 +631,30 @@
     <t>Request must be performed before</t>
   </si>
   <si>
-    <t>performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-intended-performer}
+    <t>latestDraft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-latest-draft-date}
 </t>
   </si>
   <si>
-    <t>Takes the place of performer and performerType</t>
-  </si>
-  <si>
-    <t>Intended performers for this request</t>
+    <t>The prescription must have left the draft status befor this moment</t>
+  </si>
+  <si>
+    <t>Request must leave draft status before</t>
+  </si>
+  <si>
+    <t>performertasks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-performer-task-reference}
+</t>
+  </si>
+  <si>
+    <t>BePerformerTaskReference</t>
+  </si>
+  <si>
+    <t>List of references to the tasks performed by each performer</t>
   </si>
   <si>
     <t>proposalType</t>
@@ -662,6 +678,29 @@
   </si>
   <si>
     <t>BeTaskReference</t>
+  </si>
+  <si>
+    <t>pss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-pss-info}
+</t>
+  </si>
+  <si>
+    <t>BePSSInfo</t>
+  </si>
+  <si>
+    <t>Prescription Search Support Info</t>
+  </si>
+  <si>
+    <t>recorder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-ext-recorder}
+</t>
+  </si>
+  <si>
+    <t>The person responsable for this information, not necessarily the person who recorded the information</t>
   </si>
   <si>
     <t>urgentCommunication</t>
@@ -1471,11 +1510,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CareTeam|HealthcareService|Device|RelatedPerson|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitioner|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitionerrole|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-patient|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-organization)
+    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitionerrole)
 </t>
   </si>
   <si>
-    <t>Requested performer - typically reference to practitioner but could also be reference to related person by business identifier or Reference.display</t>
+    <t>Requested performer - typically reference to practitionerroles</t>
   </si>
   <si>
     <t>The desired performer for doing the requested service.  For example, the surgeon, dermatopathologist, endoscopist, etc.</t>
@@ -1686,6 +1725,77 @@
   </si>
   <si>
     <t>Procedure.targetBodySite</t>
+  </si>
+  <si>
+    <t>ServiceRequest.bodySite.id</t>
+  </si>
+  <si>
+    <t>ServiceRequest.bodySite.extension</t>
+  </si>
+  <si>
+    <t>bodyLaterality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/core-clinical/StructureDefinition/be-ext-laterality}
+</t>
+  </si>
+  <si>
+    <t>BeExtLaterality</t>
+  </si>
+  <si>
+    <t>An explicit statement of laterality of a lesion, or a treatment, etc.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.bodySite.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>ServiceRequest.bodySite.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>ServiceRequest.note</t>
@@ -2068,7 +2178,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN67"/>
+  <dimension ref="A1:AN75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2087,7 +2197,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="135.17578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="102.86328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3836,7 +3946,7 @@
         <v>78</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>89</v>
@@ -3854,7 +3964,7 @@
         <v>178</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3926,7 +4036,7 @@
         <v>80</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>80</v>
@@ -3940,7 +4050,7 @@
         <v>132</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>80</v>
@@ -3950,7 +4060,7 @@
         <v>78</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>89</v>
@@ -3962,13 +4072,13 @@
         <v>80</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -4054,7 +4164,7 @@
         <v>132</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>80</v>
@@ -4076,13 +4186,13 @@
         <v>80</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4168,7 +4278,7 @@
         <v>132</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>80</v>
@@ -4190,13 +4300,13 @@
         <v>80</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -4282,7 +4392,7 @@
         <v>132</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>80</v>
@@ -4304,13 +4414,13 @@
         <v>80</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4396,14 +4506,14 @@
         <v>132</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>88</v>
@@ -4418,13 +4528,13 @@
         <v>80</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4510,7 +4620,7 @@
         <v>132</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>80</v>
@@ -4520,7 +4630,7 @@
         <v>78</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>89</v>
@@ -4532,13 +4642,13 @@
         <v>80</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4624,7 +4734,7 @@
         <v>132</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>80</v>
@@ -4646,13 +4756,13 @@
         <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4733,12 +4843,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>132</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>80</v>
@@ -4751,7 +4861,7 @@
         <v>88</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>80</v>
@@ -4760,13 +4870,13 @@
         <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>136</v>
+        <v>210</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4826,7 +4936,7 @@
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>140</v>
@@ -4847,45 +4957,43 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="B25" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="C25" t="s" s="2">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>134</v>
+        <v>212</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N25" t="s" s="2">
         <v>214</v>
       </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>80</v>
       </c>
@@ -4933,7 +5041,7 @@
         <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>215</v>
+        <v>139</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4942,7 +5050,7 @@
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>140</v>
@@ -4954,7 +5062,7 @@
         <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>80</v>
@@ -4963,11 +5071,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="C26" t="s" s="2">
         <v>80</v>
       </c>
@@ -4976,7 +5086,7 @@
         <v>78</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>89</v>
@@ -4985,20 +5095,18 @@
         <v>80</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="K26" t="s" s="2">
-        <v>218</v>
-      </c>
       <c r="L26" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>80</v>
@@ -5035,17 +5143,19 @@
         <v>80</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AB26" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AC26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>216</v>
+        <v>139</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -5054,33 +5164,33 @@
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>222</v>
+        <v>80</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>223</v>
+        <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>224</v>
+        <v>80</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>225</v>
+        <v>80</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>226</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>216</v>
+        <v>132</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>80</v>
@@ -5099,20 +5209,18 @@
         <v>80</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>80</v>
@@ -5161,7 +5269,7 @@
         <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>216</v>
+        <v>139</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5173,59 +5281,63 @@
         <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>222</v>
+        <v>80</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>223</v>
+        <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>224</v>
+        <v>80</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>225</v>
+        <v>80</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>226</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>80</v>
+        <v>222</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>151</v>
+        <v>223</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>80</v>
       </c>
@@ -5273,19 +5385,19 @@
         <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>153</v>
+        <v>227</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>80</v>
@@ -5294,7 +5406,7 @@
         <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>80</v>
@@ -5305,11 +5417,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5319,25 +5431,25 @@
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>134</v>
+        <v>229</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5375,11 +5487,9 @@
         <v>80</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="AB29" s="2"/>
       <c r="AC29" t="s" s="2">
         <v>80</v>
       </c>
@@ -5387,7 +5497,7 @@
         <v>138</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>157</v>
+        <v>228</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5399,29 +5509,31 @@
         <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>80</v>
+        <v>234</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>80</v>
+        <v>235</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>154</v>
+        <v>236</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>80</v>
+        <v>237</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>80</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="B30" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="C30" t="s" s="2">
         <v>80</v>
       </c>
@@ -5436,26 +5548,24 @@
         <v>80</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>108</v>
+        <v>229</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>80</v>
       </c>
@@ -5479,13 +5589,13 @@
         <v>80</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>238</v>
+        <v>80</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>80</v>
@@ -5503,13 +5613,13 @@
         <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>80</v>
@@ -5518,24 +5628,24 @@
         <v>100</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>80</v>
+        <v>234</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>131</v>
+        <v>235</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>80</v>
+        <v>237</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>80</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5555,23 +5665,19 @@
         <v>80</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>244</v>
+        <v>151</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>80</v>
       </c>
@@ -5595,13 +5701,13 @@
         <v>80</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>174</v>
+        <v>80</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>248</v>
+        <v>80</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>249</v>
+        <v>80</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>80</v>
@@ -5619,7 +5725,7 @@
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>250</v>
+        <v>153</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5631,16 +5737,16 @@
         <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>251</v>
+        <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>242</v>
+        <v>154</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>80</v>
@@ -5651,18 +5757,18 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>80</v>
+        <v>222</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>80</v>
@@ -5671,35 +5777,33 @@
         <v>80</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>257</v>
+        <v>80</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>258</v>
+        <v>80</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>80</v>
@@ -5723,40 +5827,40 @@
         <v>80</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>259</v>
+        <v>157</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>260</v>
+        <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>261</v>
+        <v>154</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
@@ -5767,7 +5871,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5775,7 +5879,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>88</v>
@@ -5784,24 +5888,26 @@
         <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>150</v>
+        <v>108</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>80</v>
       </c>
@@ -5813,7 +5919,7 @@
         <v>80</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>266</v>
+        <v>80</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>80</v>
@@ -5825,13 +5931,13 @@
         <v>80</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>80</v>
+        <v>251</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>80</v>
+        <v>252</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>80</v>
@@ -5849,7 +5955,7 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5867,10 +5973,10 @@
         <v>80</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>268</v>
+        <v>131</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>80</v>
@@ -5881,7 +5987,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5904,16 +6010,20 @@
         <v>89</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>271</v>
+        <v>165</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>80</v>
       </c>
@@ -5937,13 +6047,13 @@
         <v>80</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>80</v>
+        <v>260</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>80</v>
+        <v>261</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>80</v>
@@ -5961,7 +6071,7 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5979,10 +6089,10 @@
         <v>80</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>80</v>
@@ -5993,7 +6103,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6001,7 +6111,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>88</v>
@@ -6016,30 +6126,32 @@
         <v>89</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>278</v>
+        <v>102</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>80</v>
+        <v>269</v>
       </c>
       <c r="R35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>80</v>
+        <v>270</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>80</v>
@@ -6075,7 +6187,7 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -6093,10 +6205,10 @@
         <v>80</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>80</v>
@@ -6107,7 +6219,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6115,10 +6227,10 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>80</v>
@@ -6130,16 +6242,16 @@
         <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>286</v>
+        <v>150</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6153,7 +6265,7 @@
         <v>80</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>80</v>
+        <v>278</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>80</v>
@@ -6189,13 +6301,13 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>80</v>
@@ -6204,13 +6316,13 @@
         <v>100</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>290</v>
+        <v>80</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>147</v>
+        <v>280</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
@@ -6221,7 +6333,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6232,7 +6344,7 @@
         <v>78</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>80</v>
@@ -6244,17 +6356,15 @@
         <v>89</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>102</v>
+        <v>283</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>80</v>
@@ -6303,13 +6413,13 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>80</v>
@@ -6318,13 +6428,13 @@
         <v>100</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>296</v>
+        <v>80</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>147</v>
+        <v>287</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
@@ -6333,23 +6443,23 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>298</v>
+        <v>80</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>80</v>
@@ -6358,15 +6468,17 @@
         <v>89</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>80</v>
@@ -6415,13 +6527,13 @@
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>80</v>
@@ -6430,13 +6542,13 @@
         <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>302</v>
+        <v>80</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>80</v>
@@ -6445,13 +6557,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>306</v>
+        <v>80</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6461,7 +6573,7 @@
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>80</v>
@@ -6470,15 +6582,17 @@
         <v>89</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>80</v>
@@ -6527,7 +6641,7 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6542,13 +6656,13 @@
         <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>311</v>
+        <v>147</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>80</v>
@@ -6557,23 +6671,23 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>314</v>
+        <v>80</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>80</v>
@@ -6582,20 +6696,18 @@
         <v>89</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>217</v>
+        <v>102</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>80</v>
       </c>
@@ -6643,13 +6755,13 @@
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>80</v>
@@ -6658,13 +6770,13 @@
         <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>320</v>
+        <v>147</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>80</v>
@@ -6675,40 +6787,38 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>80</v>
+        <v>310</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>108</v>
+        <v>311</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>80</v>
@@ -6733,13 +6843,13 @@
         <v>80</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>238</v>
+        <v>80</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>326</v>
+        <v>80</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>327</v>
+        <v>80</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>80</v>
@@ -6757,13 +6867,13 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>80</v>
@@ -6772,57 +6882,55 @@
         <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>331</v>
+        <v>80</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>332</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>80</v>
+        <v>318</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>108</v>
+        <v>319</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>80</v>
@@ -6847,13 +6955,13 @@
         <v>80</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>238</v>
+        <v>80</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>337</v>
+        <v>80</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>338</v>
+        <v>80</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>80</v>
@@ -6871,13 +6979,13 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>80</v>
@@ -6886,16 +6994,16 @@
         <v>100</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>131</v>
+        <v>323</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>341</v>
+        <v>80</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>80</v>
@@ -6903,15 +7011,15 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>80</v>
+        <v>326</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>88</v>
@@ -6926,19 +7034,19 @@
         <v>89</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>165</v>
+        <v>229</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>80</v>
@@ -6963,11 +7071,13 @@
         <v>80</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X43" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Y43" t="s" s="2">
-        <v>347</v>
+        <v>80</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>80</v>
@@ -6985,13 +7095,13 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>80</v>
@@ -7000,16 +7110,16 @@
         <v>100</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>80</v>
+        <v>331</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>341</v>
+        <v>80</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
@@ -7017,7 +7127,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7025,7 +7135,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>88</v>
@@ -7034,7 +7144,7 @@
         <v>89</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>89</v>
@@ -7043,19 +7153,19 @@
         <v>108</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P44" t="s" s="2">
-        <v>353</v>
-      </c>
+      <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
         <v>80</v>
       </c>
@@ -7075,13 +7185,13 @@
         <v>80</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>80</v>
@@ -7099,10 +7209,10 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>88</v>
@@ -7114,24 +7224,24 @@
         <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>80</v>
+        <v>344</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7139,13 +7249,13 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>89</v>
@@ -7154,26 +7264,22 @@
         <v>89</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>361</v>
+        <v>108</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P45" t="s" s="2">
-        <v>366</v>
-      </c>
+      <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7193,13 +7299,13 @@
         <v>80</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>80</v>
+        <v>349</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>80</v>
@@ -7217,10 +7323,10 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>88</v>
@@ -7232,16 +7338,16 @@
         <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>80</v>
+        <v>353</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>80</v>
@@ -7249,7 +7355,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7257,7 +7363,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>88</v>
@@ -7269,21 +7375,23 @@
         <v>80</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>370</v>
+        <v>165</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>80</v>
       </c>
@@ -7307,13 +7415,11 @@
         <v>80</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X46" s="2"/>
       <c r="Y46" t="s" s="2">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>80</v>
@@ -7331,16 +7437,16 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>100</v>
@@ -7349,13 +7455,13 @@
         <v>80</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>80</v>
+        <v>353</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>80</v>
@@ -7363,7 +7469,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7374,7 +7480,7 @@
         <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>89</v>
@@ -7383,25 +7489,25 @@
         <v>80</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>370</v>
+        <v>108</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P47" s="2"/>
+      <c r="P47" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="Q47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7421,13 +7527,13 @@
         <v>80</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>168</v>
+        <v>250</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>80</v>
@@ -7445,31 +7551,31 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>80</v>
+        <v>368</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>80</v>
+        <v>371</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>80</v>
@@ -7477,7 +7583,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7494,28 +7600,32 @@
         <v>80</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="N48" t="s" s="2">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P48" s="2"/>
+      <c r="P48" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="Q48" t="s" s="2">
         <v>80</v>
       </c>
@@ -7559,7 +7669,7 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7574,13 +7684,13 @@
         <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>80</v>
+        <v>379</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>388</v>
+        <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>80</v>
@@ -7591,7 +7701,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7599,7 +7709,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>88</v>
@@ -7611,18 +7721,20 @@
         <v>80</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>80</v>
@@ -7647,13 +7759,13 @@
         <v>80</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>80</v>
+        <v>386</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>80</v>
+        <v>387</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>80</v>
@@ -7671,70 +7783,72 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>394</v>
+        <v>80</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>397</v>
+        <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>398</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>80</v>
@@ -7759,13 +7873,13 @@
         <v>80</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>80</v>
+        <v>393</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>80</v>
+        <v>394</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>80</v>
@@ -7783,53 +7897,53 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>404</v>
+        <v>80</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>407</v>
+        <v>80</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>408</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>410</v>
+        <v>80</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>80</v>
@@ -7838,16 +7952,18 @@
         <v>89</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
+      <c r="N51" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>80</v>
       </c>
@@ -7895,7 +8011,7 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7910,24 +8026,24 @@
         <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>414</v>
+        <v>80</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>417</v>
+        <v>80</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>418</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7935,13 +8051,13 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>80</v>
@@ -7950,13 +8066,13 @@
         <v>89</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7983,13 +8099,13 @@
         <v>80</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>423</v>
+        <v>80</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>424</v>
+        <v>80</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>80</v>
@@ -8007,10 +8123,10 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>88</v>
@@ -8022,38 +8138,38 @@
         <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>80</v>
+        <v>406</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>80</v>
+        <v>407</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>80</v>
+        <v>409</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>426</v>
+        <v>410</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>80</v>
@@ -8062,13 +8178,13 @@
         <v>89</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8119,7 +8235,7 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8134,35 +8250,35 @@
         <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>89</v>
@@ -8174,17 +8290,15 @@
         <v>89</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>442</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>80</v>
@@ -8233,7 +8347,7 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8248,38 +8362,38 @@
         <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>447</v>
+        <v>430</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>449</v>
+        <v>80</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>80</v>
@@ -8288,17 +8402,15 @@
         <v>89</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>165</v>
+        <v>432</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>452</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>80</v>
@@ -8326,10 +8438,10 @@
         <v>168</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>80</v>
@@ -8347,7 +8459,7 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8362,35 +8474,35 @@
         <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>455</v>
+        <v>80</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>456</v>
+        <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>458</v>
+        <v>80</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>80</v>
+        <v>438</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>459</v>
+        <v>439</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>89</v>
@@ -8402,17 +8514,15 @@
         <v>89</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>461</v>
+        <v>441</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>462</v>
+        <v>442</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>46